--- a/Attendance Test.xlsx
+++ b/Attendance Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\attendance_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6D038C-7745-4778-BCB9-52A91FBF5118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1BA174-F7C4-46A0-8BF7-E42E66C408C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="4692" windowWidth="23256" windowHeight="13896" firstSheet="6" activeTab="13" xr2:uid="{A7955748-8F8E-4629-9B7A-DC1BC8E73719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="13" xr2:uid="{A7955748-8F8E-4629-9B7A-DC1BC8E73719}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1 2022" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="507">
   <si>
     <t>First Name</t>
   </si>
@@ -1568,6 +1568,9 @@
   <si>
     <t>Noordeep Singh</t>
   </si>
+  <si>
+    <t xml:space="preserve">Kirtan </t>
+  </si>
 </sst>
 </file>
 
@@ -1716,7 +1719,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1924,6 +1927,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1931,7 +1945,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2075,6 +2089,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10049,10 +10070,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98E0ED3-A009-44A3-BB55-5421E7309795}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="D181" sqref="D181:L181"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17599,8 +17620,43 @@
         <v>0.35262808641975307</v>
       </c>
     </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A185" s="63">
+        <v>20241077</v>
+      </c>
+      <c r="B185" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="C185" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="F185" s="64">
+        <v>1</v>
+      </c>
+      <c r="G185" s="64">
+        <v>1</v>
+      </c>
+      <c r="H185" s="64">
+        <v>1</v>
+      </c>
+      <c r="I185" s="64">
+        <v>1</v>
+      </c>
+      <c r="J185" s="64">
+        <v>1</v>
+      </c>
+      <c r="K185" s="64">
+        <v>1</v>
+      </c>
+      <c r="L185" s="64">
+        <v>1</v>
+      </c>
+      <c r="M185" s="65">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="M2:M184">
+  <conditionalFormatting sqref="M2:M185">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.9</formula>
     </cfRule>
@@ -33988,8 +34044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA3181-CD29-4C7C-BAFB-910963920095}">
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34060,8 +34116,8 @@
       <c r="I2" s="12">
         <v>0.86</v>
       </c>
-      <c r="J2" s="12">
-        <v>0.25</v>
+      <c r="J2" s="11">
+        <v>1.1299999999999999</v>
       </c>
       <c r="K2" s="12">
         <v>0.82</v>
@@ -34136,8 +34192,8 @@
       <c r="I4" s="11">
         <v>1.1399999999999999</v>
       </c>
-      <c r="J4" s="12">
-        <v>0.4</v>
+      <c r="J4" s="11">
+        <v>1.31</v>
       </c>
       <c r="K4" s="11">
         <v>1.2</v>
@@ -34175,7 +34231,7 @@
         <v>1.02</v>
       </c>
       <c r="J5" s="12">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K5" s="11">
         <v>1.08</v>
@@ -34212,8 +34268,8 @@
       <c r="I6" s="11">
         <v>1.04</v>
       </c>
-      <c r="J6" s="12">
-        <v>0.33</v>
+      <c r="J6" s="11">
+        <v>1.23</v>
       </c>
       <c r="K6" s="11">
         <v>1.02</v>
@@ -34251,7 +34307,7 @@
         <v>0.78</v>
       </c>
       <c r="J7" s="12">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="K7" s="12">
         <v>0.74</v>
@@ -34289,7 +34345,7 @@
         <v>0.15</v>
       </c>
       <c r="J8" s="12">
-        <v>0.22</v>
+        <v>0.53</v>
       </c>
       <c r="K8" s="12">
         <v>0</v>
@@ -34326,8 +34382,8 @@
       <c r="I9" s="11">
         <v>0.92</v>
       </c>
-      <c r="J9" s="12">
-        <v>0.3</v>
+      <c r="J9" s="11">
+        <v>1.22</v>
       </c>
       <c r="K9" s="11">
         <v>0.98</v>
@@ -34364,8 +34420,8 @@
       <c r="I10" s="12">
         <v>0.82</v>
       </c>
-      <c r="J10" s="12">
-        <v>0.31</v>
+      <c r="J10" s="11">
+        <v>1.23</v>
       </c>
       <c r="K10" s="11">
         <v>0.97</v>
@@ -34403,7 +34459,7 @@
         <v>0.78</v>
       </c>
       <c r="J11" s="12">
-        <v>0.4</v>
+        <v>0.86</v>
       </c>
       <c r="K11" s="11">
         <v>0.93</v>
@@ -34440,8 +34496,8 @@
       <c r="I12" s="11">
         <v>0.99</v>
       </c>
-      <c r="J12" s="12">
-        <v>0.74</v>
+      <c r="J12" s="11">
+        <v>1.31</v>
       </c>
       <c r="K12" s="11">
         <v>1.03</v>
@@ -34517,7 +34573,7 @@
         <v>0.85</v>
       </c>
       <c r="J14" s="12">
-        <v>0.32</v>
+        <v>0.86</v>
       </c>
       <c r="K14" s="12">
         <v>0.76</v>
@@ -34554,8 +34610,8 @@
       <c r="I15" s="12">
         <v>0.64</v>
       </c>
-      <c r="J15" s="12">
-        <v>0.37</v>
+      <c r="J15" s="11">
+        <v>1.23</v>
       </c>
       <c r="K15" s="11">
         <v>0.98</v>
@@ -34592,8 +34648,8 @@
       <c r="I16" s="12">
         <v>0.78</v>
       </c>
-      <c r="J16" s="12">
-        <v>0.41</v>
+      <c r="J16" s="11">
+        <v>1.04</v>
       </c>
       <c r="K16" s="12">
         <v>0.82</v>
@@ -34631,7 +34687,7 @@
         <v>0.43</v>
       </c>
       <c r="J17" s="12">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="K17" s="11">
         <v>1.24</v>
@@ -34668,8 +34724,8 @@
       <c r="I18" s="11">
         <v>0.99</v>
       </c>
-      <c r="J18" s="12">
-        <v>0.63</v>
+      <c r="J18" s="11">
+        <v>1.25</v>
       </c>
       <c r="K18" s="11">
         <v>1.02</v>
@@ -34706,8 +34762,8 @@
       <c r="I19" s="11">
         <v>1.07</v>
       </c>
-      <c r="J19" s="12">
-        <v>0.43</v>
+      <c r="J19" s="11">
+        <v>1.46</v>
       </c>
       <c r="K19" s="11">
         <v>1.05</v>
@@ -34733,22 +34789,22 @@
         <v>0.7</v>
       </c>
       <c r="F20" s="12">
-        <v>0.45</v>
+        <v>0.83</v>
       </c>
       <c r="G20" s="12">
         <v>0</v>
       </c>
       <c r="H20" s="12">
-        <v>0.26</v>
+        <v>0.76</v>
       </c>
       <c r="I20" s="12">
         <v>0.51</v>
       </c>
       <c r="J20" s="12">
-        <v>0.26</v>
+        <v>0.67</v>
       </c>
       <c r="K20" s="12">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L20" s="11">
         <v>1</v>
@@ -34821,7 +34877,7 @@
         <v>0.99</v>
       </c>
       <c r="J22" s="12">
-        <v>0.38</v>
+        <v>0.87</v>
       </c>
       <c r="K22" s="11">
         <v>1.04</v>
@@ -34859,7 +34915,7 @@
         <v>0.64</v>
       </c>
       <c r="J23" s="12">
-        <v>0.31</v>
+        <v>0.87</v>
       </c>
       <c r="K23" s="11">
         <v>1.02</v>
@@ -34935,7 +34991,7 @@
         <v>1.06</v>
       </c>
       <c r="J25" s="12">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="K25" s="11">
         <v>1.01</v>
@@ -34958,7 +35014,7 @@
         <v>0.9</v>
       </c>
       <c r="E26" s="12">
-        <v>0.18</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F26" s="11">
         <v>0.99</v>
@@ -34973,7 +35029,7 @@
         <v>0.68</v>
       </c>
       <c r="J26" s="12">
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
       <c r="K26" s="12">
         <v>0.67</v>
@@ -35010,8 +35066,8 @@
       <c r="I27" s="11">
         <v>1.02</v>
       </c>
-      <c r="J27" s="12">
-        <v>0.34</v>
+      <c r="J27" s="11">
+        <v>1.32</v>
       </c>
       <c r="K27" s="11">
         <v>1.1399999999999999</v>
@@ -35048,8 +35104,8 @@
       <c r="I28" s="11">
         <v>1.04</v>
       </c>
-      <c r="J28" s="12">
-        <v>0.31</v>
+      <c r="J28" s="11">
+        <v>1.26</v>
       </c>
       <c r="K28" s="11">
         <v>0.99</v>
@@ -35086,8 +35142,8 @@
       <c r="I29" s="11">
         <v>1</v>
       </c>
-      <c r="J29" s="12">
-        <v>0.52</v>
+      <c r="J29" s="11">
+        <v>1.29</v>
       </c>
       <c r="K29" s="11">
         <v>0.92</v>
@@ -35124,8 +35180,8 @@
       <c r="I30" s="12">
         <v>0.43</v>
       </c>
-      <c r="J30" s="12">
-        <v>0.4</v>
+      <c r="J30" s="11">
+        <v>1</v>
       </c>
       <c r="K30" s="11">
         <v>1.03</v>
@@ -35162,8 +35218,8 @@
       <c r="I31" s="11">
         <v>0.93</v>
       </c>
-      <c r="J31" s="12">
-        <v>0.48</v>
+      <c r="J31" s="11">
+        <v>1.17</v>
       </c>
       <c r="K31" s="12">
         <v>0.86</v>
@@ -35201,7 +35257,7 @@
         <v>0.24</v>
       </c>
       <c r="J32" s="12">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="K32" s="12">
         <v>0.56999999999999995</v>
@@ -35238,8 +35294,8 @@
       <c r="I33" s="12">
         <v>0.8</v>
       </c>
-      <c r="J33" s="12">
-        <v>0.39</v>
+      <c r="J33" s="11">
+        <v>0.99</v>
       </c>
       <c r="K33" s="11">
         <v>1.01</v>
@@ -35276,8 +35332,8 @@
       <c r="I34" s="11">
         <v>1.01</v>
       </c>
-      <c r="J34" s="12">
-        <v>0.4</v>
+      <c r="J34" s="11">
+        <v>1.53</v>
       </c>
       <c r="K34" s="11">
         <v>0.97</v>
@@ -35352,8 +35408,8 @@
       <c r="I36" s="11">
         <v>0.94</v>
       </c>
-      <c r="J36" s="12">
-        <v>0.48</v>
+      <c r="J36" s="11">
+        <v>1.25</v>
       </c>
       <c r="K36" s="11">
         <v>0.99</v>
@@ -35390,8 +35446,8 @@
       <c r="I37" s="11">
         <v>1.08</v>
       </c>
-      <c r="J37" s="12">
-        <v>0.41</v>
+      <c r="J37" s="11">
+        <v>1.29</v>
       </c>
       <c r="K37" s="11">
         <v>1.03</v>
@@ -35429,7 +35485,7 @@
         <v>0.73</v>
       </c>
       <c r="J38" s="12">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="K38" s="12">
         <v>0.72</v>
@@ -35466,8 +35522,8 @@
       <c r="I39" s="11">
         <v>0.98</v>
       </c>
-      <c r="J39" s="12">
-        <v>0.31</v>
+      <c r="J39" s="11">
+        <v>1.21</v>
       </c>
       <c r="K39" s="11">
         <v>0.98</v>
@@ -35542,8 +35598,8 @@
       <c r="I41" s="12">
         <v>0.51</v>
       </c>
-      <c r="J41" s="12">
-        <v>0.2</v>
+      <c r="J41" s="11">
+        <v>1.02</v>
       </c>
       <c r="K41" s="11">
         <v>1.06</v>
@@ -35580,11 +35636,11 @@
       <c r="I42" s="11">
         <v>0.96</v>
       </c>
-      <c r="J42" s="12">
-        <v>0.42</v>
-      </c>
-      <c r="K42" s="12">
-        <v>0.64</v>
+      <c r="J42" s="11">
+        <v>1.17</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0.98</v>
       </c>
       <c r="L42" s="12">
         <v>0.68</v>
@@ -35618,8 +35674,8 @@
       <c r="I43" s="11">
         <v>0.94</v>
       </c>
-      <c r="J43" s="12">
-        <v>0</v>
+      <c r="J43" s="11">
+        <v>0.93</v>
       </c>
       <c r="K43" s="12">
         <v>0.74</v>
@@ -35657,7 +35713,7 @@
         <v>0.46</v>
       </c>
       <c r="J44" s="12">
-        <v>0.24</v>
+        <v>0.7</v>
       </c>
       <c r="K44" s="12">
         <v>0.56000000000000005</v>
@@ -35695,7 +35751,7 @@
         <v>0.73</v>
       </c>
       <c r="J45" s="12">
-        <v>0.24</v>
+        <v>0.75</v>
       </c>
       <c r="K45" s="12">
         <v>0.56000000000000005</v>
@@ -35733,7 +35789,7 @@
         <v>0.46</v>
       </c>
       <c r="J46" s="12">
-        <v>0.25</v>
+        <v>0.71</v>
       </c>
       <c r="K46" s="12">
         <v>0.56000000000000005</v>
@@ -35770,8 +35826,8 @@
       <c r="I47" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J47" s="12">
-        <v>0.41</v>
+      <c r="J47" s="11">
+        <v>0.95</v>
       </c>
       <c r="K47" s="11">
         <v>1.0900000000000001</v>
@@ -35808,8 +35864,8 @@
       <c r="I48" s="12">
         <v>0.69</v>
       </c>
-      <c r="J48" s="12">
-        <v>0.45</v>
+      <c r="J48" s="11">
+        <v>1.07</v>
       </c>
       <c r="K48" s="12">
         <v>0.85</v>
@@ -35846,8 +35902,8 @@
       <c r="I49" s="12">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J49" s="12">
-        <v>0.56000000000000005</v>
+      <c r="J49" s="11">
+        <v>1.08</v>
       </c>
       <c r="K49" s="12">
         <v>0.73</v>
@@ -35884,8 +35940,8 @@
       <c r="I50" s="11">
         <v>0.99</v>
       </c>
-      <c r="J50" s="12">
-        <v>0.25</v>
+      <c r="J50" s="11">
+        <v>1.19</v>
       </c>
       <c r="K50" s="11">
         <v>0.97</v>
@@ -35923,7 +35979,7 @@
         <v>0.98</v>
       </c>
       <c r="J51" s="12">
-        <v>0.38</v>
+        <v>0.83</v>
       </c>
       <c r="K51" s="11">
         <v>0.96</v>
@@ -35961,7 +36017,7 @@
         <v>0.91</v>
       </c>
       <c r="J52" s="12">
-        <v>0.35</v>
+        <v>0.79</v>
       </c>
       <c r="K52" s="11">
         <v>0.95</v>
@@ -35999,7 +36055,7 @@
         <v>0.66</v>
       </c>
       <c r="J53" s="12">
-        <v>0.33</v>
+        <v>0.77</v>
       </c>
       <c r="K53" s="12">
         <v>0.85</v>
@@ -36036,8 +36092,8 @@
       <c r="I54" s="12">
         <v>0.71</v>
       </c>
-      <c r="J54" s="12">
-        <v>0.27</v>
+      <c r="J54" s="11">
+        <v>0.97</v>
       </c>
       <c r="K54" s="12">
         <v>0.76</v>
@@ -36075,7 +36131,7 @@
         <v>0.59</v>
       </c>
       <c r="J55" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.84</v>
       </c>
       <c r="K55" s="12">
         <v>0.71</v>
@@ -36112,8 +36168,8 @@
       <c r="I56" s="11">
         <v>0.98</v>
       </c>
-      <c r="J56" s="12">
-        <v>0.24</v>
+      <c r="J56" s="11">
+        <v>0.91</v>
       </c>
       <c r="K56" s="12">
         <v>0.67</v>
@@ -36151,7 +36207,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J57" s="12">
-        <v>0.44</v>
+        <v>0.9</v>
       </c>
       <c r="K57" s="11">
         <v>1.05</v>
@@ -36189,7 +36245,7 @@
         <v>0.97</v>
       </c>
       <c r="J58" s="12">
-        <v>0.2</v>
+        <v>0.74</v>
       </c>
       <c r="K58" s="11">
         <v>1.03</v>
@@ -36227,7 +36283,7 @@
         <v>0.92</v>
       </c>
       <c r="J59" s="12">
-        <v>0.05</v>
+        <v>0.79</v>
       </c>
       <c r="K59" s="11">
         <v>1</v>
@@ -36302,8 +36358,8 @@
       <c r="I61" s="11">
         <v>0.96</v>
       </c>
-      <c r="J61" s="12">
-        <v>0.23</v>
+      <c r="J61" s="11">
+        <v>1.1000000000000001</v>
       </c>
       <c r="K61" s="12">
         <v>0.43</v>
@@ -36378,8 +36434,8 @@
       <c r="I63" s="11">
         <v>0.95</v>
       </c>
-      <c r="J63" s="12">
-        <v>0.41</v>
+      <c r="J63" s="11">
+        <v>1.05</v>
       </c>
       <c r="K63" s="11">
         <v>1.02</v>
@@ -36405,7 +36461,7 @@
         <v>0.79</v>
       </c>
       <c r="F64" s="12">
-        <v>0.86</v>
+        <v>0.81</v>
       </c>
       <c r="G64" s="12">
         <v>0.9</v>
@@ -36417,7 +36473,7 @@
         <v>0.78</v>
       </c>
       <c r="J64" s="12">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="K64" s="12">
         <v>0.84</v>
@@ -36454,8 +36510,8 @@
       <c r="I65" s="12">
         <v>0.78</v>
       </c>
-      <c r="J65" s="12">
-        <v>0.41</v>
+      <c r="J65" s="11">
+        <v>0.9</v>
       </c>
       <c r="K65" s="11">
         <v>0.95</v>
@@ -36493,7 +36549,7 @@
         <v>0.78</v>
       </c>
       <c r="J66" s="12">
-        <v>0.25</v>
+        <v>0.77</v>
       </c>
       <c r="K66" s="11">
         <v>1.07</v>
@@ -36530,8 +36586,8 @@
       <c r="I67" s="11">
         <v>1.02</v>
       </c>
-      <c r="J67" s="12">
-        <v>0.35</v>
+      <c r="J67" s="11">
+        <v>0.99</v>
       </c>
       <c r="K67" s="11">
         <v>0.99</v>
@@ -36569,7 +36625,7 @@
         <v>0.68</v>
       </c>
       <c r="J68" s="12">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="K68" s="12">
         <v>0.88</v>
@@ -36607,7 +36663,7 @@
         <v>0.94</v>
       </c>
       <c r="J69" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.89</v>
       </c>
       <c r="K69" s="11">
         <v>1.01</v>
@@ -36644,8 +36700,8 @@
       <c r="I70" s="12">
         <v>0.51</v>
       </c>
-      <c r="J70" s="12">
-        <v>0.26</v>
+      <c r="J70" s="11">
+        <v>1.01</v>
       </c>
       <c r="K70" s="12">
         <v>0.52</v>
@@ -36682,8 +36738,8 @@
       <c r="I71" s="11">
         <v>1.01</v>
       </c>
-      <c r="J71" s="12">
-        <v>0.51</v>
+      <c r="J71" s="11">
+        <v>0.94</v>
       </c>
       <c r="K71" s="11">
         <v>1.01</v>
@@ -36720,8 +36776,8 @@
       <c r="I72" s="11">
         <v>0.96</v>
       </c>
-      <c r="J72" s="12">
-        <v>0.72</v>
+      <c r="J72" s="11">
+        <v>1.25</v>
       </c>
       <c r="K72" s="11">
         <v>1</v>
@@ -36758,8 +36814,8 @@
       <c r="I73" s="11">
         <v>1.28</v>
       </c>
-      <c r="J73" s="12">
-        <v>0.38</v>
+      <c r="J73" s="11">
+        <v>1.26</v>
       </c>
       <c r="K73" s="11">
         <v>1</v>
@@ -36797,7 +36853,7 @@
         <v>0.47</v>
       </c>
       <c r="J74" s="12">
-        <v>0.19</v>
+        <v>0.83</v>
       </c>
       <c r="K74" s="12">
         <v>0.5</v>
@@ -36835,7 +36891,7 @@
         <v>0.44</v>
       </c>
       <c r="J75" s="12">
-        <v>0.24</v>
+        <v>0.7</v>
       </c>
       <c r="K75" s="12">
         <v>0.56000000000000005</v>
@@ -36872,8 +36928,8 @@
       <c r="I76" s="11">
         <v>1</v>
       </c>
-      <c r="J76" s="12">
-        <v>0.45</v>
+      <c r="J76" s="11">
+        <v>1.29</v>
       </c>
       <c r="K76" s="11">
         <v>1.17</v>
@@ -36911,7 +36967,7 @@
         <v>0.67</v>
       </c>
       <c r="J77" s="12">
-        <v>0.33</v>
+        <v>0.82</v>
       </c>
       <c r="K77" s="11">
         <v>1</v>
@@ -36937,7 +36993,7 @@
         <v>0.85</v>
       </c>
       <c r="F78" s="12">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="G78" s="12">
         <v>0.84</v>
@@ -36949,7 +37005,7 @@
         <v>0.88</v>
       </c>
       <c r="J78" s="12">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="K78" s="12">
         <v>0.66</v>
@@ -36986,8 +37042,8 @@
       <c r="I79" s="11">
         <v>1</v>
       </c>
-      <c r="J79" s="12">
-        <v>0.39</v>
+      <c r="J79" s="11">
+        <v>1.31</v>
       </c>
       <c r="K79" s="11">
         <v>1.05</v>
@@ -37013,7 +37069,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="12">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="G80" s="12">
         <v>0.36</v>
@@ -37025,7 +37081,7 @@
         <v>0.94</v>
       </c>
       <c r="J80" s="12">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="K80" s="11">
         <v>1.1499999999999999</v>
@@ -37048,7 +37104,7 @@
         <v>0.73</v>
       </c>
       <c r="E81" s="12">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
       <c r="F81" s="12">
         <v>0.68</v>
@@ -37063,7 +37119,7 @@
         <v>0.49</v>
       </c>
       <c r="J81" s="12">
-        <v>0.37</v>
+        <v>0.89</v>
       </c>
       <c r="K81" s="12">
         <v>0.78</v>
@@ -37089,7 +37145,7 @@
         <v>0.98</v>
       </c>
       <c r="F82" s="11">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="G82" s="11">
         <v>1</v>
@@ -37100,8 +37156,8 @@
       <c r="I82" s="11">
         <v>0.95</v>
       </c>
-      <c r="J82" s="12">
-        <v>0.51</v>
+      <c r="J82" s="11">
+        <v>1.27</v>
       </c>
       <c r="K82" s="12">
         <v>0.84</v>
@@ -37138,8 +37194,8 @@
       <c r="I83" s="11">
         <v>0.91</v>
       </c>
-      <c r="J83" s="12">
-        <v>0.32</v>
+      <c r="J83" s="11">
+        <v>1.08</v>
       </c>
       <c r="K83" s="12">
         <v>0.74</v>
@@ -37177,7 +37233,7 @@
         <v>0.78</v>
       </c>
       <c r="J84" s="12">
-        <v>0.27</v>
+        <v>0.69</v>
       </c>
       <c r="K84" s="12">
         <v>0.86</v>
@@ -37215,7 +37271,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="12">
-        <v>0.24</v>
+        <v>0.78</v>
       </c>
       <c r="K85" s="11">
         <v>1.01</v>
@@ -37244,7 +37300,7 @@
         <v>1.39</v>
       </c>
       <c r="G86" s="11">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="H86" s="12">
         <v>0.75</v>
@@ -37252,8 +37308,8 @@
       <c r="I86" s="11">
         <v>0.96</v>
       </c>
-      <c r="J86" s="12">
-        <v>0.31</v>
+      <c r="J86" s="11">
+        <v>1.23</v>
       </c>
       <c r="K86" s="11">
         <v>0.94</v>
@@ -37291,7 +37347,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="J87" s="12">
-        <v>0.41</v>
+        <v>0.84</v>
       </c>
       <c r="K87" s="11">
         <v>1.03</v>
@@ -37329,7 +37385,7 @@
         <v>0.77</v>
       </c>
       <c r="J88" s="12">
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
       <c r="K88" s="12">
         <v>0.53</v>
@@ -37366,8 +37422,8 @@
       <c r="I89" s="12">
         <v>0.64</v>
       </c>
-      <c r="J89" s="12">
-        <v>0.37</v>
+      <c r="J89" s="11">
+        <v>1.22</v>
       </c>
       <c r="K89" s="11">
         <v>0.98</v>
@@ -37404,8 +37460,8 @@
       <c r="I90" s="11">
         <v>0.94</v>
       </c>
-      <c r="J90" s="12">
-        <v>0.37</v>
+      <c r="J90" s="11">
+        <v>1.06</v>
       </c>
       <c r="K90" s="11">
         <v>0.97</v>
@@ -37442,8 +37498,8 @@
       <c r="I91" s="11">
         <v>0.95</v>
       </c>
-      <c r="J91" s="12">
-        <v>0</v>
+      <c r="J91" s="11">
+        <v>0.93</v>
       </c>
       <c r="K91" s="12">
         <v>0.77</v>
@@ -37480,8 +37536,8 @@
       <c r="I92" s="11">
         <v>1.05</v>
       </c>
-      <c r="J92" s="12">
-        <v>0.31</v>
+      <c r="J92" s="11">
+        <v>1.26</v>
       </c>
       <c r="K92" s="11">
         <v>1.03</v>
@@ -37518,8 +37574,8 @@
       <c r="I93" s="11">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J93" s="12">
-        <v>0.56000000000000005</v>
+      <c r="J93" s="11">
+        <v>1.1100000000000001</v>
       </c>
       <c r="K93" s="12">
         <v>0.69</v>
@@ -37556,8 +37612,8 @@
       <c r="I94" s="11">
         <v>1.03</v>
       </c>
-      <c r="J94" s="12">
-        <v>0.42</v>
+      <c r="J94" s="11">
+        <v>0.93</v>
       </c>
       <c r="K94" s="12">
         <v>0.72</v>
@@ -37595,7 +37651,7 @@
         <v>1.05</v>
       </c>
       <c r="J95" s="12">
-        <v>0.34</v>
+        <v>0.8</v>
       </c>
       <c r="K95" s="12">
         <v>0.74</v>
@@ -37633,7 +37689,7 @@
         <v>0.91</v>
       </c>
       <c r="J96" s="12">
-        <v>0.37</v>
+        <v>0.88</v>
       </c>
       <c r="K96" s="12">
         <v>0.49</v>
@@ -37662,7 +37718,7 @@
         <v>1.08</v>
       </c>
       <c r="G97" s="12">
-        <v>0.42</v>
+        <v>0.88</v>
       </c>
       <c r="H97" s="12">
         <v>0.81</v>
@@ -37670,8 +37726,8 @@
       <c r="I97" s="12">
         <v>0.86</v>
       </c>
-      <c r="J97" s="12">
-        <v>0.4</v>
+      <c r="J97" s="11">
+        <v>1.03</v>
       </c>
       <c r="K97" s="12">
         <v>0.59</v>
@@ -37708,8 +37764,8 @@
       <c r="I98" s="11">
         <v>1</v>
       </c>
-      <c r="J98" s="12">
-        <v>0.51</v>
+      <c r="J98" s="11">
+        <v>1.1200000000000001</v>
       </c>
       <c r="K98" s="11">
         <v>0.96</v>
@@ -37746,8 +37802,8 @@
       <c r="I99" s="12">
         <v>0.9</v>
       </c>
-      <c r="J99" s="12">
-        <v>0.34</v>
+      <c r="J99" s="11">
+        <v>0.99</v>
       </c>
       <c r="K99" s="12">
         <v>0.85</v>
@@ -37785,7 +37841,7 @@
         <v>0.64</v>
       </c>
       <c r="J100" s="12">
-        <v>0.22</v>
+        <v>0.79</v>
       </c>
       <c r="K100" s="11">
         <v>0.98</v>
@@ -37823,7 +37879,7 @@
         <v>0.94</v>
       </c>
       <c r="J101" s="12">
-        <v>0.2</v>
+        <v>0.84</v>
       </c>
       <c r="K101" s="11">
         <v>0.97</v>
@@ -37861,7 +37917,7 @@
         <v>0.71</v>
       </c>
       <c r="J102" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="K102" s="11">
         <v>0.95</v>
@@ -37898,8 +37954,8 @@
       <c r="I103" s="11">
         <v>1.31</v>
       </c>
-      <c r="J103" s="12">
-        <v>0.42</v>
+      <c r="J103" s="11">
+        <v>0.97</v>
       </c>
       <c r="K103" s="12">
         <v>0.68</v>
@@ -37925,7 +37981,7 @@
         <v>0.32</v>
       </c>
       <c r="F104" s="12">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="G104" s="12">
         <v>0.51</v>
@@ -37937,7 +37993,7 @@
         <v>0.37</v>
       </c>
       <c r="J104" s="12">
-        <v>0.34</v>
+        <v>0.69</v>
       </c>
       <c r="K104" s="12">
         <v>0.32</v>
@@ -37974,8 +38030,8 @@
       <c r="I105" s="11">
         <v>0.94</v>
       </c>
-      <c r="J105" s="12">
-        <v>0.49</v>
+      <c r="J105" s="11">
+        <v>1.21</v>
       </c>
       <c r="K105" s="11">
         <v>1.01</v>
@@ -38013,7 +38069,7 @@
         <v>1.17</v>
       </c>
       <c r="J106" s="12">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="K106" s="11">
         <v>1.06</v>
@@ -38050,8 +38106,8 @@
       <c r="I107" s="11">
         <v>1</v>
       </c>
-      <c r="J107" s="12">
-        <v>0.45</v>
+      <c r="J107" s="11">
+        <v>1.1000000000000001</v>
       </c>
       <c r="K107" s="12">
         <v>0.39</v>
@@ -38088,8 +38144,8 @@
       <c r="I108" s="11">
         <v>0.96</v>
       </c>
-      <c r="J108" s="12">
-        <v>0.38</v>
+      <c r="J108" s="11">
+        <v>1.2</v>
       </c>
       <c r="K108" s="12">
         <v>0.89</v>
@@ -38127,7 +38183,7 @@
         <v>0.49</v>
       </c>
       <c r="J109" s="12">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="K109" s="12">
         <v>0.41</v>
@@ -38164,8 +38220,8 @@
       <c r="I110" s="11">
         <v>1.06</v>
       </c>
-      <c r="J110" s="12">
-        <v>0.42</v>
+      <c r="J110" s="11">
+        <v>0.92</v>
       </c>
       <c r="K110" s="11">
         <v>1.07</v>
@@ -38202,8 +38258,8 @@
       <c r="I111" s="12">
         <v>0.52</v>
       </c>
-      <c r="J111" s="12">
-        <v>0.5</v>
+      <c r="J111" s="11">
+        <v>1.1200000000000001</v>
       </c>
       <c r="K111" s="11">
         <v>1.03</v>
@@ -38240,8 +38296,8 @@
       <c r="I112" s="11">
         <v>1.04</v>
       </c>
-      <c r="J112" s="12">
-        <v>0.27</v>
+      <c r="J112" s="11">
+        <v>1.23</v>
       </c>
       <c r="K112" s="12">
         <v>0.45</v>
@@ -38279,7 +38335,7 @@
         <v>1.17</v>
       </c>
       <c r="J113" s="12">
-        <v>0.4</v>
+        <v>0.78</v>
       </c>
       <c r="K113" s="11">
         <v>1.01</v>
@@ -38354,8 +38410,8 @@
       <c r="I115" s="11">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J115" s="12">
-        <v>0.42</v>
+      <c r="J115" s="11">
+        <v>1.47</v>
       </c>
       <c r="K115" s="11">
         <v>1.1599999999999999</v>
@@ -38392,8 +38448,8 @@
       <c r="I116" s="12">
         <v>0.4</v>
       </c>
-      <c r="J116" s="12">
-        <v>0.35</v>
+      <c r="J116" s="11">
+        <v>1.26</v>
       </c>
       <c r="K116" s="12">
         <v>0.7</v>
@@ -38431,7 +38487,7 @@
         <v>1.01</v>
       </c>
       <c r="J117" s="12">
-        <v>0.51</v>
+        <v>0.87</v>
       </c>
       <c r="K117" s="11">
         <v>1.01</v>
@@ -38469,7 +38525,7 @@
         <v>1.03</v>
       </c>
       <c r="J118" s="12">
-        <v>0.12</v>
+        <v>0.81</v>
       </c>
       <c r="K118" s="11">
         <v>1.01</v>
@@ -38507,7 +38563,7 @@
         <v>0.82</v>
       </c>
       <c r="J119" s="12">
-        <v>0.28000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="K119" s="11">
         <v>1.04</v>
@@ -38545,7 +38601,7 @@
         <v>1.03</v>
       </c>
       <c r="J120" s="12">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K120" s="11">
         <v>1.04</v>
@@ -38582,8 +38638,8 @@
       <c r="I121" s="11">
         <v>0.95</v>
       </c>
-      <c r="J121" s="12">
-        <v>0.27</v>
+      <c r="J121" s="11">
+        <v>1.29</v>
       </c>
       <c r="K121" s="12">
         <v>0.77</v>
@@ -38620,8 +38676,8 @@
       <c r="I122" s="11">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J122" s="12">
-        <v>0.36</v>
+      <c r="J122" s="11">
+        <v>1.23</v>
       </c>
       <c r="K122" s="11">
         <v>1.27</v>
@@ -38659,7 +38715,7 @@
         <v>0.89</v>
       </c>
       <c r="J123" s="12">
-        <v>0.1</v>
+        <v>0.62</v>
       </c>
       <c r="K123" s="12">
         <v>0.89</v>
@@ -38688,7 +38744,7 @@
         <v>0.95</v>
       </c>
       <c r="G124" s="11">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="H124" s="11">
         <v>1.1599999999999999</v>
@@ -38697,7 +38753,7 @@
         <v>0.99</v>
       </c>
       <c r="J124" s="12">
-        <v>0.42</v>
+        <v>0.83</v>
       </c>
       <c r="K124" s="12">
         <v>0.82</v>
@@ -38734,8 +38790,8 @@
       <c r="I125" s="12">
         <v>0.78</v>
       </c>
-      <c r="J125" s="12">
-        <v>0</v>
+      <c r="J125" s="11">
+        <v>0.93</v>
       </c>
       <c r="K125" s="12">
         <v>0.75</v>
@@ -38772,8 +38828,8 @@
       <c r="I126" s="11">
         <v>0.99</v>
       </c>
-      <c r="J126" s="12">
-        <v>0.26</v>
+      <c r="J126" s="11">
+        <v>0.94</v>
       </c>
       <c r="K126" s="11">
         <v>0.92</v>
@@ -38810,8 +38866,8 @@
       <c r="I127" s="11">
         <v>0.95</v>
       </c>
-      <c r="J127" s="12">
-        <v>0.25</v>
+      <c r="J127" s="11">
+        <v>1.1599999999999999</v>
       </c>
       <c r="K127" s="11">
         <v>1.25</v>
@@ -38849,7 +38905,7 @@
         <v>0.21</v>
       </c>
       <c r="J128" s="12">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
       <c r="K128" s="12">
         <v>0.11</v>
@@ -38886,8 +38942,8 @@
       <c r="I129" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J129" s="12">
-        <v>0</v>
+      <c r="J129" s="11">
+        <v>0.97</v>
       </c>
       <c r="K129" s="11">
         <v>1.07</v>
@@ -38916,7 +38972,7 @@
         <v>1.07</v>
       </c>
       <c r="G130" s="11">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H130" s="11">
         <v>1.34</v>
@@ -38924,8 +38980,8 @@
       <c r="I130" s="11">
         <v>1.0900000000000001</v>
       </c>
-      <c r="J130" s="12">
-        <v>0.34</v>
+      <c r="J130" s="11">
+        <v>1.28</v>
       </c>
       <c r="K130" s="11">
         <v>1.02</v>
@@ -38963,7 +39019,7 @@
         <v>1.02</v>
       </c>
       <c r="J131" s="12">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="K131" s="12">
         <v>0.7</v>
@@ -39001,7 +39057,7 @@
         <v>1.08</v>
       </c>
       <c r="J132" s="12">
-        <v>0.32</v>
+        <v>0.74</v>
       </c>
       <c r="K132" s="11">
         <v>0.92</v>
@@ -39038,8 +39094,8 @@
       <c r="I133" s="11">
         <v>0.96</v>
       </c>
-      <c r="J133" s="12">
-        <v>0.56999999999999995</v>
+      <c r="J133" s="11">
+        <v>0.93</v>
       </c>
       <c r="K133" s="11">
         <v>1.22</v>
@@ -39076,8 +39132,8 @@
       <c r="I134" s="11">
         <v>1.25</v>
       </c>
-      <c r="J134" s="12">
-        <v>0</v>
+      <c r="J134" s="11">
+        <v>0.92</v>
       </c>
       <c r="K134" s="11">
         <v>1.1299999999999999</v>
@@ -39114,8 +39170,8 @@
       <c r="I135" s="12">
         <v>0.31</v>
       </c>
-      <c r="J135" s="12">
-        <v>0</v>
+      <c r="J135" s="11">
+        <v>0.93</v>
       </c>
       <c r="K135" s="12">
         <v>0.72</v>
@@ -39153,7 +39209,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="J136" s="12">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="K136" s="11">
         <v>1.17</v>
@@ -39191,7 +39247,7 @@
         <v>1.03</v>
       </c>
       <c r="J137" s="12">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="K137" s="11">
         <v>1.02</v>
@@ -39229,7 +39285,7 @@
         <v>0.52</v>
       </c>
       <c r="J138" s="12">
-        <v>0.31</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K138" s="12">
         <v>0.61</v>
@@ -39266,8 +39322,8 @@
       <c r="I139" s="11">
         <v>1.03</v>
       </c>
-      <c r="J139" s="12">
-        <v>0.33</v>
+      <c r="J139" s="11">
+        <v>1.28</v>
       </c>
       <c r="K139" s="11">
         <v>1.07</v>
@@ -39305,7 +39361,7 @@
         <v>0.8</v>
       </c>
       <c r="J140" s="12">
-        <v>0.2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K140" s="12">
         <v>0.17</v>
@@ -39343,7 +39399,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="J141" s="12">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="K141" s="11">
         <v>1</v>
@@ -39380,8 +39436,8 @@
       <c r="I142" s="11">
         <v>1.17</v>
       </c>
-      <c r="J142" s="12">
-        <v>0.36</v>
+      <c r="J142" s="11">
+        <v>1.31</v>
       </c>
       <c r="K142" s="11">
         <v>1.1100000000000001</v>
@@ -39419,7 +39475,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="J143" s="12">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="K143" s="12">
         <v>0.68</v>
@@ -39457,7 +39513,7 @@
         <v>0.93</v>
       </c>
       <c r="J144" s="12">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="K144" s="11">
         <v>1.07</v>
@@ -39495,7 +39551,7 @@
         <v>0.97</v>
       </c>
       <c r="J145" s="12">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K145" s="11">
         <v>1.02</v>
@@ -39532,8 +39588,8 @@
       <c r="I146" s="11">
         <v>1.03</v>
       </c>
-      <c r="J146" s="12">
-        <v>0</v>
+      <c r="J146" s="11">
+        <v>0.9</v>
       </c>
       <c r="K146" s="11">
         <v>1.01</v>
@@ -39570,8 +39626,8 @@
       <c r="I147" s="11">
         <v>0.97</v>
       </c>
-      <c r="J147" s="12">
-        <v>0.37</v>
+      <c r="J147" s="11">
+        <v>0.99</v>
       </c>
       <c r="K147" s="11">
         <v>1.07</v>
@@ -39608,8 +39664,8 @@
       <c r="I148" s="12">
         <v>0.89</v>
       </c>
-      <c r="J148" s="12">
-        <v>0.48</v>
+      <c r="J148" s="11">
+        <v>1.03</v>
       </c>
       <c r="K148" s="11">
         <v>1.02</v>
@@ -39646,8 +39702,8 @@
       <c r="I149" s="11">
         <v>1.21</v>
       </c>
-      <c r="J149" s="12">
-        <v>0.28000000000000003</v>
+      <c r="J149" s="11">
+        <v>1.3</v>
       </c>
       <c r="K149" s="11">
         <v>1.0900000000000001</v>
@@ -39684,8 +39740,8 @@
       <c r="I150" s="11">
         <v>0.99</v>
       </c>
-      <c r="J150" s="12">
-        <v>0.75</v>
+      <c r="J150" s="11">
+        <v>1.31</v>
       </c>
       <c r="K150" s="12">
         <v>0.77</v>
@@ -39723,7 +39779,7 @@
         <v>0.67</v>
       </c>
       <c r="J151" s="12">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="K151" s="12">
         <v>0.72</v>
@@ -39760,8 +39816,8 @@
       <c r="I152" s="11">
         <v>0.99</v>
       </c>
-      <c r="J152" s="12">
-        <v>0.48</v>
+      <c r="J152" s="11">
+        <v>1.46</v>
       </c>
       <c r="K152" s="11">
         <v>0.95</v>
@@ -39799,7 +39855,7 @@
         <v>0.93</v>
       </c>
       <c r="J153" s="12">
-        <v>0.33</v>
+        <v>0.84</v>
       </c>
       <c r="K153" s="12">
         <v>0.57999999999999996</v>
@@ -39836,8 +39892,8 @@
       <c r="I154" s="11">
         <v>1.17</v>
       </c>
-      <c r="J154" s="12">
-        <v>0</v>
+      <c r="J154" s="11">
+        <v>0.96</v>
       </c>
       <c r="K154" s="11">
         <v>1.17</v>
@@ -39875,7 +39931,7 @@
         <v>0.71</v>
       </c>
       <c r="J155" s="12">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="K155" s="11">
         <v>1.03</v>
@@ -39950,8 +40006,8 @@
       <c r="I157" s="11">
         <v>1.06</v>
       </c>
-      <c r="J157" s="12">
-        <v>0</v>
+      <c r="J157" s="11">
+        <v>0.92</v>
       </c>
       <c r="K157" s="11">
         <v>1.03</v>
@@ -39988,8 +40044,8 @@
       <c r="I158" s="11">
         <v>0.94</v>
       </c>
-      <c r="J158" s="12">
-        <v>0</v>
+      <c r="J158" s="11">
+        <v>0.96</v>
       </c>
       <c r="K158" s="11">
         <v>1.1000000000000001</v>
@@ -40027,10 +40083,10 @@
         <v>0.46</v>
       </c>
       <c r="J159" s="12">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="K159" s="11">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="L159" s="11">
         <v>1.1499999999999999</v>
@@ -40064,8 +40120,8 @@
       <c r="I160" s="11">
         <v>1.04</v>
       </c>
-      <c r="J160" s="12">
-        <v>0</v>
+      <c r="J160" s="11">
+        <v>0.94</v>
       </c>
       <c r="K160" s="11">
         <v>1.04</v>
@@ -40103,7 +40159,7 @@
         <v>1.07</v>
       </c>
       <c r="J161" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="K161" s="11">
         <v>1.07</v>
@@ -40141,7 +40197,7 @@
         <v>0.67</v>
       </c>
       <c r="J162" s="12">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="K162" s="11">
         <v>1.08</v>
@@ -40179,7 +40235,7 @@
         <v>1.07</v>
       </c>
       <c r="J163" s="12">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="K163" s="11">
         <v>0.99</v>
@@ -40217,7 +40273,7 @@
         <v>1.01</v>
       </c>
       <c r="J164" s="12">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="K164" s="11">
         <v>0.93</v>
@@ -40254,8 +40310,8 @@
       <c r="I165" s="11">
         <v>1.08</v>
       </c>
-      <c r="J165" s="12">
-        <v>0</v>
+      <c r="J165" s="11">
+        <v>0.97</v>
       </c>
       <c r="K165" s="11">
         <v>1.1100000000000001</v>
@@ -40292,8 +40348,8 @@
       <c r="I166" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J166" s="12">
-        <v>0</v>
+      <c r="J166" s="11">
+        <v>0.95</v>
       </c>
       <c r="K166" s="11">
         <v>1.17</v>
@@ -40324,14 +40380,14 @@
       <c r="G167" s="11">
         <v>0.93</v>
       </c>
-      <c r="H167" s="12">
-        <v>0.13</v>
+      <c r="H167" s="11">
+        <v>1.1599999999999999</v>
       </c>
       <c r="I167" s="12">
         <v>0</v>
       </c>
-      <c r="J167" s="12">
-        <v>0</v>
+      <c r="J167" s="11">
+        <v>0.93</v>
       </c>
       <c r="K167" s="11">
         <v>0.99</v>
@@ -40369,7 +40425,7 @@
         <v>1.01</v>
       </c>
       <c r="J168" s="12">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="K168" s="11">
         <v>1</v>
@@ -40407,7 +40463,7 @@
         <v>0.97</v>
       </c>
       <c r="J169" s="12">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="K169" s="11">
         <v>1.01</v>
@@ -40444,8 +40500,8 @@
       <c r="I170" s="12">
         <v>0.87</v>
       </c>
-      <c r="J170" s="12">
-        <v>0</v>
+      <c r="J170" s="11">
+        <v>0.95</v>
       </c>
       <c r="K170" s="11">
         <v>1.04</v>
@@ -40483,7 +40539,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J171" s="12">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="K171" s="11">
         <v>1.07</v>
@@ -40520,8 +40576,8 @@
       <c r="I172" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="J172" s="12">
-        <v>0</v>
+      <c r="J172" s="11">
+        <v>1</v>
       </c>
       <c r="K172" s="11">
         <v>1.04</v>
@@ -40559,7 +40615,7 @@
         <v>0.64</v>
       </c>
       <c r="J173" s="12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K173" s="12">
         <v>0.48</v>
@@ -40597,7 +40653,7 @@
         <v>0.96</v>
       </c>
       <c r="J174" s="12">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="K174" s="11">
         <v>0.99</v>
@@ -40635,7 +40691,7 @@
         <v>0.68</v>
       </c>
       <c r="J175" s="12">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="K175" s="12">
         <v>0</v>
@@ -40673,7 +40729,7 @@
         <v>0.11</v>
       </c>
       <c r="J176" s="12">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="K176" s="12">
         <v>0</v>
@@ -40711,7 +40767,7 @@
         <v>0.65</v>
       </c>
       <c r="J177" s="12">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="K177" s="11">
         <v>1.02</v>
@@ -40787,7 +40843,7 @@
         <v>0.67</v>
       </c>
       <c r="J179" s="12">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="K179" s="12">
         <v>0.72</v>
@@ -40824,8 +40880,8 @@
       <c r="I180" s="11">
         <v>1.07</v>
       </c>
-      <c r="J180" s="12">
-        <v>0</v>
+      <c r="J180" s="11">
+        <v>1.02</v>
       </c>
       <c r="K180" s="12">
         <v>0.69</v>
@@ -40863,7 +40919,7 @@
         <v>1.01</v>
       </c>
       <c r="J181" s="12">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K181" s="11">
         <v>1</v>
@@ -40901,7 +40957,7 @@
         <v>1.01</v>
       </c>
       <c r="J182" s="12">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="K182" s="11">
         <v>1</v>
@@ -40939,7 +40995,7 @@
         <v>0.66</v>
       </c>
       <c r="J183" s="12">
-        <v>0.68</v>
+        <v>0.85</v>
       </c>
       <c r="K183" s="12">
         <v>0.67</v>
@@ -41014,8 +41070,8 @@
       <c r="I185" s="11">
         <v>0.95</v>
       </c>
-      <c r="J185" s="12">
-        <v>0.76</v>
+      <c r="J185" s="11">
+        <v>0.94</v>
       </c>
       <c r="K185" s="11">
         <v>0.93</v>
@@ -41091,7 +41147,7 @@
         <v>1.04</v>
       </c>
       <c r="J187" s="11">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="K187" s="11">
         <v>1.03</v>
@@ -41128,8 +41184,8 @@
       <c r="I188" s="11">
         <v>0.92</v>
       </c>
-      <c r="J188" s="12">
-        <v>0.78</v>
+      <c r="J188" s="11">
+        <v>0.97</v>
       </c>
       <c r="K188" s="11">
         <v>1</v>
@@ -41167,7 +41223,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="11">
-        <v>0.98</v>
+        <v>1.22</v>
       </c>
       <c r="K189" s="11">
         <v>0.99</v>
@@ -41205,7 +41261,7 @@
         <v>1.02</v>
       </c>
       <c r="J190" s="12">
-        <v>0.68</v>
+        <v>0.85</v>
       </c>
       <c r="K190" s="12">
         <v>0.55000000000000004</v>
@@ -41243,7 +41299,7 @@
         <v>0.99</v>
       </c>
       <c r="J191" s="12">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="K191" s="12">
         <v>0.43</v>
@@ -41280,8 +41336,8 @@
       <c r="I192" s="11">
         <v>0.93</v>
       </c>
-      <c r="J192" s="12">
-        <v>0.75</v>
+      <c r="J192" s="11">
+        <v>0.94</v>
       </c>
       <c r="K192" s="11">
         <v>0.91</v>
@@ -41319,7 +41375,7 @@
         <v>0.44</v>
       </c>
       <c r="J193" s="12">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="K193" s="12">
         <v>0.59</v>
@@ -41357,7 +41413,7 @@
         <v>0.97</v>
       </c>
       <c r="J194" s="12">
-        <v>0.63</v>
+        <v>0.79</v>
       </c>
       <c r="K194" s="12">
         <v>0.88</v>
@@ -41394,8 +41450,8 @@
       <c r="I195" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J195" s="12">
-        <v>0.89</v>
+      <c r="J195" s="11">
+        <v>1.1100000000000001</v>
       </c>
       <c r="K195" s="12">
         <v>0.23</v>
@@ -41433,7 +41489,7 @@
         <v>0.98</v>
       </c>
       <c r="J196" s="11">
-        <v>0.97</v>
+        <v>1.22</v>
       </c>
       <c r="K196" s="11">
         <v>1</v>
@@ -41470,8 +41526,8 @@
       <c r="I197" s="11">
         <v>0.96</v>
       </c>
-      <c r="J197" s="12">
-        <v>0.89</v>
+      <c r="J197" s="11">
+        <v>1.1100000000000001</v>
       </c>
       <c r="K197" s="12">
         <v>0.71</v>
@@ -41508,8 +41564,8 @@
       <c r="I198" s="12">
         <v>0.84</v>
       </c>
-      <c r="J198" s="12">
-        <v>0.73</v>
+      <c r="J198" s="11">
+        <v>0.92</v>
       </c>
       <c r="K198" s="12">
         <v>0.61</v>
@@ -41546,8 +41602,8 @@
       <c r="I199" s="12">
         <v>0.88</v>
       </c>
-      <c r="J199" s="12">
-        <v>0.89</v>
+      <c r="J199" s="11">
+        <v>1.1100000000000001</v>
       </c>
       <c r="K199" s="12">
         <v>0.79</v>
@@ -41585,7 +41641,7 @@
         <v>0.86</v>
       </c>
       <c r="J200" s="12">
-        <v>0.66</v>
+        <v>0.82</v>
       </c>
       <c r="K200" s="12">
         <v>0.83</v>
@@ -41623,7 +41679,7 @@
         <v>0.6</v>
       </c>
       <c r="J201" s="11">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="K201" s="11">
         <v>0.92</v>
@@ -41661,7 +41717,7 @@
         <v>0.69</v>
       </c>
       <c r="J202" s="12">
-        <v>0.56000000000000005</v>
+        <v>0.7</v>
       </c>
       <c r="K202" s="12">
         <v>0</v>
@@ -41699,7 +41755,7 @@
         <v>1.01</v>
       </c>
       <c r="J203" s="11">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="K203" s="11">
         <v>1.05</v>
@@ -41737,7 +41793,7 @@
         <v>1.06</v>
       </c>
       <c r="J204" s="12">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="K204" s="12">
         <v>0.42</v>
@@ -41774,8 +41830,8 @@
       <c r="I205" s="11">
         <v>0.98</v>
       </c>
-      <c r="J205" s="12">
-        <v>0.73</v>
+      <c r="J205" s="11">
+        <v>0.91</v>
       </c>
       <c r="K205" s="11">
         <v>0.9</v>
@@ -41812,8 +41868,8 @@
       <c r="I206" s="11">
         <v>1.02</v>
       </c>
-      <c r="J206" s="12">
-        <v>0.88</v>
+      <c r="J206" s="11">
+        <v>1.1000000000000001</v>
       </c>
       <c r="K206" s="11">
         <v>1</v>
@@ -41851,7 +41907,7 @@
         <v>0.81</v>
       </c>
       <c r="J207" s="11">
-        <v>0.91</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K207" s="12">
         <v>0.72</v>
@@ -41889,7 +41945,7 @@
         <v>1.05</v>
       </c>
       <c r="J208" s="11">
-        <v>0.95</v>
+        <v>1.19</v>
       </c>
       <c r="K208" s="11">
         <v>0.98</v>
@@ -41926,8 +41982,8 @@
       <c r="I209" s="11">
         <v>1.01</v>
       </c>
-      <c r="J209" s="12">
-        <v>0.8</v>
+      <c r="J209" s="11">
+        <v>1</v>
       </c>
       <c r="K209" s="11">
         <v>1</v>
@@ -41965,7 +42021,7 @@
         <v>0.96</v>
       </c>
       <c r="J210" s="11">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="K210" s="11">
         <v>0.92</v>
@@ -42003,7 +42059,7 @@
         <v>0.95</v>
       </c>
       <c r="J211" s="11">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="K211" s="12">
         <v>0.88</v>
@@ -42041,7 +42097,7 @@
         <v>1</v>
       </c>
       <c r="J212" s="12">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="K212" s="11">
         <v>1</v>
@@ -42079,7 +42135,7 @@
         <v>0.68</v>
       </c>
       <c r="J213" s="12">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="K213" s="11">
         <v>1</v>
@@ -42117,7 +42173,7 @@
         <v>1</v>
       </c>
       <c r="J214" s="12">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="K214" s="11">
         <v>1</v>
@@ -42155,7 +42211,7 @@
         <v>1</v>
       </c>
       <c r="J215" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="K215" s="11">
         <v>1</v>
@@ -42193,13 +42249,13 @@
         <v>0.85</v>
       </c>
       <c r="J216" s="12">
-        <v>-0.19</v>
+        <v>0.82</v>
       </c>
       <c r="K216" s="12">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L216" s="12">
-        <v>0.65</v>
+        <v>0.79</v>
+      </c>
+      <c r="L216" s="11">
+        <v>0.92</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
@@ -42230,8 +42286,8 @@
       <c r="I217" s="11">
         <v>0.98</v>
       </c>
-      <c r="J217" s="12">
-        <v>0.15</v>
+      <c r="J217" s="11">
+        <v>1.27</v>
       </c>
       <c r="K217" s="11">
         <v>1.04</v>
@@ -42269,13 +42325,13 @@
         <v>0</v>
       </c>
       <c r="J218" s="12">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="K218" s="11">
         <v>1.24</v>
       </c>
-      <c r="L218" s="12">
-        <v>0.15</v>
+      <c r="L218" s="11">
+        <v>0.92</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
@@ -42307,13 +42363,13 @@
         <v>0.96</v>
       </c>
       <c r="J219" s="12">
-        <v>0.33</v>
-      </c>
-      <c r="K219" s="12">
-        <v>0.16</v>
-      </c>
-      <c r="L219" s="12">
-        <v>0.18</v>
+        <v>0.84</v>
+      </c>
+      <c r="K219" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="L219" s="11">
+        <v>1.01</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
@@ -42345,10 +42401,10 @@
         <v>1.01</v>
       </c>
       <c r="J220" s="12">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="K220" s="12">
-        <v>0.68</v>
+        <v>0.88</v>
       </c>
       <c r="L220" s="12">
         <v>0.79</v>
@@ -42382,11 +42438,11 @@
       <c r="I221" s="11">
         <v>1</v>
       </c>
-      <c r="J221" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="K221" s="12">
-        <v>0.12</v>
+      <c r="J221" s="11">
+        <v>1.37</v>
+      </c>
+      <c r="K221" s="11">
+        <v>0.96</v>
       </c>
       <c r="L221" s="12">
         <v>0.64</v>
@@ -42420,11 +42476,11 @@
       <c r="I222" s="11">
         <v>1.02</v>
       </c>
-      <c r="J222" s="12">
-        <v>0.49</v>
+      <c r="J222" s="11">
+        <v>1.33</v>
       </c>
       <c r="K222" s="11">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="L222" s="11">
         <v>1.23</v>
@@ -42497,10 +42553,10 @@
         <v>1.01</v>
       </c>
       <c r="J224" s="12">
-        <v>-0.26</v>
-      </c>
-      <c r="K224" s="12">
-        <v>0.46</v>
+        <v>0.59</v>
+      </c>
+      <c r="K224" s="11">
+        <v>1.06</v>
       </c>
       <c r="L224" s="11">
         <v>0.95</v>
@@ -42535,13 +42591,13 @@
         <v>1.02</v>
       </c>
       <c r="J225" s="12">
-        <v>-0.49</v>
-      </c>
-      <c r="K225" s="12">
-        <v>0.23</v>
-      </c>
-      <c r="L225" s="12">
-        <v>0.18</v>
+        <v>0.9</v>
+      </c>
+      <c r="K225" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="L225" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -42572,8 +42628,8 @@
       <c r="I226" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J226" s="12">
-        <v>0.32</v>
+      <c r="J226" s="11">
+        <v>1.23</v>
       </c>
       <c r="K226" s="11">
         <v>0.95</v>
@@ -42610,11 +42666,11 @@
       <c r="I227" s="11">
         <v>1.02</v>
       </c>
-      <c r="J227" s="12">
-        <v>-0.33</v>
+      <c r="J227" s="11">
+        <v>1.22</v>
       </c>
       <c r="K227" s="11">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="L227" s="12">
         <v>0.89</v>
@@ -42649,13 +42705,13 @@
         <v>0.91</v>
       </c>
       <c r="J228" s="12">
-        <v>-0.44</v>
+        <v>0.89</v>
       </c>
       <c r="K228" s="11">
-        <v>1.08</v>
-      </c>
-      <c r="L228" s="12">
-        <v>0.2</v>
+        <v>1.35</v>
+      </c>
+      <c r="L228" s="11">
+        <v>1.02</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -42686,8 +42742,8 @@
       <c r="I229" s="11">
         <v>1.02</v>
       </c>
-      <c r="J229" s="12">
-        <v>0.4</v>
+      <c r="J229" s="11">
+        <v>1.04</v>
       </c>
       <c r="K229" s="12">
         <v>0.85</v>
@@ -64496,6 +64552,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="3cef09ca-690e-48ca-8db1-bbccdf684368" xsi:nil="true"/>
@@ -64506,7 +64571,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C055B46FD48B3346B10CEACF6165CA2E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ce32beb785b16a844e5ac9984a39cddd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2ba1b9e1-d32c-453a-80ca-da429ca95d13" xmlns:ns3="3cef09ca-690e-48ca-8db1-bbccdf684368" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="929a4414321bae1528947cb08dec1f5d" ns2:_="" ns3:_="">
     <xsd:import namespace="2ba1b9e1-d32c-453a-80ca-da429ca95d13"/>
@@ -64761,16 +64826,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EF37548-399B-4B64-AB6C-62FF5630FEED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DA11991-CB2B-42C8-9D1A-27999BA19AA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="3cef09ca-690e-48ca-8db1-bbccdf684368"/>
@@ -64787,7 +64851,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835DC02C-D0D2-4615-ADA0-1E9180E8CC6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -64804,12 +64868,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EF37548-399B-4B64-AB6C-62FF5630FEED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Attendance Test.xlsx
+++ b/Attendance Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\attendance_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinals\source\repos\whitecliffe_hunt\flask-attendance-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1BA174-F7C4-46A0-8BF7-E42E66C408C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F580A651-777E-4267-9049-AC447FA70254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="13" xr2:uid="{A7955748-8F8E-4629-9B7A-DC1BC8E73719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="14" xr2:uid="{A7955748-8F8E-4629-9B7A-DC1BC8E73719}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1 2022" sheetId="3" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Q4 2024" sheetId="20" r:id="rId12"/>
     <sheet name="Q1 2025" sheetId="21" r:id="rId13"/>
     <sheet name="Q2 2025" sheetId="23" r:id="rId14"/>
+    <sheet name="Q3_2025" sheetId="24" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="553">
   <si>
     <t>First Name</t>
   </si>
@@ -1571,6 +1572,144 @@
   <si>
     <t xml:space="preserve">Kirtan </t>
   </si>
+  <si>
+    <t>Lok Raj</t>
+  </si>
+  <si>
+    <t>Kailash</t>
+  </si>
+  <si>
+    <t>Nabjeet</t>
+  </si>
+  <si>
+    <t>Bhagat</t>
+  </si>
+  <si>
+    <t>Ujjwal</t>
+  </si>
+  <si>
+    <t>Bharati</t>
+  </si>
+  <si>
+    <t>Surya</t>
+  </si>
+  <si>
+    <t>Partap</t>
+  </si>
+  <si>
+    <t>Sanchita</t>
+  </si>
+  <si>
+    <t>Shubin</t>
+  </si>
+  <si>
+    <t>Chhetri</t>
+  </si>
+  <si>
+    <t>Sutar Karki</t>
+  </si>
+  <si>
+    <t>Kevin Vinzon</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>D C</t>
+  </si>
+  <si>
+    <t>SANKET</t>
+  </si>
+  <si>
+    <t>DAHAL</t>
+  </si>
+  <si>
+    <t>Bidhan Deb</t>
+  </si>
+  <si>
+    <t>Bishal</t>
+  </si>
+  <si>
+    <t>Ramandeep Kaur</t>
+  </si>
+  <si>
+    <t>Yinon</t>
+  </si>
+  <si>
+    <t>Hever</t>
+  </si>
+  <si>
+    <t>Ratul</t>
+  </si>
+  <si>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>Ishrat</t>
+  </si>
+  <si>
+    <t>Rifa</t>
+  </si>
+  <si>
+    <t>Samip</t>
+  </si>
+  <si>
+    <t>Ojha</t>
+  </si>
+  <si>
+    <t>Dhruvkumar</t>
+  </si>
+  <si>
+    <t>Sosiyal</t>
+  </si>
+  <si>
+    <t>Gautam</t>
+  </si>
+  <si>
+    <t>Rayyan Mohammed Suhail</t>
+  </si>
+  <si>
+    <t>Ansari</t>
+  </si>
+  <si>
+    <t>Dhananjay</t>
+  </si>
+  <si>
+    <t>Jaikishan</t>
+  </si>
+  <si>
+    <t>Jashanpreet Singh</t>
+  </si>
+  <si>
+    <t>Md</t>
+  </si>
+  <si>
+    <t>Sikder</t>
+  </si>
+  <si>
+    <t>Mahadi Hashan</t>
+  </si>
+  <si>
+    <t>Nahin</t>
+  </si>
+  <si>
+    <t>Abu</t>
+  </si>
+  <si>
+    <t>Sayem</t>
+  </si>
+  <si>
+    <t>Robbandeep</t>
+  </si>
+  <si>
+    <t>Brar</t>
+  </si>
+  <si>
+    <t>Ateet</t>
+  </si>
+  <si>
+    <t>Biraj</t>
+  </si>
 </sst>
 </file>
 
@@ -1602,6 +1741,7 @@
       <sz val="10"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1619,6 +1759,7 @@
       <sz val="10"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -34044,8 +34185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA3181-CD29-4C7C-BAFB-910963920095}">
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="P75" sqref="P75"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42755,6 +42896,4959 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADDA66-B5D4-4E7E-B5C3-B6AA86865A89}">
+  <dimension ref="A1:L246"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="59">
+        <v>20220020</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="59">
+        <v>20220510</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="59">
+        <v>20220534</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1.06</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="59">
+        <v>20220594</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="59">
+        <v>20220932</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="59">
+        <v>20220935</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.64</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="59">
+        <v>20220986</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="59">
+        <v>20220996</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="59">
+        <v>20220997</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="59">
+        <v>20221009</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="59">
+        <v>20230110</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="59">
+        <v>20230342</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="59">
+        <v>20230343</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="59">
+        <v>20230345</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="59">
+        <v>20230352</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="59">
+        <v>20230370</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="E17" s="12">
+        <v>-0.51</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="59">
+        <v>20230425</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="59">
+        <v>20230512</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="59">
+        <v>20230516</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="59">
+        <v>20230594</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="59">
+        <v>20230606</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="59">
+        <v>20230637</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="59">
+        <v>20230745</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="59">
+        <v>20230754</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="59">
+        <v>20230782</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="59">
+        <v>20230802</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="59">
+        <v>20230818</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="59">
+        <v>20230825</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="59">
+        <v>20230826</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="59">
+        <v>20230885</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="59">
+        <v>20230891</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1.07</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="59">
+        <v>20230901</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="59">
+        <v>20230904</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="59">
+        <v>20231000</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="59">
+        <v>20231008</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="E36" s="12">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="59">
+        <v>20231016</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="59">
+        <v>20231038</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="59">
+        <v>20231041</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="59">
+        <v>20231044</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="59">
+        <v>20231047</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="59">
+        <v>20231053</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="59">
+        <v>20231058</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="F43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="59">
+        <v>20231059</v>
+      </c>
+      <c r="B44" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="F44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="59">
+        <v>20231060</v>
+      </c>
+      <c r="B45" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="F45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="59">
+        <v>20231095</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="F46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="59">
+        <v>20231130</v>
+      </c>
+      <c r="B47" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="11">
+        <v>1</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="59">
+        <v>20231132</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="59">
+        <v>20231142</v>
+      </c>
+      <c r="B49" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="D49" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="F49" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="59">
+        <v>20231175</v>
+      </c>
+      <c r="B50" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F50" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="59">
+        <v>20231176</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="F51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="59">
+        <v>20231177</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="F52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="59">
+        <v>20231229</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="11">
+        <v>1</v>
+      </c>
+      <c r="E53" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="59">
+        <v>20231232</v>
+      </c>
+      <c r="B54" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="C54" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="E54" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="F54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="59">
+        <v>20231236</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0.61</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="59">
+        <v>20231244</v>
+      </c>
+      <c r="B56" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="D56" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="F56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="59">
+        <v>20231262</v>
+      </c>
+      <c r="B57" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="59">
+        <v>20231288</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="11">
+        <v>1.28</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="F58" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="59">
+        <v>20231306</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="D59" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="E59" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="F59" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="59">
+        <v>20231323</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E60" s="11">
+        <v>1.42</v>
+      </c>
+      <c r="F60" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="59">
+        <v>20231326</v>
+      </c>
+      <c r="B61" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="D61" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="E61" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="59">
+        <v>20231328</v>
+      </c>
+      <c r="B62" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E62" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="F62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="59">
+        <v>20231331</v>
+      </c>
+      <c r="B63" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="E63" s="12">
+        <v>-0.12</v>
+      </c>
+      <c r="F63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="59">
+        <v>20231337</v>
+      </c>
+      <c r="B64" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="E64" s="11">
+        <v>1</v>
+      </c>
+      <c r="F64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="59">
+        <v>20231386</v>
+      </c>
+      <c r="B65" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="E65" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F65" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="59">
+        <v>20231393</v>
+      </c>
+      <c r="B66" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="E66" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="F66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="59">
+        <v>20231403</v>
+      </c>
+      <c r="B67" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="D67" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="F67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="59">
+        <v>20231424</v>
+      </c>
+      <c r="B68" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="F68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="59">
+        <v>20231426</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>319</v>
+      </c>
+      <c r="C69" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="D69" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="E69" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="F69" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="59">
+        <v>20231446</v>
+      </c>
+      <c r="B70" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="D70" s="11">
+        <v>1</v>
+      </c>
+      <c r="E70" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="F70" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="59">
+        <v>20231455</v>
+      </c>
+      <c r="B71" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="D71" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F71" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="59">
+        <v>20231463</v>
+      </c>
+      <c r="B72" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="D72" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="F72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="59">
+        <v>20231480</v>
+      </c>
+      <c r="B73" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="D73" s="11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E73" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="F73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="59">
+        <v>20231531</v>
+      </c>
+      <c r="B74" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="D74" s="11">
+        <v>1</v>
+      </c>
+      <c r="E74" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="F74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="59">
+        <v>20231532</v>
+      </c>
+      <c r="B75" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="E75" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="F75" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="59">
+        <v>20231533</v>
+      </c>
+      <c r="B76" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="D76" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="E76" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F76" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="59">
+        <v>20231595</v>
+      </c>
+      <c r="B77" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="C77" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="11">
+        <v>1</v>
+      </c>
+      <c r="E77" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="F77" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="59">
+        <v>20231601</v>
+      </c>
+      <c r="B78" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="E78" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F78" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="59">
+        <v>20231602</v>
+      </c>
+      <c r="B79" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="D79" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="E79" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="F79" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="59">
+        <v>20231686</v>
+      </c>
+      <c r="B80" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="C80" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="D80" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="E80" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="F80" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="59">
+        <v>20231704</v>
+      </c>
+      <c r="B81" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0.61</v>
+      </c>
+      <c r="E81" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="F81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="59">
+        <v>20231706</v>
+      </c>
+      <c r="B82" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="D82" s="12">
+        <v>0</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F82" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="59">
+        <v>20231815</v>
+      </c>
+      <c r="B83" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="C83" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="D83" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="E83" s="12">
+        <v>0.64</v>
+      </c>
+      <c r="F83" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="59">
+        <v>20231925</v>
+      </c>
+      <c r="B84" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="C84" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="12">
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F84" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="59">
+        <v>20231994</v>
+      </c>
+      <c r="B85" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="E85" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F85" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="59">
+        <v>20233021</v>
+      </c>
+      <c r="B86" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="59" t="s">
+        <v>276</v>
+      </c>
+      <c r="D86" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="E86" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F86" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="59">
+        <v>20233024</v>
+      </c>
+      <c r="B87" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D87" s="12">
+        <v>0</v>
+      </c>
+      <c r="E87" s="12">
+        <v>0</v>
+      </c>
+      <c r="F87" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="59">
+        <v>20233026</v>
+      </c>
+      <c r="B88" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="E88" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="F88" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="59">
+        <v>20240006</v>
+      </c>
+      <c r="B89" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="C89" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E89" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="F89" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="59">
+        <v>20240026</v>
+      </c>
+      <c r="B90" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="E90" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="F90" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="59">
+        <v>20240027</v>
+      </c>
+      <c r="B91" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="E91" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="F91" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="59">
+        <v>20240040</v>
+      </c>
+      <c r="B92" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="C92" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="D92" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="E92" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="F92" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="59">
+        <v>20240054</v>
+      </c>
+      <c r="B93" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="E93" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="F93" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="59">
+        <v>20240133</v>
+      </c>
+      <c r="B94" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="E94" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="F94" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="59">
+        <v>20240143</v>
+      </c>
+      <c r="B95" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="E95" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="F95" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="59">
+        <v>20240147</v>
+      </c>
+      <c r="B96" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="E96" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="F96" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="59">
+        <v>20240153</v>
+      </c>
+      <c r="B97" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="C97" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="D97" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="E97" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="F97" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="59">
+        <v>20240184</v>
+      </c>
+      <c r="B98" s="59" t="s">
+        <v>400</v>
+      </c>
+      <c r="C98" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="D98" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="E98" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="F98" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="59">
+        <v>20240190</v>
+      </c>
+      <c r="B99" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D99" s="12">
+        <v>0</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0</v>
+      </c>
+      <c r="F99" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="59">
+        <v>20240193</v>
+      </c>
+      <c r="B100" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="C100" s="59" t="s">
+        <v>372</v>
+      </c>
+      <c r="D100" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="E100" s="11">
+        <v>1.21</v>
+      </c>
+      <c r="F100" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="59">
+        <v>20240206</v>
+      </c>
+      <c r="B101" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D101" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="E101" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="F101" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="59">
+        <v>20240229</v>
+      </c>
+      <c r="B102" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="E102" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="F102" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="59">
+        <v>20240243</v>
+      </c>
+      <c r="B103" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="C103" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="D103" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="E103" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="F103" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="59">
+        <v>20240259</v>
+      </c>
+      <c r="B104" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D104" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="E104" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F104" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="59">
+        <v>20240326</v>
+      </c>
+      <c r="B105" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="E105" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F105" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="59">
+        <v>20240483</v>
+      </c>
+      <c r="B106" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="C106" s="59" t="s">
+        <v>379</v>
+      </c>
+      <c r="D106" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="E106" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="F106" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="59">
+        <v>20240524</v>
+      </c>
+      <c r="B107" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="E107" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F107" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="59">
+        <v>20240563</v>
+      </c>
+      <c r="B108" s="59" t="s">
+        <v>390</v>
+      </c>
+      <c r="C108" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="D108" s="11">
+        <v>1.06</v>
+      </c>
+      <c r="E108" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="F108" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="59">
+        <v>20240580</v>
+      </c>
+      <c r="B109" s="59" t="s">
+        <v>408</v>
+      </c>
+      <c r="C109" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="D109" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="F109" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="59">
+        <v>20240593</v>
+      </c>
+      <c r="B110" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="C110" s="59" t="s">
+        <v>364</v>
+      </c>
+      <c r="D110" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="E110" s="12">
+        <v>0.32</v>
+      </c>
+      <c r="F110" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="59">
+        <v>20240611</v>
+      </c>
+      <c r="B111" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D111" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="E111" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="F111" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="59">
+        <v>20240641</v>
+      </c>
+      <c r="B112" s="59" t="s">
+        <v>417</v>
+      </c>
+      <c r="C112" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="E112" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="F112" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="59">
+        <v>20240661</v>
+      </c>
+      <c r="B113" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="C113" s="59" t="s">
+        <v>414</v>
+      </c>
+      <c r="D113" s="12">
+        <v>0</v>
+      </c>
+      <c r="E113" s="12">
+        <v>0</v>
+      </c>
+      <c r="F113" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="59">
+        <v>20240670</v>
+      </c>
+      <c r="B114" s="59" t="s">
+        <v>478</v>
+      </c>
+      <c r="C114" s="59" t="s">
+        <v>479</v>
+      </c>
+      <c r="D114" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="E114" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="F114" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="59">
+        <v>20240699</v>
+      </c>
+      <c r="B115" s="59" t="s">
+        <v>365</v>
+      </c>
+      <c r="C115" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="D115" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="E115" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="F115" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="59">
+        <v>20240700</v>
+      </c>
+      <c r="B116" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C116" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="D116" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E116" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="F116" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="59">
+        <v>20240703</v>
+      </c>
+      <c r="B117" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="C117" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D117" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E117" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="F117" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="59">
+        <v>20240707</v>
+      </c>
+      <c r="B118" s="59" t="s">
+        <v>393</v>
+      </c>
+      <c r="C118" s="59" t="s">
+        <v>394</v>
+      </c>
+      <c r="D118" s="12">
+        <v>0</v>
+      </c>
+      <c r="E118" s="12">
+        <v>0</v>
+      </c>
+      <c r="F118" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="59">
+        <v>20240719</v>
+      </c>
+      <c r="B119" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="C119" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D119" s="12">
+        <v>0</v>
+      </c>
+      <c r="E119" s="12">
+        <v>0</v>
+      </c>
+      <c r="F119" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="59">
+        <v>20240737</v>
+      </c>
+      <c r="B120" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="C120" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D120" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="E120" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="F120" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="59">
+        <v>20240746</v>
+      </c>
+      <c r="B121" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="C121" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="D121" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="E121" s="12">
+        <v>0.49</v>
+      </c>
+      <c r="F121" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="59">
+        <v>20240779</v>
+      </c>
+      <c r="B122" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="C122" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="D122" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="E122" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="F122" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="59">
+        <v>20240789</v>
+      </c>
+      <c r="B123" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="D123" s="11">
+        <v>1.07</v>
+      </c>
+      <c r="E123" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="F123" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="59">
+        <v>20240811</v>
+      </c>
+      <c r="B124" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D124" s="12">
+        <v>0.49</v>
+      </c>
+      <c r="E124" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="F124" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="59">
+        <v>20240819</v>
+      </c>
+      <c r="B125" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="C125" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="D125" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E125" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="F125" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="59">
+        <v>20240889</v>
+      </c>
+      <c r="B126" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="D126" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="E126" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="F126" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="59">
+        <v>20240939</v>
+      </c>
+      <c r="B127" s="59" t="s">
+        <v>480</v>
+      </c>
+      <c r="C127" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D127" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="E127" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="F127" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="59">
+        <v>20240943</v>
+      </c>
+      <c r="B128" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="D128" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="E128" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="F128" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="59">
+        <v>20240945</v>
+      </c>
+      <c r="B129" s="59" t="s">
+        <v>429</v>
+      </c>
+      <c r="C129" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="11">
+        <v>1</v>
+      </c>
+      <c r="E129" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="F129" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="59">
+        <v>20240977</v>
+      </c>
+      <c r="B130" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="C130" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D130" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="E130" s="11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F130" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="59">
+        <v>20240984</v>
+      </c>
+      <c r="B131" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="D131" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="E131" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F131" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="59">
+        <v>20240999</v>
+      </c>
+      <c r="B132" s="59" t="s">
+        <v>461</v>
+      </c>
+      <c r="C132" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="D132" s="11">
+        <v>1.07</v>
+      </c>
+      <c r="E132" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F132" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="59">
+        <v>20241046</v>
+      </c>
+      <c r="B133" s="59" t="s">
+        <v>481</v>
+      </c>
+      <c r="C133" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="E133" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="F133" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="59">
+        <v>20241049</v>
+      </c>
+      <c r="B134" s="59" t="s">
+        <v>426</v>
+      </c>
+      <c r="C134" s="59" t="s">
+        <v>427</v>
+      </c>
+      <c r="D134" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E134" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="F134" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="59">
+        <v>20241064</v>
+      </c>
+      <c r="B135" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C135" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="12">
+        <v>0</v>
+      </c>
+      <c r="E135" s="12">
+        <v>0</v>
+      </c>
+      <c r="F135" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="59">
+        <v>20241068</v>
+      </c>
+      <c r="B136" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="C136" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D136" s="12">
+        <v>0</v>
+      </c>
+      <c r="E136" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F136" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="59">
+        <v>20241077</v>
+      </c>
+      <c r="B137" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="C137" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="D137" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="E137" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="F137" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="59">
+        <v>20241107</v>
+      </c>
+      <c r="B138" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="C138" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="D138" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="E138" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="F138" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="59">
+        <v>20241148</v>
+      </c>
+      <c r="B139" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="C139" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="D139" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E139" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="F139" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="59">
+        <v>20241215</v>
+      </c>
+      <c r="B140" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="C140" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D140" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="E140" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="F140" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="59">
+        <v>20241239</v>
+      </c>
+      <c r="B141" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="C141" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="E141" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="F141" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="59">
+        <v>20241246</v>
+      </c>
+      <c r="B142" s="59" t="s">
+        <v>483</v>
+      </c>
+      <c r="C142" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="D142" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E142" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="F142" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="59">
+        <v>20241286</v>
+      </c>
+      <c r="B143" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="C143" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D143" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E143" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="F143" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="59">
+        <v>20241344</v>
+      </c>
+      <c r="B144" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="C144" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="D144" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="E144" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="F144" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="59">
+        <v>20241360</v>
+      </c>
+      <c r="B145" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="D145" s="11">
+        <v>1.17</v>
+      </c>
+      <c r="E145" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="F145" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="59">
+        <v>20241368</v>
+      </c>
+      <c r="B146" s="59" t="s">
+        <v>410</v>
+      </c>
+      <c r="C146" s="59" t="s">
+        <v>411</v>
+      </c>
+      <c r="D146" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="E146" s="11">
+        <v>1</v>
+      </c>
+      <c r="F146" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="59">
+        <v>20241404</v>
+      </c>
+      <c r="B147" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="C147" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="D147" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="E147" s="11">
+        <v>1</v>
+      </c>
+      <c r="F147" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="59">
+        <v>20241424</v>
+      </c>
+      <c r="B148" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="D148" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="E148" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="F148" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="59">
+        <v>20241442</v>
+      </c>
+      <c r="B149" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="C149" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D149" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="E149" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="F149" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="59">
+        <v>20241450</v>
+      </c>
+      <c r="B150" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="C150" s="59" t="s">
+        <v>424</v>
+      </c>
+      <c r="D150" s="12">
+        <v>0</v>
+      </c>
+      <c r="E150" s="12">
+        <v>0</v>
+      </c>
+      <c r="F150" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="59">
+        <v>20241463</v>
+      </c>
+      <c r="B151" s="59" t="s">
+        <v>485</v>
+      </c>
+      <c r="C151" s="59" t="s">
+        <v>486</v>
+      </c>
+      <c r="D151" s="11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E151" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="F151" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="59">
+        <v>20241477</v>
+      </c>
+      <c r="B152" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="C152" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="D152" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="E152" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="F152" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="59">
+        <v>20250023</v>
+      </c>
+      <c r="B153" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="C153" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E153" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="F153" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="59">
+        <v>20250061</v>
+      </c>
+      <c r="B154" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="C154" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="D154" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E154" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="F154" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="59">
+        <v>20250068</v>
+      </c>
+      <c r="B155" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="D155" s="11">
+        <v>1.06</v>
+      </c>
+      <c r="E155" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="F155" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="59">
+        <v>20250070</v>
+      </c>
+      <c r="B156" s="59" t="s">
+        <v>509</v>
+      </c>
+      <c r="C156" s="59" t="s">
+        <v>510</v>
+      </c>
+      <c r="D156" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="E156" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F156" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="59">
+        <v>20250110</v>
+      </c>
+      <c r="B157" s="59" t="s">
+        <v>511</v>
+      </c>
+      <c r="C157" s="59" t="s">
+        <v>512</v>
+      </c>
+      <c r="D157" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="E157" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="F157" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="59">
+        <v>20250129</v>
+      </c>
+      <c r="B158" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="C158" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="E158" s="11">
+        <v>1</v>
+      </c>
+      <c r="F158" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="59">
+        <v>20250134</v>
+      </c>
+      <c r="B159" s="59" t="s">
+        <v>468</v>
+      </c>
+      <c r="C159" s="59" t="s">
+        <v>469</v>
+      </c>
+      <c r="D159" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="E159" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="F159" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="59">
+        <v>20250137</v>
+      </c>
+      <c r="B160" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="C160" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="D160" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E160" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="F160" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="59">
+        <v>20250184</v>
+      </c>
+      <c r="B161" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="59" t="s">
+        <v>487</v>
+      </c>
+      <c r="D161" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="E161" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="F161" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="59">
+        <v>20250198</v>
+      </c>
+      <c r="B162" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="D162" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E162" s="11">
+        <v>1</v>
+      </c>
+      <c r="F162" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="59">
+        <v>20250201</v>
+      </c>
+      <c r="B163" s="59" t="s">
+        <v>488</v>
+      </c>
+      <c r="C163" s="59" t="s">
+        <v>489</v>
+      </c>
+      <c r="D163" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E163" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F163" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="59">
+        <v>20250203</v>
+      </c>
+      <c r="B164" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="D164" s="12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E164" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F164" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="59">
+        <v>20250218</v>
+      </c>
+      <c r="B165" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" s="59" t="s">
+        <v>504</v>
+      </c>
+      <c r="D165" s="11">
+        <v>1.07</v>
+      </c>
+      <c r="E165" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="F165" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="59">
+        <v>20250248</v>
+      </c>
+      <c r="B166" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="C166" s="59" t="s">
+        <v>514</v>
+      </c>
+      <c r="D166" s="12">
+        <v>0</v>
+      </c>
+      <c r="E166" s="12">
+        <v>0</v>
+      </c>
+      <c r="F166" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="59">
+        <v>20250259</v>
+      </c>
+      <c r="B167" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="C167" s="59" t="s">
+        <v>491</v>
+      </c>
+      <c r="D167" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E167" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="F167" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="59">
+        <v>20250271</v>
+      </c>
+      <c r="B168" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="C168" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D168" s="11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E168" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F168" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="59">
+        <v>20250315</v>
+      </c>
+      <c r="B169" s="59" t="s">
+        <v>493</v>
+      </c>
+      <c r="C169" s="59" t="s">
+        <v>494</v>
+      </c>
+      <c r="D169" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="E169" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="F169" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="59">
+        <v>20250316</v>
+      </c>
+      <c r="B170" s="59" t="s">
+        <v>470</v>
+      </c>
+      <c r="C170" s="59" t="s">
+        <v>471</v>
+      </c>
+      <c r="D170" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E170" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="F170" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="59">
+        <v>20250318</v>
+      </c>
+      <c r="B171" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="C171" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="11">
+        <v>1.18</v>
+      </c>
+      <c r="E171" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="F171" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="59">
+        <v>20250320</v>
+      </c>
+      <c r="B172" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="59" t="s">
+        <v>495</v>
+      </c>
+      <c r="D172" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="E172" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="F172" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="59">
+        <v>20250327</v>
+      </c>
+      <c r="B173" s="59" t="s">
+        <v>496</v>
+      </c>
+      <c r="C173" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="D173" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E173" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F173" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="59">
+        <v>20250335</v>
+      </c>
+      <c r="B174" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="C174" s="59" t="s">
+        <v>517</v>
+      </c>
+      <c r="D174" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E174" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="F174" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="59">
+        <v>20250441</v>
+      </c>
+      <c r="B175" s="59" t="s">
+        <v>455</v>
+      </c>
+      <c r="C175" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="E175" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F175" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="59">
+        <v>20250482</v>
+      </c>
+      <c r="B176" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="C176" s="59" t="s">
+        <v>476</v>
+      </c>
+      <c r="D176" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E176" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="F176" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="59">
+        <v>20250505</v>
+      </c>
+      <c r="B177" s="59" t="s">
+        <v>472</v>
+      </c>
+      <c r="C177" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="D177" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="E177" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="F177" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="59">
+        <v>20250515</v>
+      </c>
+      <c r="B178" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="59" t="s">
+        <v>498</v>
+      </c>
+      <c r="D178" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="E178" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F178" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="59">
+        <v>20250519</v>
+      </c>
+      <c r="B179" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="59" t="s">
+        <v>499</v>
+      </c>
+      <c r="D179" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="E179" s="12">
+        <v>0.66</v>
+      </c>
+      <c r="F179" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="59">
+        <v>20250534</v>
+      </c>
+      <c r="B180" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="C180" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="D180" s="12">
+        <v>0</v>
+      </c>
+      <c r="E180" s="12">
+        <v>0</v>
+      </c>
+      <c r="F180" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="59">
+        <v>20250575</v>
+      </c>
+      <c r="B181" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C181" s="59" t="s">
+        <v>467</v>
+      </c>
+      <c r="D181" s="11">
+        <v>1</v>
+      </c>
+      <c r="E181" s="12">
+        <v>0.64</v>
+      </c>
+      <c r="F181" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="59">
+        <v>20250591</v>
+      </c>
+      <c r="B182" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="59" t="s">
+        <v>500</v>
+      </c>
+      <c r="D182" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E182" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="F182" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="59">
+        <v>20250631</v>
+      </c>
+      <c r="B183" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="C183" s="59" t="s">
+        <v>518</v>
+      </c>
+      <c r="D183" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="E183" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="F183" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="59">
+        <v>20250632</v>
+      </c>
+      <c r="B184" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" s="59" t="s">
+        <v>501</v>
+      </c>
+      <c r="D184" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E184" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="F184" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="59">
+        <v>20250641</v>
+      </c>
+      <c r="B185" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" s="59" t="s">
+        <v>502</v>
+      </c>
+      <c r="D185" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="E185" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="F185" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="59">
+        <v>20250664</v>
+      </c>
+      <c r="B186" s="59" t="s">
+        <v>519</v>
+      </c>
+      <c r="C186" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="D186" s="11">
+        <v>1.17</v>
+      </c>
+      <c r="E186" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="F186" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="59">
+        <v>20250762</v>
+      </c>
+      <c r="B187" s="59" t="s">
+        <v>503</v>
+      </c>
+      <c r="C187" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="11">
+        <v>1.07</v>
+      </c>
+      <c r="E187" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="F187" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="59">
+        <v>20250786</v>
+      </c>
+      <c r="B188" s="59" t="s">
+        <v>520</v>
+      </c>
+      <c r="C188" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="D188" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E188" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="F188" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="59">
+        <v>20250873</v>
+      </c>
+      <c r="B189" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="C189" s="59" t="s">
+        <v>523</v>
+      </c>
+      <c r="D189" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="E189" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="F189" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="59">
+        <v>20250930</v>
+      </c>
+      <c r="B190" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="C190" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="D190" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="E190" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="F190" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="59">
+        <v>20250941</v>
+      </c>
+      <c r="B191" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" s="59" t="s">
+        <v>526</v>
+      </c>
+      <c r="D191" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="E191" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="F191" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="59">
+        <v>20250944</v>
+      </c>
+      <c r="B192" s="59" t="s">
+        <v>527</v>
+      </c>
+      <c r="C192" s="59" t="s">
+        <v>528</v>
+      </c>
+      <c r="D192" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="E192" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="F192" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="59">
+        <v>20250970</v>
+      </c>
+      <c r="B193" s="59" t="s">
+        <v>529</v>
+      </c>
+      <c r="C193" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="D193" s="11">
+        <v>1.29</v>
+      </c>
+      <c r="E193" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="F193" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="59">
+        <v>20250997</v>
+      </c>
+      <c r="B194" s="59" t="s">
+        <v>531</v>
+      </c>
+      <c r="C194" s="59" t="s">
+        <v>532</v>
+      </c>
+      <c r="D194" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="E194" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F194" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="59">
+        <v>20251011</v>
+      </c>
+      <c r="B195" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="C195" s="59" t="s">
+        <v>534</v>
+      </c>
+      <c r="D195" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E195" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="F195" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="59">
+        <v>20251063</v>
+      </c>
+      <c r="B196" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="C196" s="59" t="s">
+        <v>414</v>
+      </c>
+      <c r="D196" s="12">
+        <v>0</v>
+      </c>
+      <c r="E196" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="F196" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="59">
+        <v>20251065</v>
+      </c>
+      <c r="B197" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="C197" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="D197" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="E197" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="F197" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="59">
+        <v>20251084</v>
+      </c>
+      <c r="B198" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="C198" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="D198" s="11">
+        <v>1</v>
+      </c>
+      <c r="E198" s="12">
+        <v>0.64</v>
+      </c>
+      <c r="F198" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="59">
+        <v>20251087</v>
+      </c>
+      <c r="B199" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="C199" s="59" t="s">
+        <v>541</v>
+      </c>
+      <c r="D199" s="12">
+        <v>0</v>
+      </c>
+      <c r="E199" s="12">
+        <v>0.34</v>
+      </c>
+      <c r="F199" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="59">
+        <v>20251105</v>
+      </c>
+      <c r="B200" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="D200" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="E200" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="F200" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="59">
+        <v>20251130</v>
+      </c>
+      <c r="B201" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="C201" s="59" t="s">
+        <v>544</v>
+      </c>
+      <c r="D201" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="E201" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="F201" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="59">
+        <v>20251131</v>
+      </c>
+      <c r="B202" s="59" t="s">
+        <v>545</v>
+      </c>
+      <c r="C202" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="D202" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="E202" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F202" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="59">
+        <v>20251132</v>
+      </c>
+      <c r="B203" s="59" t="s">
+        <v>547</v>
+      </c>
+      <c r="C203" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="D203" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E203" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="F203" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="59">
+        <v>20251168</v>
+      </c>
+      <c r="B204" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="C204" s="59" t="s">
+        <v>550</v>
+      </c>
+      <c r="D204" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E204" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="F204" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="59">
+        <v>20251190</v>
+      </c>
+      <c r="B205" s="59" t="s">
+        <v>551</v>
+      </c>
+      <c r="C205" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="D205" s="12">
+        <v>0</v>
+      </c>
+      <c r="E205" s="12">
+        <v>0</v>
+      </c>
+      <c r="F205" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="59">
+        <v>20251191</v>
+      </c>
+      <c r="B206" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="C206" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="D206" s="12">
+        <v>0</v>
+      </c>
+      <c r="E206" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="F206" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="59">
+        <v>20220747</v>
+      </c>
+      <c r="B207" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="C207" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="D207" s="12">
+        <v>0</v>
+      </c>
+      <c r="E207" s="12">
+        <v>0</v>
+      </c>
+      <c r="F207" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="59">
+        <v>20220797</v>
+      </c>
+      <c r="B208" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="C208" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D208" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="E208" s="12">
+        <v>0</v>
+      </c>
+      <c r="F208" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="59">
+        <v>20221014</v>
+      </c>
+      <c r="B209" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="C209" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E209" s="12">
+        <v>0</v>
+      </c>
+      <c r="F209" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="59">
+        <v>20230200</v>
+      </c>
+      <c r="B210" s="59" t="s">
+        <v>331</v>
+      </c>
+      <c r="C210" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="E210" s="12">
+        <v>0</v>
+      </c>
+      <c r="F210" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="59">
+        <v>20230394</v>
+      </c>
+      <c r="B211" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="C211" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="D211" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="E211" s="12">
+        <v>0</v>
+      </c>
+      <c r="F211" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="59">
+        <v>20230571</v>
+      </c>
+      <c r="B212" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="C212" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="D212" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E212" s="12">
+        <v>0</v>
+      </c>
+      <c r="F212" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="59">
+        <v>20230638</v>
+      </c>
+      <c r="B213" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C213" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D213" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="E213" s="12">
+        <v>0</v>
+      </c>
+      <c r="F213" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="59">
+        <v>20230875</v>
+      </c>
+      <c r="B214" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="C214" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D214" s="12">
+        <v>0</v>
+      </c>
+      <c r="E214" s="12">
+        <v>0</v>
+      </c>
+      <c r="F214" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="59">
+        <v>20230939</v>
+      </c>
+      <c r="B215" s="59" t="s">
+        <v>333</v>
+      </c>
+      <c r="C215" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="E215" s="12">
+        <v>0</v>
+      </c>
+      <c r="F215" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="59">
+        <v>20231033</v>
+      </c>
+      <c r="B216" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="D216" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="E216" s="12">
+        <v>0</v>
+      </c>
+      <c r="F216" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="59">
+        <v>20231162</v>
+      </c>
+      <c r="B217" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C217" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D217" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="E217" s="12">
+        <v>0</v>
+      </c>
+      <c r="F217" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="59">
+        <v>20231181</v>
+      </c>
+      <c r="B218" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D218" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="E218" s="12">
+        <v>0</v>
+      </c>
+      <c r="F218" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="59">
+        <v>20231376</v>
+      </c>
+      <c r="B219" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C219" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D219" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="E219" s="12">
+        <v>0</v>
+      </c>
+      <c r="F219" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="59">
+        <v>20231522</v>
+      </c>
+      <c r="B220" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D220" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E220" s="12">
+        <v>0</v>
+      </c>
+      <c r="F220" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="59">
+        <v>20231990</v>
+      </c>
+      <c r="B221" s="59" t="s">
+        <v>398</v>
+      </c>
+      <c r="C221" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D221" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="E221" s="12">
+        <v>0</v>
+      </c>
+      <c r="F221" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="59">
+        <v>20240080</v>
+      </c>
+      <c r="B222" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D222" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="E222" s="12">
+        <v>0</v>
+      </c>
+      <c r="F222" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="59">
+        <v>20240107</v>
+      </c>
+      <c r="B223" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D223" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E223" s="12">
+        <v>0</v>
+      </c>
+      <c r="F223" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="59">
+        <v>20240109</v>
+      </c>
+      <c r="B224" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="C224" s="59" t="s">
+        <v>394</v>
+      </c>
+      <c r="D224" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="E224" s="12">
+        <v>0</v>
+      </c>
+      <c r="F224" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="59">
+        <v>20240367</v>
+      </c>
+      <c r="B225" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" s="59" t="s">
+        <v>438</v>
+      </c>
+      <c r="D225" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E225" s="12">
+        <v>0</v>
+      </c>
+      <c r="F225" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="59">
+        <v>20240486</v>
+      </c>
+      <c r="B226" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D226" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="E226" s="12">
+        <v>0</v>
+      </c>
+      <c r="F226" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="59">
+        <v>20241002</v>
+      </c>
+      <c r="B227" s="59" t="s">
+        <v>436</v>
+      </c>
+      <c r="C227" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D227" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="E227" s="12">
+        <v>0</v>
+      </c>
+      <c r="F227" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="59">
+        <v>20241081</v>
+      </c>
+      <c r="B228" s="59" t="s">
+        <v>437</v>
+      </c>
+      <c r="C228" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D228" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E228" s="12">
+        <v>0</v>
+      </c>
+      <c r="F228" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="59">
+        <v>20241167</v>
+      </c>
+      <c r="B229" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="D229" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="E229" s="12">
+        <v>0</v>
+      </c>
+      <c r="F229" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="59">
+        <v>20241204</v>
+      </c>
+      <c r="B230" s="59" t="s">
+        <v>403</v>
+      </c>
+      <c r="C230" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="D230" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="E230" s="12">
+        <v>0</v>
+      </c>
+      <c r="F230" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="59">
+        <v>20241211</v>
+      </c>
+      <c r="B231" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="C231" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="D231" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E231" s="12">
+        <v>0</v>
+      </c>
+      <c r="F231" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="59">
+        <v>20241308</v>
+      </c>
+      <c r="B232" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="C232" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D232" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="E232" s="12">
+        <v>0</v>
+      </c>
+      <c r="F232" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="59">
+        <v>20240621</v>
+      </c>
+      <c r="B233" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="C233" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" s="11">
+        <v>1</v>
+      </c>
+      <c r="E233" s="11">
+        <v>1</v>
+      </c>
+      <c r="F233" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="59">
+        <v>20240618</v>
+      </c>
+      <c r="B234" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="D234" s="11">
+        <v>1</v>
+      </c>
+      <c r="E234" s="11">
+        <v>1</v>
+      </c>
+      <c r="F234" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="59">
+        <v>20231004</v>
+      </c>
+      <c r="B235" s="59" t="s">
+        <v>345</v>
+      </c>
+      <c r="C235" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="D235" s="12">
+        <v>0</v>
+      </c>
+      <c r="E235" s="12">
+        <v>0</v>
+      </c>
+      <c r="F235" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="59">
+        <v>20230850</v>
+      </c>
+      <c r="B236" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="C236" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="D236" s="12">
+        <v>0</v>
+      </c>
+      <c r="E236" s="12">
+        <v>0</v>
+      </c>
+      <c r="F236" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="59">
+        <v>20241108</v>
+      </c>
+      <c r="B237" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C237" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D237" s="12">
+        <v>0</v>
+      </c>
+      <c r="E237" s="12">
+        <v>0</v>
+      </c>
+      <c r="F237" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="59">
+        <v>20241185</v>
+      </c>
+      <c r="B238" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="C238" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="D238" s="12">
+        <v>0</v>
+      </c>
+      <c r="E238" s="12">
+        <v>0</v>
+      </c>
+      <c r="F238" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="59">
+        <v>20231410</v>
+      </c>
+      <c r="B239" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="C239" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="D239" s="12">
+        <v>0</v>
+      </c>
+      <c r="E239" s="12">
+        <v>0</v>
+      </c>
+      <c r="F239" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="59">
+        <v>20231246</v>
+      </c>
+      <c r="B240" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="C240" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="D240" s="12">
+        <v>0</v>
+      </c>
+      <c r="E240" s="12">
+        <v>0</v>
+      </c>
+      <c r="F240" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="59">
+        <v>20231208</v>
+      </c>
+      <c r="B241" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D241" s="12">
+        <v>0</v>
+      </c>
+      <c r="E241" s="12">
+        <v>0</v>
+      </c>
+      <c r="F241" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="59">
+        <v>20230548</v>
+      </c>
+      <c r="B242" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="C242" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="D242" s="12">
+        <v>0</v>
+      </c>
+      <c r="E242" s="12">
+        <v>0</v>
+      </c>
+      <c r="F242" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="59">
+        <v>20250325</v>
+      </c>
+      <c r="B243" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="C243" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="D243" s="12">
+        <v>0</v>
+      </c>
+      <c r="E243" s="12">
+        <v>0</v>
+      </c>
+      <c r="F243" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="59">
+        <v>20231503</v>
+      </c>
+      <c r="B244" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C244" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D244" s="12">
+        <v>0</v>
+      </c>
+      <c r="E244" s="12">
+        <v>0</v>
+      </c>
+      <c r="F244" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="59">
+        <v>20231284</v>
+      </c>
+      <c r="B245" s="59" t="s">
+        <v>350</v>
+      </c>
+      <c r="C245" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="D245" s="12">
+        <v>0</v>
+      </c>
+      <c r="E245" s="12">
+        <v>0</v>
+      </c>
+      <c r="F245" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="59">
+        <v>20241491</v>
+      </c>
+      <c r="B246" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" s="59" t="s">
+        <v>505</v>
+      </c>
+      <c r="D246" s="12">
+        <v>0</v>
+      </c>
+      <c r="E246" s="12">
+        <v>0</v>
+      </c>
+      <c r="F246" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -64552,15 +69646,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="3cef09ca-690e-48ca-8db1-bbccdf684368" xsi:nil="true"/>
@@ -64569,6 +69654,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64827,14 +69921,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EF37548-399B-4B64-AB6C-62FF5630FEED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DA11991-CB2B-42C8-9D1A-27999BA19AA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="3cef09ca-690e-48ca-8db1-bbccdf684368"/>
@@ -64847,6 +69933,14 @@
     <ds:schemaRef ds:uri="2ba1b9e1-d32c-453a-80ca-da429ca95d13"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EF37548-399B-4B64-AB6C-62FF5630FEED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Attendance Test.xlsx
+++ b/Attendance Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinals\source\repos\whitecliffe_hunt\flask-attendance-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F580A651-777E-4267-9049-AC447FA70254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B14939-5516-4757-9FBC-5A9470BF9B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="14" xr2:uid="{A7955748-8F8E-4629-9B7A-DC1BC8E73719}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="557">
   <si>
     <t>First Name</t>
   </si>
@@ -1710,6 +1710,18 @@
   <si>
     <t>Biraj</t>
   </si>
+  <si>
+    <t>Fokir</t>
+  </si>
+  <si>
+    <t>Md Jasu</t>
+  </si>
+  <si>
+    <t>Md Jubayar</t>
+  </si>
+  <si>
+    <t>Molla</t>
+  </si>
 </sst>
 </file>
 
@@ -42901,10 +42913,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADDA66-B5D4-4E7E-B5C3-B6AA86865A89}">
-  <dimension ref="A1:L246"/>
+  <dimension ref="A1:L248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42963,9 +42975,7 @@
       <c r="E2" s="11">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="59">
@@ -42983,9 +42993,7 @@
       <c r="E3" s="12">
         <v>0.77</v>
       </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="59">
@@ -43001,11 +43009,9 @@
         <v>0.45</v>
       </c>
       <c r="E4" s="11">
-        <v>1.06</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
+        <v>1.36</v>
+      </c>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="59">
@@ -43021,11 +43027,9 @@
         <v>0.93</v>
       </c>
       <c r="E5" s="12">
-        <v>0.65</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="59">
@@ -43037,15 +43041,13 @@
       <c r="C6" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
+      <c r="D6" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="59">
@@ -43060,12 +43062,10 @@
       <c r="D7" s="12">
         <v>0.18</v>
       </c>
-      <c r="E7" s="12">
-        <v>0.64</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
+      <c r="E7" s="11">
+        <v>1.07</v>
+      </c>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="59">
@@ -43077,15 +43077,13 @@
       <c r="C8" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
+      <c r="D8" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="59">
@@ -43097,15 +43095,13 @@
       <c r="C9" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
+      <c r="D9" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="59">
@@ -43120,12 +43116,10 @@
       <c r="D10" s="12">
         <v>0.06</v>
       </c>
-      <c r="E10" s="12">
-        <v>0.62</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
+      <c r="E10" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="59">
@@ -43143,9 +43137,7 @@
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="59">
@@ -43163,9 +43155,7 @@
       <c r="E12" s="11">
         <v>0.94</v>
       </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="59">
@@ -43183,9 +43173,7 @@
       <c r="E13" s="12">
         <v>0.73</v>
       </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="59">
@@ -43201,11 +43189,9 @@
         <v>0.85</v>
       </c>
       <c r="E14" s="12">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="59">
@@ -43223,9 +43209,7 @@
       <c r="E15" s="11">
         <v>0.99</v>
       </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="59">
@@ -43243,9 +43227,7 @@
       <c r="E16" s="11">
         <v>0.99</v>
       </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="59">
@@ -43261,11 +43243,9 @@
         <v>0.81</v>
       </c>
       <c r="E17" s="12">
-        <v>-0.51</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="59">
@@ -43283,9 +43263,7 @@
       <c r="E18" s="11">
         <v>1</v>
       </c>
-      <c r="F18" s="12">
-        <v>0</v>
-      </c>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="59">
@@ -43297,15 +43275,13 @@
       <c r="C19" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
+      <c r="D19" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="59">
@@ -43323,9 +43299,7 @@
       <c r="E20" s="12">
         <v>0.23</v>
       </c>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="59">
@@ -43337,15 +43311,13 @@
       <c r="C21" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0</v>
-      </c>
+      <c r="D21" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="59">
@@ -43363,9 +43335,7 @@
       <c r="E22" s="12">
         <v>0.87</v>
       </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="59">
@@ -43380,12 +43350,10 @@
       <c r="D23" s="12">
         <v>0.24</v>
       </c>
-      <c r="E23" s="12">
-        <v>0.89</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
+      <c r="E23" s="11">
+        <v>1.07</v>
+      </c>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="59">
@@ -43400,12 +43368,10 @@
       <c r="D24" s="12">
         <v>0.86</v>
       </c>
-      <c r="E24" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="F24" s="12">
-        <v>0</v>
-      </c>
+      <c r="E24" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="59">
@@ -43420,12 +43386,10 @@
       <c r="D25" s="12">
         <v>0.84</v>
       </c>
-      <c r="E25" s="12">
-        <v>0.79</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0</v>
-      </c>
+      <c r="E25" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="59">
@@ -43443,9 +43407,7 @@
       <c r="E26" s="11">
         <v>0.92</v>
       </c>
-      <c r="F26" s="12">
-        <v>0</v>
-      </c>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="59">
@@ -43463,9 +43425,7 @@
       <c r="E27" s="12">
         <v>0</v>
       </c>
-      <c r="F27" s="12">
-        <v>0</v>
-      </c>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="59">
@@ -43483,9 +43443,7 @@
       <c r="E28" s="12">
         <v>0.84</v>
       </c>
-      <c r="F28" s="12">
-        <v>0</v>
-      </c>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="59">
@@ -43503,9 +43461,7 @@
       <c r="E29" s="12">
         <v>0.85</v>
       </c>
-      <c r="F29" s="12">
-        <v>0</v>
-      </c>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="59">
@@ -43521,11 +43477,9 @@
         <v>0.37</v>
       </c>
       <c r="E30" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="F30" s="12">
-        <v>0</v>
-      </c>
+        <v>0.53</v>
+      </c>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="59">
@@ -43543,9 +43497,7 @@
       <c r="E31" s="11">
         <v>0.99</v>
       </c>
-      <c r="F31" s="12">
-        <v>0</v>
-      </c>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="59">
@@ -43563,9 +43515,7 @@
       <c r="E32" s="11">
         <v>1.07</v>
       </c>
-      <c r="F32" s="12">
-        <v>0</v>
-      </c>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="59">
@@ -43583,9 +43533,7 @@
       <c r="E33" s="12">
         <v>0.65</v>
       </c>
-      <c r="F33" s="12">
-        <v>0</v>
-      </c>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="59">
@@ -43603,9 +43551,7 @@
       <c r="E34" s="12">
         <v>0.74</v>
       </c>
-      <c r="F34" s="12">
-        <v>0</v>
-      </c>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="59">
@@ -43623,9 +43569,7 @@
       <c r="E35" s="11">
         <v>1.04</v>
       </c>
-      <c r="F35" s="12">
-        <v>0</v>
-      </c>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="59">
@@ -43641,11 +43585,9 @@
         <v>0.39</v>
       </c>
       <c r="E36" s="12">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="F36" s="12">
-        <v>0</v>
-      </c>
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="59">
@@ -43660,12 +43602,10 @@
       <c r="D37" s="11">
         <v>0.9</v>
       </c>
-      <c r="E37" s="12">
-        <v>0.76</v>
-      </c>
-      <c r="F37" s="12">
-        <v>0</v>
-      </c>
+      <c r="E37" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="59">
@@ -43678,14 +43618,12 @@
         <v>69</v>
       </c>
       <c r="D38" s="12">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="E38" s="12">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12">
-        <v>0</v>
-      </c>
+        <v>0.86</v>
+      </c>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="59">
@@ -43700,12 +43638,10 @@
       <c r="D39" s="11">
         <v>0.94</v>
       </c>
-      <c r="E39" s="12">
-        <v>0.76</v>
-      </c>
-      <c r="F39" s="12">
-        <v>0</v>
-      </c>
+      <c r="E39" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="59">
@@ -43721,11 +43657,9 @@
         <v>0.66</v>
       </c>
       <c r="E40" s="12">
-        <v>0.44</v>
-      </c>
-      <c r="F40" s="12">
-        <v>0</v>
-      </c>
+        <v>0.84</v>
+      </c>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="59">
@@ -43741,11 +43675,9 @@
         <v>0.78</v>
       </c>
       <c r="E41" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="F41" s="12">
-        <v>0</v>
-      </c>
+        <v>0.88</v>
+      </c>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="59">
@@ -43763,9 +43695,7 @@
       <c r="E42" s="12">
         <v>0.24</v>
       </c>
-      <c r="F42" s="12">
-        <v>0</v>
-      </c>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="59">
@@ -43781,11 +43711,9 @@
         <v>0.74</v>
       </c>
       <c r="E43" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="F43" s="12">
-        <v>0</v>
-      </c>
+        <v>0.46</v>
+      </c>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="59">
@@ -43801,11 +43729,9 @@
         <v>0.51</v>
       </c>
       <c r="E44" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="F44" s="12">
-        <v>0</v>
-      </c>
+        <v>0.46</v>
+      </c>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="59">
@@ -43820,12 +43746,10 @@
       <c r="D45" s="12">
         <v>0.72</v>
       </c>
-      <c r="E45" s="12">
-        <v>0.73</v>
-      </c>
-      <c r="F45" s="12">
-        <v>0</v>
-      </c>
+      <c r="E45" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="59">
@@ -43841,11 +43765,9 @@
         <v>0.67</v>
       </c>
       <c r="E46" s="12">
-        <v>0.38</v>
-      </c>
-      <c r="F46" s="12">
-        <v>0</v>
-      </c>
+        <v>0.63</v>
+      </c>
+      <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="59">
@@ -43860,12 +43782,10 @@
       <c r="D47" s="11">
         <v>1</v>
       </c>
-      <c r="E47" s="12">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F47" s="12">
-        <v>0</v>
-      </c>
+      <c r="E47" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="59">
@@ -43881,11 +43801,9 @@
         <v>0</v>
       </c>
       <c r="E48" s="12">
-        <v>0</v>
-      </c>
-      <c r="F48" s="12">
-        <v>0</v>
-      </c>
+        <v>0.16</v>
+      </c>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="59">
@@ -43903,9 +43821,7 @@
       <c r="E49" s="12">
         <v>0.63</v>
       </c>
-      <c r="F49" s="12">
-        <v>0</v>
-      </c>
+      <c r="F49" s="12"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="59">
@@ -43920,12 +43836,10 @@
       <c r="D50" s="12">
         <v>0.85</v>
       </c>
-      <c r="E50" s="12">
-        <v>0.59</v>
-      </c>
-      <c r="F50" s="12">
-        <v>0</v>
-      </c>
+      <c r="E50" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="59">
@@ -43940,12 +43854,10 @@
       <c r="D51" s="11">
         <v>0.95</v>
       </c>
-      <c r="E51" s="12">
-        <v>0.65</v>
-      </c>
-      <c r="F51" s="12">
-        <v>0</v>
-      </c>
+      <c r="E51" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="59">
@@ -43960,12 +43872,10 @@
       <c r="D52" s="12">
         <v>0.89</v>
       </c>
-      <c r="E52" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="F52" s="12">
-        <v>0</v>
-      </c>
+      <c r="E52" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="59">
@@ -43983,9 +43893,7 @@
       <c r="E53" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F53" s="12">
-        <v>0</v>
-      </c>
+      <c r="F53" s="12"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="59">
@@ -44000,12 +43908,10 @@
       <c r="D54" s="12">
         <v>0.84</v>
       </c>
-      <c r="E54" s="12">
-        <v>0.83</v>
-      </c>
-      <c r="F54" s="12">
-        <v>0</v>
-      </c>
+      <c r="E54" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="59">
@@ -44021,11 +43927,9 @@
         <v>0.61</v>
       </c>
       <c r="E55" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="F55" s="12">
-        <v>0</v>
-      </c>
+        <v>0.59</v>
+      </c>
+      <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="59">
@@ -44040,12 +43944,10 @@
       <c r="D56" s="11">
         <v>1.04</v>
       </c>
-      <c r="E56" s="12">
-        <v>0.85</v>
-      </c>
-      <c r="F56" s="12">
-        <v>0</v>
-      </c>
+      <c r="E56" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="59">
@@ -44060,12 +43962,10 @@
       <c r="D57" s="12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E57" s="12">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F57" s="12">
-        <v>0</v>
-      </c>
+      <c r="E57" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="F57" s="12"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="59">
@@ -44080,12 +43980,10 @@
       <c r="D58" s="11">
         <v>1.28</v>
       </c>
-      <c r="E58" s="12">
-        <v>0.62</v>
-      </c>
-      <c r="F58" s="12">
-        <v>0</v>
-      </c>
+      <c r="E58" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="F58" s="12"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="59">
@@ -44103,9 +44001,7 @@
       <c r="E59" s="11">
         <v>1.05</v>
       </c>
-      <c r="F59" s="12">
-        <v>0</v>
-      </c>
+      <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="59">
@@ -44123,9 +44019,7 @@
       <c r="E60" s="11">
         <v>1.42</v>
       </c>
-      <c r="F60" s="12">
-        <v>0</v>
-      </c>
+      <c r="F60" s="12"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="59">
@@ -44143,9 +44037,7 @@
       <c r="E61" s="12">
         <v>0.2</v>
       </c>
-      <c r="F61" s="12">
-        <v>0</v>
-      </c>
+      <c r="F61" s="12"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="59">
@@ -44163,9 +44055,7 @@
       <c r="E62" s="11">
         <v>1.04</v>
       </c>
-      <c r="F62" s="12">
-        <v>0</v>
-      </c>
+      <c r="F62" s="12"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="59">
@@ -44181,11 +44071,9 @@
         <v>1.02</v>
       </c>
       <c r="E63" s="12">
-        <v>-0.12</v>
-      </c>
-      <c r="F63" s="12">
-        <v>0</v>
-      </c>
+        <v>0.35</v>
+      </c>
+      <c r="F63" s="12"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="59">
@@ -44203,9 +44091,7 @@
       <c r="E64" s="11">
         <v>1</v>
       </c>
-      <c r="F64" s="12">
-        <v>0</v>
-      </c>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="59">
@@ -44223,9 +44109,7 @@
       <c r="E65" s="12">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F65" s="12">
-        <v>0</v>
-      </c>
+      <c r="F65" s="12"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="59">
@@ -44243,9 +44127,7 @@
       <c r="E66" s="11">
         <v>0.99</v>
       </c>
-      <c r="F66" s="12">
-        <v>0</v>
-      </c>
+      <c r="F66" s="12"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="59">
@@ -44261,11 +44143,9 @@
         <v>0.99</v>
       </c>
       <c r="E67" s="12">
-        <v>0.26</v>
-      </c>
-      <c r="F67" s="12">
-        <v>0</v>
-      </c>
+        <v>0.61</v>
+      </c>
+      <c r="F67" s="12"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="59">
@@ -44281,11 +44161,9 @@
         <v>0.82</v>
       </c>
       <c r="E68" s="12">
-        <v>0.45</v>
-      </c>
-      <c r="F68" s="12">
-        <v>0</v>
-      </c>
+        <v>0.89</v>
+      </c>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="59">
@@ -44303,9 +44181,7 @@
       <c r="E69" s="11">
         <v>1.01</v>
       </c>
-      <c r="F69" s="12">
-        <v>0</v>
-      </c>
+      <c r="F69" s="12"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="59">
@@ -44321,11 +44197,9 @@
         <v>1</v>
       </c>
       <c r="E70" s="12">
-        <v>0.46</v>
-      </c>
-      <c r="F70" s="12">
-        <v>0</v>
-      </c>
+        <v>0.83</v>
+      </c>
+      <c r="F70" s="12"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="59">
@@ -44341,11 +44215,9 @@
         <v>0.59</v>
       </c>
       <c r="E71" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="F71" s="12">
-        <v>0</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F71" s="12"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="59">
@@ -44363,9 +44235,7 @@
       <c r="E72" s="12">
         <v>0.24</v>
       </c>
-      <c r="F72" s="12">
-        <v>0</v>
-      </c>
+      <c r="F72" s="12"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="59">
@@ -44380,12 +44250,10 @@
       <c r="D73" s="11">
         <v>1.0900000000000001</v>
       </c>
-      <c r="E73" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="F73" s="12">
-        <v>0</v>
-      </c>
+      <c r="E73" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="F73" s="12"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="59">
@@ -44401,11 +44269,9 @@
         <v>1</v>
       </c>
       <c r="E74" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="F74" s="12">
-        <v>0</v>
-      </c>
+        <v>0.59</v>
+      </c>
+      <c r="F74" s="12"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="59">
@@ -44420,12 +44286,10 @@
       <c r="D75" s="12">
         <v>0.51</v>
       </c>
-      <c r="E75" s="12">
-        <v>0.66</v>
-      </c>
-      <c r="F75" s="12">
-        <v>0</v>
-      </c>
+      <c r="E75" s="11">
+        <v>1.06</v>
+      </c>
+      <c r="F75" s="12"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="59">
@@ -44440,12 +44304,10 @@
       <c r="D76" s="11">
         <v>1.02</v>
       </c>
-      <c r="E76" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="F76" s="12">
-        <v>0</v>
-      </c>
+      <c r="E76" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F76" s="12"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="59">
@@ -44460,12 +44322,10 @@
       <c r="D77" s="11">
         <v>1</v>
       </c>
-      <c r="E77" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="F77" s="12">
-        <v>0</v>
-      </c>
+      <c r="E77" s="11">
+        <v>1</v>
+      </c>
+      <c r="F77" s="12"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="59">
@@ -44483,9 +44343,7 @@
       <c r="E78" s="12">
         <v>0.8</v>
       </c>
-      <c r="F78" s="12">
-        <v>0</v>
-      </c>
+      <c r="F78" s="12"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="59">
@@ -44503,9 +44361,7 @@
       <c r="E79" s="12">
         <v>0.85</v>
       </c>
-      <c r="F79" s="12">
-        <v>0</v>
-      </c>
+      <c r="F79" s="12"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="59">
@@ -44521,11 +44377,9 @@
         <v>0.84</v>
       </c>
       <c r="E80" s="12">
-        <v>0.51</v>
-      </c>
-      <c r="F80" s="12">
-        <v>0</v>
-      </c>
+        <v>0.79</v>
+      </c>
+      <c r="F80" s="12"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="59">
@@ -44541,11 +44395,9 @@
         <v>0.61</v>
       </c>
       <c r="E81" s="12">
-        <v>0.66</v>
-      </c>
-      <c r="F81" s="12">
-        <v>0</v>
-      </c>
+        <v>0.88</v>
+      </c>
+      <c r="F81" s="12"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="59">
@@ -44563,9 +44415,7 @@
       <c r="E82" s="12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F82" s="12">
-        <v>0</v>
-      </c>
+      <c r="F82" s="12"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="59">
@@ -44580,12 +44430,10 @@
       <c r="D83" s="12">
         <v>0.84</v>
       </c>
-      <c r="E83" s="12">
-        <v>0.64</v>
-      </c>
-      <c r="F83" s="12">
-        <v>0</v>
-      </c>
+      <c r="E83" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="F83" s="12"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="59">
@@ -44603,9 +44451,7 @@
       <c r="E84" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F84" s="12">
-        <v>0</v>
-      </c>
+      <c r="F84" s="12"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="59">
@@ -44620,12 +44466,10 @@
       <c r="D85" s="12">
         <v>0.23</v>
       </c>
-      <c r="E85" s="12">
-        <v>0.59</v>
-      </c>
-      <c r="F85" s="12">
-        <v>0</v>
-      </c>
+      <c r="E85" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="F85" s="12"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="59">
@@ -44641,11 +44485,9 @@
         <v>0.85</v>
       </c>
       <c r="E86" s="12">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F86" s="12">
-        <v>0</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="F86" s="12"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="59">
@@ -44657,15 +44499,13 @@
       <c r="C87" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="D87" s="12">
-        <v>0</v>
-      </c>
-      <c r="E87" s="12">
-        <v>0</v>
-      </c>
-      <c r="F87" s="12">
-        <v>0</v>
-      </c>
+      <c r="D87" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="E87" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="F87" s="12"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="59">
@@ -44683,9 +44523,7 @@
       <c r="E88" s="12">
         <v>0.87</v>
       </c>
-      <c r="F88" s="12">
-        <v>0</v>
-      </c>
+      <c r="F88" s="12"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="59">
@@ -44703,9 +44541,7 @@
       <c r="E89" s="11">
         <v>0.99</v>
       </c>
-      <c r="F89" s="12">
-        <v>0</v>
-      </c>
+      <c r="F89" s="12"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="59">
@@ -44723,9 +44559,7 @@
       <c r="E90" s="11">
         <v>0.97</v>
       </c>
-      <c r="F90" s="12">
-        <v>0</v>
-      </c>
+      <c r="F90" s="12"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="59">
@@ -44743,9 +44577,7 @@
       <c r="E91" s="11">
         <v>0.96</v>
       </c>
-      <c r="F91" s="12">
-        <v>0</v>
-      </c>
+      <c r="F91" s="12"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="59">
@@ -44760,12 +44592,10 @@
       <c r="D92" s="11">
         <v>0.98</v>
       </c>
-      <c r="E92" s="12">
-        <v>0.78</v>
-      </c>
-      <c r="F92" s="12">
-        <v>0</v>
-      </c>
+      <c r="E92" s="11">
+        <v>1</v>
+      </c>
+      <c r="F92" s="12"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="59">
@@ -44780,12 +44610,10 @@
       <c r="D93" s="12">
         <v>0.73</v>
       </c>
-      <c r="E93" s="12">
-        <v>0.73</v>
-      </c>
-      <c r="F93" s="12">
-        <v>0</v>
-      </c>
+      <c r="E93" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="F93" s="12"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="59">
@@ -44800,12 +44628,10 @@
       <c r="D94" s="12">
         <v>0.67</v>
       </c>
-      <c r="E94" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="F94" s="12">
-        <v>0</v>
-      </c>
+      <c r="E94" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="F94" s="12"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="59">
@@ -44823,9 +44649,7 @@
       <c r="E95" s="12">
         <v>0.89</v>
       </c>
-      <c r="F95" s="12">
-        <v>0</v>
-      </c>
+      <c r="F95" s="12"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="59">
@@ -44840,12 +44664,10 @@
       <c r="D96" s="11">
         <v>0.98</v>
       </c>
-      <c r="E96" s="12">
-        <v>0.52</v>
-      </c>
-      <c r="F96" s="12">
-        <v>0</v>
-      </c>
+      <c r="E96" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="F96" s="12"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="59">
@@ -44861,11 +44683,9 @@
         <v>0.87</v>
       </c>
       <c r="E97" s="12">
-        <v>0.31</v>
-      </c>
-      <c r="F97" s="12">
-        <v>0</v>
-      </c>
+        <v>0.72</v>
+      </c>
+      <c r="F97" s="12"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="59">
@@ -44881,11 +44701,9 @@
         <v>0.51</v>
       </c>
       <c r="E98" s="12">
-        <v>0.37</v>
-      </c>
-      <c r="F98" s="12">
-        <v>0</v>
-      </c>
+        <v>0.68</v>
+      </c>
+      <c r="F98" s="12"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="59">
@@ -44901,11 +44719,9 @@
         <v>0</v>
       </c>
       <c r="E99" s="12">
-        <v>0</v>
-      </c>
-      <c r="F99" s="12">
-        <v>0</v>
-      </c>
+        <v>0.84</v>
+      </c>
+      <c r="F99" s="12"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="59">
@@ -44923,9 +44739,7 @@
       <c r="E100" s="11">
         <v>1.21</v>
       </c>
-      <c r="F100" s="12">
-        <v>0</v>
-      </c>
+      <c r="F100" s="12"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="59">
@@ -44941,11 +44755,9 @@
         <v>0.87</v>
       </c>
       <c r="E101" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="F101" s="12">
-        <v>0</v>
-      </c>
+        <v>0.77</v>
+      </c>
+      <c r="F101" s="12"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="59">
@@ -44960,12 +44772,10 @@
       <c r="D102" s="11">
         <v>0.97</v>
       </c>
-      <c r="E102" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="F102" s="12">
-        <v>0</v>
-      </c>
+      <c r="E102" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="F102" s="12"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="59">
@@ -44981,11 +44791,9 @@
         <v>1.04</v>
       </c>
       <c r="E103" s="12">
-        <v>0.53</v>
-      </c>
-      <c r="F103" s="12">
-        <v>0</v>
-      </c>
+        <v>0.82</v>
+      </c>
+      <c r="F103" s="12"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="59">
@@ -45000,12 +44808,10 @@
       <c r="D104" s="11">
         <v>0.99</v>
       </c>
-      <c r="E104" s="12">
-        <v>0.59</v>
-      </c>
-      <c r="F104" s="12">
-        <v>0</v>
-      </c>
+      <c r="E104" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="F104" s="12"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="59">
@@ -45020,12 +44826,10 @@
       <c r="D105" s="11">
         <v>0.95</v>
       </c>
-      <c r="E105" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="F105" s="12">
-        <v>0</v>
-      </c>
+      <c r="E105" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="F105" s="12"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="59">
@@ -45040,12 +44844,10 @@
       <c r="D106" s="11">
         <v>1.02</v>
       </c>
-      <c r="E106" s="12">
-        <v>0.66</v>
-      </c>
-      <c r="F106" s="12">
-        <v>0</v>
-      </c>
+      <c r="E106" s="11">
+        <v>1.07</v>
+      </c>
+      <c r="F106" s="12"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="59">
@@ -45060,12 +44862,10 @@
       <c r="D107" s="11">
         <v>0.98</v>
       </c>
-      <c r="E107" s="12">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F107" s="12">
-        <v>0</v>
-      </c>
+      <c r="E107" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="F107" s="12"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="59">
@@ -45080,12 +44880,10 @@
       <c r="D108" s="11">
         <v>1.06</v>
       </c>
-      <c r="E108" s="12">
-        <v>0.78</v>
-      </c>
-      <c r="F108" s="12">
-        <v>0</v>
-      </c>
+      <c r="E108" s="11">
+        <v>1</v>
+      </c>
+      <c r="F108" s="12"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="59">
@@ -45100,12 +44898,10 @@
       <c r="D109" s="11">
         <v>1.02</v>
       </c>
-      <c r="E109" s="12">
-        <v>0.87</v>
-      </c>
-      <c r="F109" s="12">
-        <v>0</v>
-      </c>
+      <c r="E109" s="11">
+        <v>1</v>
+      </c>
+      <c r="F109" s="12"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="59">
@@ -45123,9 +44919,7 @@
       <c r="E110" s="12">
         <v>0.32</v>
       </c>
-      <c r="F110" s="12">
-        <v>0</v>
-      </c>
+      <c r="F110" s="12"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="59">
@@ -45141,11 +44935,9 @@
         <v>0.82</v>
       </c>
       <c r="E111" s="12">
-        <v>0.33</v>
-      </c>
-      <c r="F111" s="12">
-        <v>0</v>
-      </c>
+        <v>0.72</v>
+      </c>
+      <c r="F111" s="12"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="59">
@@ -45161,11 +44953,9 @@
         <v>1.03</v>
       </c>
       <c r="E112" s="12">
-        <v>0.43</v>
-      </c>
-      <c r="F112" s="12">
-        <v>0</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="F112" s="12"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="59">
@@ -45183,9 +44973,7 @@
       <c r="E113" s="12">
         <v>0</v>
       </c>
-      <c r="F113" s="12">
-        <v>0</v>
-      </c>
+      <c r="F113" s="12"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="59">
@@ -45200,12 +44988,10 @@
       <c r="D114" s="11">
         <v>1.02</v>
       </c>
-      <c r="E114" s="12">
-        <v>0.68</v>
-      </c>
-      <c r="F114" s="12">
-        <v>0</v>
-      </c>
+      <c r="E114" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="F114" s="12"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="59">
@@ -45223,9 +45009,7 @@
       <c r="E115" s="12">
         <v>0.13</v>
       </c>
-      <c r="F115" s="12">
-        <v>0</v>
-      </c>
+      <c r="F115" s="12"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="59">
@@ -45240,12 +45024,10 @@
       <c r="D116" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E116" s="12">
-        <v>0.73</v>
-      </c>
-      <c r="F116" s="12">
-        <v>0</v>
-      </c>
+      <c r="E116" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F116" s="12"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="59">
@@ -45261,11 +45043,9 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="E117" s="11">
-        <v>0.95</v>
-      </c>
-      <c r="F117" s="12">
-        <v>0</v>
-      </c>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F117" s="12"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="59">
@@ -45283,9 +45063,7 @@
       <c r="E118" s="12">
         <v>0</v>
       </c>
-      <c r="F118" s="12">
-        <v>0</v>
-      </c>
+      <c r="F118" s="12"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="59">
@@ -45303,9 +45081,7 @@
       <c r="E119" s="12">
         <v>0</v>
       </c>
-      <c r="F119" s="12">
-        <v>0</v>
-      </c>
+      <c r="F119" s="12"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="59">
@@ -45323,9 +45099,7 @@
       <c r="E120" s="11">
         <v>0.99</v>
       </c>
-      <c r="F120" s="12">
-        <v>0</v>
-      </c>
+      <c r="F120" s="12"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="59">
@@ -45341,11 +45115,9 @@
         <v>0.74</v>
       </c>
       <c r="E121" s="12">
-        <v>0.49</v>
-      </c>
-      <c r="F121" s="12">
-        <v>0</v>
-      </c>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F121" s="12"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="59">
@@ -45361,11 +45133,9 @@
         <v>0.69</v>
       </c>
       <c r="E122" s="12">
-        <v>0.45</v>
-      </c>
-      <c r="F122" s="12">
-        <v>0</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="F122" s="12"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="59">
@@ -45383,9 +45153,7 @@
       <c r="E123" s="11">
         <v>0.94</v>
       </c>
-      <c r="F123" s="12">
-        <v>0</v>
-      </c>
+      <c r="F123" s="12"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="59">
@@ -45401,11 +45169,9 @@
         <v>0.49</v>
       </c>
       <c r="E124" s="12">
-        <v>0.53</v>
-      </c>
-      <c r="F124" s="12">
-        <v>0</v>
-      </c>
+        <v>0.83</v>
+      </c>
+      <c r="F124" s="12"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="59">
@@ -45420,12 +45186,10 @@
       <c r="D125" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E125" s="12">
-        <v>0.66</v>
-      </c>
-      <c r="F125" s="12">
-        <v>0</v>
-      </c>
+      <c r="E125" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="F125" s="12"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="59">
@@ -45443,9 +45207,7 @@
       <c r="E126" s="11">
         <v>1.08</v>
       </c>
-      <c r="F126" s="12">
-        <v>0</v>
-      </c>
+      <c r="F126" s="12"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="59">
@@ -45460,12 +45222,10 @@
       <c r="D127" s="12">
         <v>0.89</v>
       </c>
-      <c r="E127" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="F127" s="12">
-        <v>0</v>
-      </c>
+      <c r="E127" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F127" s="12"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="59">
@@ -45480,12 +45240,10 @@
       <c r="D128" s="11">
         <v>0.95</v>
       </c>
-      <c r="E128" s="12">
-        <v>0.77</v>
-      </c>
-      <c r="F128" s="12">
-        <v>0</v>
-      </c>
+      <c r="E128" s="11">
+        <v>1.06</v>
+      </c>
+      <c r="F128" s="12"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="59">
@@ -45500,12 +45258,10 @@
       <c r="D129" s="11">
         <v>1</v>
       </c>
-      <c r="E129" s="12">
-        <v>0.86</v>
-      </c>
-      <c r="F129" s="12">
-        <v>0</v>
-      </c>
+      <c r="E129" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="F129" s="12"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="59">
@@ -45523,9 +45279,7 @@
       <c r="E130" s="11">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F130" s="12">
-        <v>0</v>
-      </c>
+      <c r="F130" s="12"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="59">
@@ -45541,11 +45295,9 @@
         <v>0.65</v>
       </c>
       <c r="E131" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F131" s="12">
-        <v>0</v>
-      </c>
+        <v>0.79</v>
+      </c>
+      <c r="F131" s="12"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="59">
@@ -45560,12 +45312,10 @@
       <c r="D132" s="11">
         <v>1.07</v>
       </c>
-      <c r="E132" s="12">
-        <v>0.59</v>
-      </c>
-      <c r="F132" s="12">
-        <v>0</v>
-      </c>
+      <c r="E132" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="F132" s="12"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="59">
@@ -45580,12 +45330,10 @@
       <c r="D133" s="12">
         <v>0.89</v>
       </c>
-      <c r="E133" s="12">
-        <v>0.72</v>
-      </c>
-      <c r="F133" s="12">
-        <v>0</v>
-      </c>
+      <c r="E133" s="11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F133" s="12"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="59">
@@ -45600,12 +45348,10 @@
       <c r="D134" s="12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E134" s="12">
-        <v>0.79</v>
-      </c>
-      <c r="F134" s="12">
-        <v>0</v>
-      </c>
+      <c r="E134" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="F134" s="12"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="59">
@@ -45623,9 +45369,7 @@
       <c r="E135" s="12">
         <v>0</v>
       </c>
-      <c r="F135" s="12">
-        <v>0</v>
-      </c>
+      <c r="F135" s="12"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="59">
@@ -45643,9 +45387,7 @@
       <c r="E136" s="12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F136" s="12">
-        <v>0</v>
-      </c>
+      <c r="F136" s="12"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="59">
@@ -45663,9 +45405,7 @@
       <c r="E137" s="11">
         <v>0.91</v>
       </c>
-      <c r="F137" s="12">
-        <v>0</v>
-      </c>
+      <c r="F137" s="12"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="59">
@@ -45680,12 +45420,10 @@
       <c r="D138" s="11">
         <v>1.19</v>
       </c>
-      <c r="E138" s="12">
-        <v>0.76</v>
-      </c>
-      <c r="F138" s="12">
-        <v>0</v>
-      </c>
+      <c r="E138" s="11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F138" s="12"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="59">
@@ -45701,11 +45439,9 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E139" s="12">
-        <v>0.37</v>
-      </c>
-      <c r="F139" s="12">
-        <v>0</v>
-      </c>
+        <v>0.79</v>
+      </c>
+      <c r="F139" s="12"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="59">
@@ -45723,9 +45459,7 @@
       <c r="E140" s="11">
         <v>0.91</v>
       </c>
-      <c r="F140" s="12">
-        <v>0</v>
-      </c>
+      <c r="F140" s="12"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="59">
@@ -45741,11 +45475,9 @@
         <v>1.04</v>
       </c>
       <c r="E141" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="F141" s="12">
-        <v>0</v>
-      </c>
+        <v>1.07</v>
+      </c>
+      <c r="F141" s="12"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="59">
@@ -45760,12 +45492,10 @@
       <c r="D142" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E142" s="12">
-        <v>0.71</v>
-      </c>
-      <c r="F142" s="12">
-        <v>0</v>
-      </c>
+      <c r="E142" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="F142" s="12"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="59">
@@ -45780,12 +45510,10 @@
       <c r="D143" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E143" s="12">
-        <v>0.73</v>
-      </c>
-      <c r="F143" s="12">
-        <v>0</v>
-      </c>
+      <c r="E143" s="11">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F143" s="12"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="59">
@@ -45800,12 +45528,10 @@
       <c r="D144" s="11">
         <v>1.05</v>
       </c>
-      <c r="E144" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="F144" s="12">
-        <v>0</v>
-      </c>
+      <c r="E144" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="F144" s="12"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="59">
@@ -45821,11 +45547,9 @@
         <v>1.17</v>
       </c>
       <c r="E145" s="12">
-        <v>0.51</v>
-      </c>
-      <c r="F145" s="12">
-        <v>0</v>
-      </c>
+        <v>0.83</v>
+      </c>
+      <c r="F145" s="12"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="59">
@@ -45843,9 +45567,7 @@
       <c r="E146" s="11">
         <v>1</v>
       </c>
-      <c r="F146" s="12">
-        <v>0</v>
-      </c>
+      <c r="F146" s="12"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="59">
@@ -45863,9 +45585,7 @@
       <c r="E147" s="11">
         <v>1</v>
       </c>
-      <c r="F147" s="12">
-        <v>0</v>
-      </c>
+      <c r="F147" s="12"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="59">
@@ -45880,12 +45600,10 @@
       <c r="D148" s="11">
         <v>1.04</v>
       </c>
-      <c r="E148" s="12">
-        <v>0.72</v>
-      </c>
-      <c r="F148" s="12">
-        <v>0</v>
-      </c>
+      <c r="E148" s="11">
+        <v>1</v>
+      </c>
+      <c r="F148" s="12"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="59">
@@ -45901,11 +45619,9 @@
         <v>0.88</v>
       </c>
       <c r="E149" s="11">
-        <v>0.92</v>
-      </c>
-      <c r="F149" s="12">
-        <v>0</v>
-      </c>
+        <v>1.24</v>
+      </c>
+      <c r="F149" s="12"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="59">
@@ -45923,9 +45639,7 @@
       <c r="E150" s="12">
         <v>0</v>
       </c>
-      <c r="F150" s="12">
-        <v>0</v>
-      </c>
+      <c r="F150" s="12"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="59">
@@ -45940,12 +45654,10 @@
       <c r="D151" s="11">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E151" s="12">
-        <v>0.79</v>
-      </c>
-      <c r="F151" s="12">
-        <v>0</v>
-      </c>
+      <c r="E151" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="F151" s="12"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="59">
@@ -45963,9 +45675,7 @@
       <c r="E152" s="12">
         <v>0.63</v>
       </c>
-      <c r="F152" s="12">
-        <v>0</v>
-      </c>
+      <c r="F152" s="12"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="59">
@@ -45980,12 +45690,10 @@
       <c r="D153" s="11">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E153" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="F153" s="12">
-        <v>0</v>
-      </c>
+      <c r="E153" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F153" s="12"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="59">
@@ -46003,9 +45711,7 @@
       <c r="E154" s="12">
         <v>0.59</v>
       </c>
-      <c r="F154" s="12">
-        <v>0</v>
-      </c>
+      <c r="F154" s="12"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="59">
@@ -46023,9 +45729,7 @@
       <c r="E155" s="11">
         <v>1.03</v>
       </c>
-      <c r="F155" s="12">
-        <v>0</v>
-      </c>
+      <c r="F155" s="12"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="59">
@@ -46040,12 +45744,10 @@
       <c r="D156" s="11">
         <v>1.08</v>
       </c>
-      <c r="E156" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="F156" s="12">
-        <v>0</v>
-      </c>
+      <c r="E156" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="F156" s="12"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="59">
@@ -46060,12 +45762,10 @@
       <c r="D157" s="11">
         <v>1.03</v>
       </c>
-      <c r="E157" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="F157" s="12">
-        <v>0</v>
-      </c>
+      <c r="E157" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="F157" s="12"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="59">
@@ -46083,9 +45783,7 @@
       <c r="E158" s="11">
         <v>1</v>
       </c>
-      <c r="F158" s="12">
-        <v>0</v>
-      </c>
+      <c r="F158" s="12"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="59">
@@ -46101,11 +45799,9 @@
         <v>0.98</v>
       </c>
       <c r="E159" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="F159" s="12">
-        <v>0</v>
-      </c>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F159" s="12"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="59">
@@ -46120,12 +45816,10 @@
       <c r="D160" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E160" s="12">
-        <v>0.71</v>
-      </c>
-      <c r="F160" s="12">
-        <v>0</v>
-      </c>
+      <c r="E160" s="11">
+        <v>1</v>
+      </c>
+      <c r="F160" s="12"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="59">
@@ -46140,12 +45834,10 @@
       <c r="D161" s="11">
         <v>1.2</v>
       </c>
-      <c r="E161" s="12">
-        <v>0.81</v>
-      </c>
-      <c r="F161" s="12">
-        <v>0</v>
-      </c>
+      <c r="E161" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="F161" s="12"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="59">
@@ -46163,9 +45855,7 @@
       <c r="E162" s="11">
         <v>1</v>
       </c>
-      <c r="F162" s="12">
-        <v>0</v>
-      </c>
+      <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="59">
@@ -46180,12 +45870,10 @@
       <c r="D163" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E163" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="F163" s="12">
-        <v>0</v>
-      </c>
+      <c r="E163" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="F163" s="12"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="59">
@@ -46203,9 +45891,7 @@
       <c r="E164" s="12">
         <v>0.6</v>
       </c>
-      <c r="F164" s="12">
-        <v>0</v>
-      </c>
+      <c r="F164" s="12"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="59">
@@ -46220,12 +45906,10 @@
       <c r="D165" s="11">
         <v>1.07</v>
       </c>
-      <c r="E165" s="12">
-        <v>0.65</v>
-      </c>
-      <c r="F165" s="12">
-        <v>0</v>
-      </c>
+      <c r="E165" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="F165" s="12"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="59">
@@ -46243,9 +45927,7 @@
       <c r="E166" s="12">
         <v>0</v>
       </c>
-      <c r="F166" s="12">
-        <v>0</v>
-      </c>
+      <c r="F166" s="12"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="59">
@@ -46260,12 +45942,10 @@
       <c r="D167" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E167" s="12">
-        <v>0.73</v>
-      </c>
-      <c r="F167" s="12">
-        <v>0</v>
-      </c>
+      <c r="E167" s="11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F167" s="12"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="59">
@@ -46280,12 +45960,10 @@
       <c r="D168" s="11">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E168" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="F168" s="12">
-        <v>0</v>
-      </c>
+      <c r="E168" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="F168" s="12"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="59">
@@ -46300,12 +45978,10 @@
       <c r="D169" s="11">
         <v>1.04</v>
       </c>
-      <c r="E169" s="12">
-        <v>0.73</v>
-      </c>
-      <c r="F169" s="12">
-        <v>0</v>
-      </c>
+      <c r="E169" s="11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F169" s="12"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="59">
@@ -46320,12 +45996,10 @@
       <c r="D170" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E170" s="12">
-        <v>0.65</v>
-      </c>
-      <c r="F170" s="12">
-        <v>0</v>
-      </c>
+      <c r="E170" s="11">
+        <v>1.06</v>
+      </c>
+      <c r="F170" s="12"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="59">
@@ -46340,12 +46014,10 @@
       <c r="D171" s="11">
         <v>1.18</v>
       </c>
-      <c r="E171" s="12">
-        <v>0.76</v>
-      </c>
-      <c r="F171" s="12">
-        <v>0</v>
-      </c>
+      <c r="E171" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F171" s="12"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="59">
@@ -46360,12 +46032,10 @@
       <c r="D172" s="11">
         <v>1.04</v>
       </c>
-      <c r="E172" s="12">
-        <v>0.68</v>
-      </c>
-      <c r="F172" s="12">
-        <v>0</v>
-      </c>
+      <c r="E172" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="F172" s="12"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="59">
@@ -46380,12 +46050,10 @@
       <c r="D173" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E173" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="F173" s="12">
-        <v>0</v>
-      </c>
+      <c r="E173" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F173" s="12"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="59">
@@ -46400,12 +46068,10 @@
       <c r="D174" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E174" s="12">
-        <v>0.76</v>
-      </c>
-      <c r="F174" s="12">
-        <v>0</v>
-      </c>
+      <c r="E174" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F174" s="12"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="59">
@@ -46420,12 +46086,10 @@
       <c r="D175" s="11">
         <v>1.05</v>
       </c>
-      <c r="E175" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="F175" s="12">
-        <v>0</v>
-      </c>
+      <c r="E175" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="F175" s="12"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="59">
@@ -46440,12 +46104,10 @@
       <c r="D176" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E176" s="12">
-        <v>0.74</v>
-      </c>
-      <c r="F176" s="12">
-        <v>0</v>
-      </c>
+      <c r="E176" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="F176" s="12"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="59">
@@ -46463,9 +46125,7 @@
       <c r="E177" s="12">
         <v>0.44</v>
       </c>
-      <c r="F177" s="12">
-        <v>0</v>
-      </c>
+      <c r="F177" s="12"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="59">
@@ -46481,11 +46141,9 @@
         <v>0.98</v>
       </c>
       <c r="E178" s="12">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F178" s="12">
-        <v>0</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F178" s="12"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="59">
@@ -46501,11 +46159,9 @@
         <v>0.88</v>
       </c>
       <c r="E179" s="12">
-        <v>0.66</v>
-      </c>
-      <c r="F179" s="12">
-        <v>0</v>
-      </c>
+        <v>0.89</v>
+      </c>
+      <c r="F179" s="12"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="59">
@@ -46523,9 +46179,7 @@
       <c r="E180" s="12">
         <v>0</v>
       </c>
-      <c r="F180" s="12">
-        <v>0</v>
-      </c>
+      <c r="F180" s="12"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="59">
@@ -46540,12 +46194,10 @@
       <c r="D181" s="11">
         <v>1</v>
       </c>
-      <c r="E181" s="12">
-        <v>0.64</v>
-      </c>
-      <c r="F181" s="12">
-        <v>0</v>
-      </c>
+      <c r="E181" s="11">
+        <v>1</v>
+      </c>
+      <c r="F181" s="12"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="59">
@@ -46560,12 +46212,10 @@
       <c r="D182" s="11">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E182" s="12">
-        <v>0.77</v>
-      </c>
-      <c r="F182" s="12">
-        <v>0</v>
-      </c>
+      <c r="E182" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="F182" s="12"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="59">
@@ -46583,9 +46233,7 @@
       <c r="E183" s="12">
         <v>0.37</v>
       </c>
-      <c r="F183" s="12">
-        <v>0</v>
-      </c>
+      <c r="F183" s="12"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="59">
@@ -46601,11 +46249,9 @@
         <v>0.9</v>
       </c>
       <c r="E184" s="12">
-        <v>0.65</v>
-      </c>
-      <c r="F184" s="12">
-        <v>0</v>
-      </c>
+        <v>0.81</v>
+      </c>
+      <c r="F184" s="12"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="59">
@@ -46623,9 +46269,7 @@
       <c r="E185" s="11">
         <v>1.03</v>
       </c>
-      <c r="F185" s="12">
-        <v>0</v>
-      </c>
+      <c r="F185" s="12"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="59">
@@ -46640,12 +46284,10 @@
       <c r="D186" s="11">
         <v>1.17</v>
       </c>
-      <c r="E186" s="12">
-        <v>0.79</v>
-      </c>
-      <c r="F186" s="12">
-        <v>0</v>
-      </c>
+      <c r="E186" s="11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F186" s="12"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="59">
@@ -46660,12 +46302,10 @@
       <c r="D187" s="11">
         <v>1.07</v>
       </c>
-      <c r="E187" s="12">
-        <v>0.69</v>
-      </c>
-      <c r="F187" s="12">
-        <v>0</v>
-      </c>
+      <c r="E187" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="F187" s="12"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="59">
@@ -46680,12 +46320,10 @@
       <c r="D188" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E188" s="12">
-        <v>0.69</v>
-      </c>
-      <c r="F188" s="12">
-        <v>0</v>
-      </c>
+      <c r="E188" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="F188" s="12"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="59">
@@ -46700,12 +46338,10 @@
       <c r="D189" s="11">
         <v>1.01</v>
       </c>
-      <c r="E189" s="12">
-        <v>0.73</v>
-      </c>
-      <c r="F189" s="12">
-        <v>0</v>
-      </c>
+      <c r="E189" s="11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F189" s="12"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="59">
@@ -46720,12 +46356,10 @@
       <c r="D190" s="11">
         <v>0.98</v>
       </c>
-      <c r="E190" s="12">
-        <v>0.78</v>
-      </c>
-      <c r="F190" s="12">
-        <v>0</v>
-      </c>
+      <c r="E190" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="F190" s="12"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="59">
@@ -46740,12 +46374,10 @@
       <c r="D191" s="11">
         <v>1.19</v>
       </c>
-      <c r="E191" s="12">
-        <v>0.77</v>
-      </c>
-      <c r="F191" s="12">
-        <v>0</v>
-      </c>
+      <c r="E191" s="11">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F191" s="12"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="59">
@@ -46760,12 +46392,10 @@
       <c r="D192" s="11">
         <v>1.05</v>
       </c>
-      <c r="E192" s="12">
-        <v>0.68</v>
-      </c>
-      <c r="F192" s="12">
-        <v>0</v>
-      </c>
+      <c r="E192" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="F192" s="12"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="59">
@@ -46780,12 +46410,10 @@
       <c r="D193" s="11">
         <v>1.29</v>
       </c>
-      <c r="E193" s="12">
-        <v>0.79</v>
-      </c>
-      <c r="F193" s="12">
-        <v>0</v>
-      </c>
+      <c r="E193" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="F193" s="12"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="59">
@@ -46800,12 +46428,10 @@
       <c r="D194" s="12">
         <v>0.71</v>
       </c>
-      <c r="E194" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="F194" s="12">
-        <v>0</v>
-      </c>
+      <c r="E194" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="F194" s="12"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="59">
@@ -46820,12 +46446,10 @@
       <c r="D195" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E195" s="12">
-        <v>0.73</v>
-      </c>
-      <c r="F195" s="12">
-        <v>0</v>
-      </c>
+      <c r="E195" s="11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F195" s="12"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="59">
@@ -46843,9 +46467,7 @@
       <c r="E196" s="12">
         <v>0.36</v>
       </c>
-      <c r="F196" s="12">
-        <v>0</v>
-      </c>
+      <c r="F196" s="12"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="59">
@@ -46863,9 +46485,7 @@
       <c r="E197" s="11">
         <v>1.03</v>
       </c>
-      <c r="F197" s="12">
-        <v>0</v>
-      </c>
+      <c r="F197" s="12"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="59">
@@ -46880,12 +46500,10 @@
       <c r="D198" s="11">
         <v>1</v>
       </c>
-      <c r="E198" s="12">
-        <v>0.64</v>
-      </c>
-      <c r="F198" s="12">
-        <v>0</v>
-      </c>
+      <c r="E198" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="F198" s="12"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="59">
@@ -46903,9 +46521,7 @@
       <c r="E199" s="12">
         <v>0.34</v>
       </c>
-      <c r="F199" s="12">
-        <v>0</v>
-      </c>
+      <c r="F199" s="12"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="59">
@@ -46923,9 +46539,7 @@
       <c r="E200" s="11">
         <v>1.05</v>
       </c>
-      <c r="F200" s="12">
-        <v>0</v>
-      </c>
+      <c r="F200" s="12"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="59">
@@ -46940,12 +46554,10 @@
       <c r="D201" s="12">
         <v>0.59</v>
       </c>
-      <c r="E201" s="12">
-        <v>0.89</v>
-      </c>
-      <c r="F201" s="12">
-        <v>0</v>
-      </c>
+      <c r="E201" s="11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F201" s="12"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="59">
@@ -46960,12 +46572,10 @@
       <c r="D202" s="12">
         <v>0.38</v>
       </c>
-      <c r="E202" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="F202" s="12">
-        <v>0</v>
-      </c>
+      <c r="E202" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="F202" s="12"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="59">
@@ -46981,11 +46591,9 @@
         <v>0.7</v>
       </c>
       <c r="E203" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="F203" s="12">
-        <v>0</v>
-      </c>
+        <v>0.71</v>
+      </c>
+      <c r="F203" s="12"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="59">
@@ -47000,12 +46608,10 @@
       <c r="D204" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E204" s="12">
-        <v>0.76</v>
-      </c>
-      <c r="F204" s="12">
-        <v>0</v>
-      </c>
+      <c r="E204" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F204" s="12"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="59">
@@ -47023,9 +46629,7 @@
       <c r="E205" s="12">
         <v>0</v>
       </c>
-      <c r="F205" s="12">
-        <v>0</v>
-      </c>
+      <c r="F205" s="12"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="59">
@@ -47043,19 +46647,17 @@
       <c r="E206" s="12">
         <v>0.79</v>
       </c>
-      <c r="F206" s="12">
-        <v>0</v>
-      </c>
+      <c r="F206" s="12"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="59">
-        <v>20220747</v>
+        <v>20251279</v>
       </c>
       <c r="B207" s="59" t="s">
-        <v>219</v>
+        <v>553</v>
       </c>
       <c r="C207" s="59" t="s">
-        <v>218</v>
+        <v>554</v>
       </c>
       <c r="D207" s="12">
         <v>0</v>
@@ -47063,599 +46665,539 @@
       <c r="E207" s="12">
         <v>0</v>
       </c>
-      <c r="F207" s="12">
-        <v>0</v>
-      </c>
+      <c r="F207" s="12"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="59">
-        <v>20220797</v>
+        <v>20251278</v>
       </c>
       <c r="B208" s="59" t="s">
-        <v>216</v>
+        <v>555</v>
       </c>
       <c r="C208" s="59" t="s">
-        <v>83</v>
+        <v>556</v>
       </c>
       <c r="D208" s="12">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="E208" s="12">
         <v>0</v>
       </c>
-      <c r="F208" s="12">
-        <v>0</v>
-      </c>
+      <c r="F208" s="12"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="59">
-        <v>20221014</v>
+        <v>20220747</v>
       </c>
       <c r="B209" s="59" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C209" s="59" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="D209" s="12">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E209" s="12">
         <v>0</v>
       </c>
-      <c r="F209" s="12">
-        <v>0</v>
-      </c>
+      <c r="F209" s="12"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="59">
-        <v>20230200</v>
+        <v>20220797</v>
       </c>
       <c r="B210" s="59" t="s">
-        <v>331</v>
+        <v>216</v>
       </c>
       <c r="C210" s="59" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D210" s="12">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="E210" s="12">
         <v>0</v>
       </c>
-      <c r="F210" s="12">
-        <v>0</v>
-      </c>
+      <c r="F210" s="12"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="59">
-        <v>20230394</v>
+        <v>20221014</v>
       </c>
       <c r="B211" s="59" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C211" s="59" t="s">
-        <v>332</v>
-      </c>
-      <c r="D211" s="11">
-        <v>0.98</v>
+        <v>7</v>
+      </c>
+      <c r="D211" s="12">
+        <v>0.55000000000000004</v>
       </c>
       <c r="E211" s="12">
         <v>0</v>
       </c>
-      <c r="F211" s="12">
-        <v>0</v>
-      </c>
+      <c r="F211" s="12"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="59">
-        <v>20230571</v>
+        <v>20230200</v>
       </c>
       <c r="B212" s="59" t="s">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="C212" s="59" t="s">
-        <v>261</v>
+        <v>7</v>
       </c>
       <c r="D212" s="12">
-        <v>0.56999999999999995</v>
+        <v>0.84</v>
       </c>
       <c r="E212" s="12">
         <v>0</v>
       </c>
-      <c r="F212" s="12">
-        <v>0</v>
-      </c>
+      <c r="F212" s="12"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="59">
-        <v>20230638</v>
+        <v>20230394</v>
       </c>
       <c r="B213" s="59" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="C213" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D213" s="12">
-        <v>0.65</v>
+        <v>332</v>
+      </c>
+      <c r="D213" s="11">
+        <v>0.98</v>
       </c>
       <c r="E213" s="12">
         <v>0</v>
       </c>
-      <c r="F213" s="12">
-        <v>0</v>
-      </c>
+      <c r="F213" s="12"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="59">
-        <v>20230875</v>
+        <v>20230571</v>
       </c>
       <c r="B214" s="59" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C214" s="59" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="D214" s="12">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E214" s="12">
         <v>0</v>
       </c>
-      <c r="F214" s="12">
-        <v>0</v>
-      </c>
+      <c r="F214" s="12"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="59">
-        <v>20230939</v>
+        <v>20230638</v>
       </c>
       <c r="B215" s="59" t="s">
-        <v>333</v>
+        <v>50</v>
       </c>
       <c r="C215" s="59" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D215" s="12">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="E215" s="12">
         <v>0</v>
       </c>
-      <c r="F215" s="12">
-        <v>0</v>
-      </c>
+      <c r="F215" s="12"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="59">
-        <v>20231033</v>
+        <v>20230875</v>
       </c>
       <c r="B216" s="59" t="s">
-        <v>4</v>
+        <v>258</v>
       </c>
       <c r="C216" s="59" t="s">
-        <v>334</v>
-      </c>
-      <c r="D216" s="11">
-        <v>0.96</v>
+        <v>43</v>
+      </c>
+      <c r="D216" s="12">
+        <v>0</v>
       </c>
       <c r="E216" s="12">
         <v>0</v>
       </c>
-      <c r="F216" s="12">
-        <v>0</v>
-      </c>
+      <c r="F216" s="12"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="59">
-        <v>20231162</v>
+        <v>20230939</v>
       </c>
       <c r="B217" s="59" t="s">
-        <v>52</v>
+        <v>333</v>
       </c>
       <c r="C217" s="59" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D217" s="12">
-        <v>0.81</v>
+        <v>0.63</v>
       </c>
       <c r="E217" s="12">
         <v>0</v>
       </c>
-      <c r="F217" s="12">
-        <v>0</v>
-      </c>
+      <c r="F217" s="12"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="59">
-        <v>20231181</v>
+        <v>20231033</v>
       </c>
       <c r="B218" s="59" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C218" s="59" t="s">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="D218" s="11">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="E218" s="12">
         <v>0</v>
       </c>
-      <c r="F218" s="12">
-        <v>0</v>
-      </c>
+      <c r="F218" s="12"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="59">
-        <v>20231376</v>
+        <v>20231162</v>
       </c>
       <c r="B219" s="59" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C219" s="59" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D219" s="12">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
       <c r="E219" s="12">
         <v>0</v>
       </c>
-      <c r="F219" s="12">
-        <v>0</v>
-      </c>
+      <c r="F219" s="12"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="59">
-        <v>20231522</v>
+        <v>20231181</v>
       </c>
       <c r="B220" s="59" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C220" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="D220" s="12">
-        <v>0.57999999999999996</v>
+        <v>16</v>
+      </c>
+      <c r="D220" s="11">
+        <v>0.98</v>
       </c>
       <c r="E220" s="12">
         <v>0</v>
       </c>
-      <c r="F220" s="12">
-        <v>0</v>
-      </c>
+      <c r="F220" s="12"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="59">
-        <v>20231990</v>
+        <v>20231376</v>
       </c>
       <c r="B221" s="59" t="s">
-        <v>398</v>
+        <v>58</v>
       </c>
       <c r="C221" s="59" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="D221" s="12">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="E221" s="12">
         <v>0</v>
       </c>
-      <c r="F221" s="12">
-        <v>0</v>
-      </c>
+      <c r="F221" s="12"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="59">
-        <v>20240080</v>
+        <v>20231522</v>
       </c>
       <c r="B222" s="59" t="s">
         <v>4</v>
       </c>
       <c r="C222" s="59" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D222" s="12">
-        <v>0.81</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E222" s="12">
         <v>0</v>
       </c>
-      <c r="F222" s="12">
-        <v>0</v>
-      </c>
+      <c r="F222" s="12"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="59">
-        <v>20240107</v>
+        <v>20231990</v>
       </c>
       <c r="B223" s="59" t="s">
-        <v>4</v>
+        <v>398</v>
       </c>
       <c r="C223" s="59" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="D223" s="12">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="E223" s="12">
         <v>0</v>
       </c>
-      <c r="F223" s="12">
-        <v>0</v>
-      </c>
+      <c r="F223" s="12"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="59">
-        <v>20240109</v>
+        <v>20240080</v>
       </c>
       <c r="B224" s="59" t="s">
-        <v>402</v>
+        <v>4</v>
       </c>
       <c r="C224" s="59" t="s">
-        <v>394</v>
-      </c>
-      <c r="D224" s="11">
-        <v>1.08</v>
+        <v>89</v>
+      </c>
+      <c r="D224" s="12">
+        <v>0.81</v>
       </c>
       <c r="E224" s="12">
         <v>0</v>
       </c>
-      <c r="F224" s="12">
-        <v>0</v>
-      </c>
+      <c r="F224" s="12"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="59">
-        <v>20240367</v>
+        <v>20240107</v>
       </c>
       <c r="B225" s="59" t="s">
         <v>4</v>
       </c>
       <c r="C225" s="59" t="s">
-        <v>438</v>
+        <v>60</v>
       </c>
       <c r="D225" s="12">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="E225" s="12">
         <v>0</v>
       </c>
-      <c r="F225" s="12">
-        <v>0</v>
-      </c>
+      <c r="F225" s="12"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="59">
-        <v>20240486</v>
+        <v>20240109</v>
       </c>
       <c r="B226" s="59" t="s">
-        <v>4</v>
+        <v>402</v>
       </c>
       <c r="C226" s="59" t="s">
-        <v>90</v>
+        <v>394</v>
       </c>
       <c r="D226" s="11">
-        <v>0.93</v>
+        <v>1.08</v>
       </c>
       <c r="E226" s="12">
         <v>0</v>
       </c>
-      <c r="F226" s="12">
-        <v>0</v>
-      </c>
+      <c r="F226" s="12"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="59">
-        <v>20241002</v>
+        <v>20240367</v>
       </c>
       <c r="B227" s="59" t="s">
-        <v>436</v>
+        <v>4</v>
       </c>
       <c r="C227" s="59" t="s">
-        <v>139</v>
+        <v>438</v>
       </c>
       <c r="D227" s="12">
-        <v>0.84</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E227" s="12">
         <v>0</v>
       </c>
-      <c r="F227" s="12">
-        <v>0</v>
-      </c>
+      <c r="F227" s="12"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="59">
-        <v>20241081</v>
+        <v>20240486</v>
       </c>
       <c r="B228" s="59" t="s">
-        <v>437</v>
+        <v>4</v>
       </c>
       <c r="C228" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D228" s="12">
-        <v>0.6</v>
+        <v>90</v>
+      </c>
+      <c r="D228" s="11">
+        <v>0.93</v>
       </c>
       <c r="E228" s="12">
         <v>0</v>
       </c>
-      <c r="F228" s="12">
-        <v>0</v>
-      </c>
+      <c r="F228" s="12"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="59">
-        <v>20241167</v>
+        <v>20241002</v>
       </c>
       <c r="B229" s="59" t="s">
-        <v>4</v>
+        <v>436</v>
       </c>
       <c r="C229" s="59" t="s">
-        <v>397</v>
+        <v>139</v>
       </c>
       <c r="D229" s="12">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="E229" s="12">
         <v>0</v>
       </c>
-      <c r="F229" s="12">
-        <v>0</v>
-      </c>
+      <c r="F229" s="12"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="59">
-        <v>20241204</v>
+        <v>20241081</v>
       </c>
       <c r="B230" s="59" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="C230" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="D230" s="11">
-        <v>1.03</v>
+        <v>7</v>
+      </c>
+      <c r="D230" s="12">
+        <v>0.6</v>
       </c>
       <c r="E230" s="12">
         <v>0</v>
       </c>
-      <c r="F230" s="12">
-        <v>0</v>
-      </c>
+      <c r="F230" s="12"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="59">
-        <v>20241211</v>
+        <v>20241167</v>
       </c>
       <c r="B231" s="59" t="s">
-        <v>432</v>
+        <v>4</v>
       </c>
       <c r="C231" s="59" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="D231" s="12">
-        <v>0.55000000000000004</v>
+        <v>0.88</v>
       </c>
       <c r="E231" s="12">
         <v>0</v>
       </c>
-      <c r="F231" s="12">
-        <v>0</v>
-      </c>
+      <c r="F231" s="12"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="59">
-        <v>20241308</v>
+        <v>20241204</v>
       </c>
       <c r="B232" s="59" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="C232" s="59" t="s">
-        <v>139</v>
+        <v>404</v>
       </c>
       <c r="D232" s="11">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="E232" s="12">
         <v>0</v>
       </c>
-      <c r="F232" s="12">
-        <v>0</v>
-      </c>
+      <c r="F232" s="12"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="59">
-        <v>20240621</v>
+        <v>20241211</v>
       </c>
       <c r="B233" s="59" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C233" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D233" s="11">
-        <v>1</v>
-      </c>
-      <c r="E233" s="11">
-        <v>1</v>
-      </c>
-      <c r="F233" s="12">
-        <v>0</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="D233" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E233" s="12">
+        <v>0</v>
+      </c>
+      <c r="F233" s="12"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="59">
-        <v>20240618</v>
+        <v>20241308</v>
       </c>
       <c r="B234" s="59" t="s">
-        <v>4</v>
+        <v>435</v>
       </c>
       <c r="C234" s="59" t="s">
-        <v>441</v>
+        <v>139</v>
       </c>
       <c r="D234" s="11">
-        <v>1</v>
-      </c>
-      <c r="E234" s="11">
-        <v>1</v>
-      </c>
-      <c r="F234" s="12">
-        <v>0</v>
-      </c>
+        <v>0.98</v>
+      </c>
+      <c r="E234" s="12">
+        <v>0</v>
+      </c>
+      <c r="F234" s="12"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="59">
-        <v>20231004</v>
+        <v>20240621</v>
       </c>
       <c r="B235" s="59" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="C235" s="59" t="s">
-        <v>346</v>
-      </c>
-      <c r="D235" s="12">
-        <v>0</v>
-      </c>
-      <c r="E235" s="12">
-        <v>0</v>
-      </c>
-      <c r="F235" s="12">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D235" s="11">
+        <v>1</v>
+      </c>
+      <c r="E235" s="11">
+        <v>1</v>
+      </c>
+      <c r="F235" s="12"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="59">
-        <v>20230850</v>
+        <v>20240618</v>
       </c>
       <c r="B236" s="59" t="s">
-        <v>357</v>
+        <v>4</v>
       </c>
       <c r="C236" s="59" t="s">
-        <v>358</v>
-      </c>
-      <c r="D236" s="12">
-        <v>0</v>
-      </c>
-      <c r="E236" s="12">
-        <v>0</v>
-      </c>
-      <c r="F236" s="12">
-        <v>0</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="D236" s="11">
+        <v>1</v>
+      </c>
+      <c r="E236" s="11">
+        <v>1</v>
+      </c>
+      <c r="F236" s="12"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="59">
-        <v>20241108</v>
+        <v>20231004</v>
       </c>
       <c r="B237" s="59" t="s">
-        <v>253</v>
+        <v>345</v>
       </c>
       <c r="C237" s="59" t="s">
-        <v>139</v>
+        <v>346</v>
       </c>
       <c r="D237" s="12">
         <v>0</v>
@@ -47663,19 +47205,17 @@
       <c r="E237" s="12">
         <v>0</v>
       </c>
-      <c r="F237" s="12">
-        <v>0</v>
-      </c>
+      <c r="F237" s="12"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="59">
-        <v>20241185</v>
+        <v>20230850</v>
       </c>
       <c r="B238" s="59" t="s">
-        <v>283</v>
+        <v>357</v>
       </c>
       <c r="C238" s="59" t="s">
-        <v>442</v>
+        <v>358</v>
       </c>
       <c r="D238" s="12">
         <v>0</v>
@@ -47683,19 +47223,17 @@
       <c r="E238" s="12">
         <v>0</v>
       </c>
-      <c r="F238" s="12">
-        <v>0</v>
-      </c>
+      <c r="F238" s="12"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="59">
-        <v>20231410</v>
+        <v>20241108</v>
       </c>
       <c r="B239" s="59" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C239" s="59" t="s">
-        <v>293</v>
+        <v>139</v>
       </c>
       <c r="D239" s="12">
         <v>0</v>
@@ -47703,19 +47241,17 @@
       <c r="E239" s="12">
         <v>0</v>
       </c>
-      <c r="F239" s="12">
-        <v>0</v>
-      </c>
+      <c r="F239" s="12"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="59">
-        <v>20231246</v>
+        <v>20241185</v>
       </c>
       <c r="B240" s="59" t="s">
-        <v>352</v>
+        <v>283</v>
       </c>
       <c r="C240" s="59" t="s">
-        <v>353</v>
+        <v>442</v>
       </c>
       <c r="D240" s="12">
         <v>0</v>
@@ -47723,19 +47259,17 @@
       <c r="E240" s="12">
         <v>0</v>
       </c>
-      <c r="F240" s="12">
-        <v>0</v>
-      </c>
+      <c r="F240" s="12"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="59">
-        <v>20231208</v>
+        <v>20231410</v>
       </c>
       <c r="B241" s="59" t="s">
-        <v>4</v>
+        <v>292</v>
       </c>
       <c r="C241" s="59" t="s">
-        <v>71</v>
+        <v>293</v>
       </c>
       <c r="D241" s="12">
         <v>0</v>
@@ -47743,19 +47277,17 @@
       <c r="E241" s="12">
         <v>0</v>
       </c>
-      <c r="F241" s="12">
-        <v>0</v>
-      </c>
+      <c r="F241" s="12"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="59">
-        <v>20230548</v>
+        <v>20231246</v>
       </c>
       <c r="B242" s="59" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="C242" s="59" t="s">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c r="D242" s="12">
         <v>0</v>
@@ -47763,19 +47295,17 @@
       <c r="E242" s="12">
         <v>0</v>
       </c>
-      <c r="F242" s="12">
-        <v>0</v>
-      </c>
+      <c r="F242" s="12"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="59">
-        <v>20250325</v>
+        <v>20231208</v>
       </c>
       <c r="B243" s="59" t="s">
-        <v>248</v>
+        <v>4</v>
       </c>
       <c r="C243" s="59" t="s">
-        <v>443</v>
+        <v>71</v>
       </c>
       <c r="D243" s="12">
         <v>0</v>
@@ -47783,19 +47313,17 @@
       <c r="E243" s="12">
         <v>0</v>
       </c>
-      <c r="F243" s="12">
-        <v>0</v>
-      </c>
+      <c r="F243" s="12"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="59">
-        <v>20231503</v>
+        <v>20230548</v>
       </c>
       <c r="B244" s="59" t="s">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="C244" s="59" t="s">
-        <v>73</v>
+        <v>290</v>
       </c>
       <c r="D244" s="12">
         <v>0</v>
@@ -47803,19 +47331,17 @@
       <c r="E244" s="12">
         <v>0</v>
       </c>
-      <c r="F244" s="12">
-        <v>0</v>
-      </c>
+      <c r="F244" s="12"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="59">
-        <v>20231284</v>
+        <v>20250325</v>
       </c>
       <c r="B245" s="59" t="s">
-        <v>350</v>
+        <v>248</v>
       </c>
       <c r="C245" s="59" t="s">
-        <v>351</v>
+        <v>443</v>
       </c>
       <c r="D245" s="12">
         <v>0</v>
@@ -47823,27 +47349,57 @@
       <c r="E245" s="12">
         <v>0</v>
       </c>
-      <c r="F245" s="12">
-        <v>0</v>
-      </c>
+      <c r="F245" s="12"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="59">
+        <v>20231503</v>
+      </c>
+      <c r="B246" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C246" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D246" s="12">
+        <v>0</v>
+      </c>
+      <c r="E246" s="12">
+        <v>0</v>
+      </c>
+      <c r="F246" s="12"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="59">
+        <v>20231284</v>
+      </c>
+      <c r="B247" s="59" t="s">
+        <v>350</v>
+      </c>
+      <c r="C247" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="D247" s="12">
+        <v>0</v>
+      </c>
+      <c r="E247" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="59">
         <v>20241491</v>
       </c>
-      <c r="B246" s="59" t="s">
+      <c r="B248" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C246" s="59" t="s">
+      <c r="C248" s="59" t="s">
         <v>505</v>
       </c>
-      <c r="D246" s="12">
-        <v>0</v>
-      </c>
-      <c r="E246" s="12">
-        <v>0</v>
-      </c>
-      <c r="F246" s="12">
+      <c r="D248" s="12">
+        <v>0</v>
+      </c>
+      <c r="E248" s="12">
         <v>0</v>
       </c>
     </row>
@@ -69657,15 +69213,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C055B46FD48B3346B10CEACF6165CA2E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ce32beb785b16a844e5ac9984a39cddd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2ba1b9e1-d32c-453a-80ca-da429ca95d13" xmlns:ns3="3cef09ca-690e-48ca-8db1-bbccdf684368" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="929a4414321bae1528947cb08dec1f5d" ns2:_="" ns3:_="">
     <xsd:import namespace="2ba1b9e1-d32c-453a-80ca-da429ca95d13"/>
@@ -69920,6 +69467,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DA11991-CB2B-42C8-9D1A-27999BA19AA4}">
   <ds:schemaRefs>
@@ -69938,14 +69494,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EF37548-399B-4B64-AB6C-62FF5630FEED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835DC02C-D0D2-4615-ADA0-1E9180E8CC6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -69962,4 +69510,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EF37548-399B-4B64-AB6C-62FF5630FEED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Attendance Test.xlsx
+++ b/Attendance Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinals\source\repos\whitecliffe_hunt\flask-attendance-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B14939-5516-4757-9FBC-5A9470BF9B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312786ED-F869-4849-97CD-FD62DC3D64FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="14" xr2:uid="{A7955748-8F8E-4629-9B7A-DC1BC8E73719}"/>
   </bookViews>
@@ -1727,7 +1727,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1772,6 +1772,16 @@
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="17">
@@ -2098,7 +2108,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2247,6 +2257,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -42915,8 +42931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADDA66-B5D4-4E7E-B5C3-B6AA86865A89}">
   <dimension ref="A1:L248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42975,7 +42991,9 @@
       <c r="E2" s="11">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="11">
+        <v>1.1299999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="59">
@@ -42993,7 +43011,9 @@
       <c r="E3" s="12">
         <v>0.77</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="11">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="59">
@@ -43011,7 +43031,9 @@
       <c r="E4" s="11">
         <v>1.36</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="11">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="59">
@@ -43029,7 +43051,9 @@
       <c r="E5" s="12">
         <v>0.8</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="59">
@@ -43047,7 +43071,9 @@
       <c r="E6" s="11">
         <v>1.08</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="59">
@@ -43065,7 +43091,9 @@
       <c r="E7" s="11">
         <v>1.07</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="59">
@@ -43083,7 +43111,9 @@
       <c r="E8" s="11">
         <v>0.98</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="11">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="59">
@@ -43101,7 +43131,9 @@
       <c r="E9" s="11">
         <v>0.93</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="11">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="59">
@@ -43119,7 +43151,9 @@
       <c r="E10" s="11">
         <v>0.91</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="12">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="59">
@@ -43137,7 +43171,9 @@
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="11">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="59">
@@ -43155,7 +43191,9 @@
       <c r="E12" s="11">
         <v>0.94</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="11">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="59">
@@ -43173,7 +43211,9 @@
       <c r="E13" s="12">
         <v>0.73</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="12">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="59">
@@ -43191,7 +43231,9 @@
       <c r="E14" s="12">
         <v>0.9</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="11">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="59">
@@ -43209,7 +43251,9 @@
       <c r="E15" s="11">
         <v>0.99</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="12">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="59">
@@ -43227,7 +43271,9 @@
       <c r="E16" s="11">
         <v>0.99</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="12">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="59">
@@ -43245,7 +43291,9 @@
       <c r="E17" s="12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="12">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="59">
@@ -43263,7 +43311,9 @@
       <c r="E18" s="11">
         <v>1</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="11">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="59">
@@ -43281,7 +43331,9 @@
       <c r="E19" s="11">
         <v>1.03</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="11">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="59">
@@ -43299,7 +43351,9 @@
       <c r="E20" s="12">
         <v>0.23</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="59">
@@ -43317,7 +43371,9 @@
       <c r="E21" s="11">
         <v>1.02</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="12">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="59">
@@ -43335,7 +43391,9 @@
       <c r="E22" s="12">
         <v>0.87</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="59">
@@ -43353,7 +43411,9 @@
       <c r="E23" s="11">
         <v>1.07</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="59">
@@ -43371,7 +43431,9 @@
       <c r="E24" s="11">
         <v>0.92</v>
       </c>
-      <c r="F24" s="12"/>
+      <c r="F24" s="12">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="59">
@@ -43389,7 +43451,9 @@
       <c r="E25" s="11">
         <v>1.04</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11">
+        <v>1.01</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="59">
@@ -43407,7 +43471,9 @@
       <c r="E26" s="11">
         <v>0.92</v>
       </c>
-      <c r="F26" s="12"/>
+      <c r="F26" s="11">
+        <v>1.01</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="59">
@@ -43425,7 +43491,9 @@
       <c r="E27" s="12">
         <v>0</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="11">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="59">
@@ -43438,12 +43506,14 @@
         <v>234</v>
       </c>
       <c r="D28" s="12">
-        <v>0.56000000000000005</v>
+        <v>0.81</v>
       </c>
       <c r="E28" s="12">
         <v>0.84</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="12">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="59">
@@ -43461,7 +43531,9 @@
       <c r="E29" s="12">
         <v>0.85</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="12">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="59">
@@ -43479,7 +43551,9 @@
       <c r="E30" s="12">
         <v>0.53</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="12">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="59">
@@ -43497,7 +43571,9 @@
       <c r="E31" s="11">
         <v>0.99</v>
       </c>
-      <c r="F31" s="12"/>
+      <c r="F31" s="11">
+        <v>1.0900000000000001</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="59">
@@ -43515,7 +43591,9 @@
       <c r="E32" s="11">
         <v>1.07</v>
       </c>
-      <c r="F32" s="12"/>
+      <c r="F32" s="11">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="59">
@@ -43533,7 +43611,9 @@
       <c r="E33" s="12">
         <v>0.65</v>
       </c>
-      <c r="F33" s="12"/>
+      <c r="F33" s="12">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="59">
@@ -43551,7 +43631,9 @@
       <c r="E34" s="12">
         <v>0.74</v>
       </c>
-      <c r="F34" s="12"/>
+      <c r="F34" s="11">
+        <v>1.01</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="59">
@@ -43569,7 +43651,9 @@
       <c r="E35" s="11">
         <v>1.04</v>
       </c>
-      <c r="F35" s="12"/>
+      <c r="F35" s="11">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="59">
@@ -43585,9 +43669,11 @@
         <v>0.39</v>
       </c>
       <c r="E36" s="12">
-        <v>-0.57999999999999996</v>
-      </c>
-      <c r="F36" s="12"/>
+        <v>0.45</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="59">
@@ -43605,7 +43691,9 @@
       <c r="E37" s="11">
         <v>1.05</v>
       </c>
-      <c r="F37" s="12"/>
+      <c r="F37" s="11">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="59">
@@ -43623,7 +43711,9 @@
       <c r="E38" s="12">
         <v>0.86</v>
       </c>
-      <c r="F38" s="12"/>
+      <c r="F38" s="12">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="59">
@@ -43641,7 +43731,9 @@
       <c r="E39" s="11">
         <v>1.05</v>
       </c>
-      <c r="F39" s="12"/>
+      <c r="F39" s="12">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="59">
@@ -43659,7 +43751,9 @@
       <c r="E40" s="12">
         <v>0.84</v>
       </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="11">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="59">
@@ -43677,7 +43771,9 @@
       <c r="E41" s="12">
         <v>0.88</v>
       </c>
-      <c r="F41" s="12"/>
+      <c r="F41" s="12">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="59">
@@ -43695,7 +43791,9 @@
       <c r="E42" s="12">
         <v>0.24</v>
       </c>
-      <c r="F42" s="12"/>
+      <c r="F42" s="12">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="59">
@@ -43713,7 +43811,9 @@
       <c r="E43" s="12">
         <v>0.46</v>
       </c>
-      <c r="F43" s="12"/>
+      <c r="F43" s="12">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="59">
@@ -43731,7 +43831,9 @@
       <c r="E44" s="12">
         <v>0.46</v>
       </c>
-      <c r="F44" s="12"/>
+      <c r="F44" s="12">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="59">
@@ -43749,7 +43851,9 @@
       <c r="E45" s="11">
         <v>0.92</v>
       </c>
-      <c r="F45" s="12"/>
+      <c r="F45" s="11">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="59">
@@ -43767,7 +43871,9 @@
       <c r="E46" s="12">
         <v>0.63</v>
       </c>
-      <c r="F46" s="12"/>
+      <c r="F46" s="12">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="59">
@@ -43785,7 +43891,9 @@
       <c r="E47" s="11">
         <v>0.97</v>
       </c>
-      <c r="F47" s="12"/>
+      <c r="F47" s="11">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="59">
@@ -43803,7 +43911,9 @@
       <c r="E48" s="12">
         <v>0.16</v>
       </c>
-      <c r="F48" s="12"/>
+      <c r="F48" s="12">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="59">
@@ -43821,7 +43931,9 @@
       <c r="E49" s="12">
         <v>0.63</v>
       </c>
-      <c r="F49" s="12"/>
+      <c r="F49" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="59">
@@ -43839,7 +43951,9 @@
       <c r="E50" s="11">
         <v>0.98</v>
       </c>
-      <c r="F50" s="12"/>
+      <c r="F50" s="11">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="59">
@@ -43857,7 +43971,9 @@
       <c r="E51" s="11">
         <v>0.96</v>
       </c>
-      <c r="F51" s="12"/>
+      <c r="F51" s="11">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="59">
@@ -43875,7 +43991,9 @@
       <c r="E52" s="11">
         <v>0.98</v>
       </c>
-      <c r="F52" s="12"/>
+      <c r="F52" s="12">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="59">
@@ -43893,7 +44011,9 @@
       <c r="E53" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F53" s="12"/>
+      <c r="F53" s="11">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="59">
@@ -43911,7 +44031,9 @@
       <c r="E54" s="11">
         <v>1.01</v>
       </c>
-      <c r="F54" s="12"/>
+      <c r="F54" s="12">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="59">
@@ -43929,7 +44051,9 @@
       <c r="E55" s="12">
         <v>0.59</v>
       </c>
-      <c r="F55" s="12"/>
+      <c r="F55" s="12">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="59">
@@ -43947,7 +44071,9 @@
       <c r="E56" s="11">
         <v>1.08</v>
       </c>
-      <c r="F56" s="12"/>
+      <c r="F56" s="11">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="59">
@@ -43965,7 +44091,9 @@
       <c r="E57" s="11">
         <v>0.96</v>
       </c>
-      <c r="F57" s="12"/>
+      <c r="F57" s="12">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="59">
@@ -43983,7 +44111,9 @@
       <c r="E58" s="11">
         <v>0.91</v>
       </c>
-      <c r="F58" s="12"/>
+      <c r="F58" s="12">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="59">
@@ -44001,7 +44131,9 @@
       <c r="E59" s="11">
         <v>1.05</v>
       </c>
-      <c r="F59" s="12"/>
+      <c r="F59" s="11">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="59">
@@ -44019,7 +44151,9 @@
       <c r="E60" s="11">
         <v>1.42</v>
       </c>
-      <c r="F60" s="12"/>
+      <c r="F60" s="11">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="59">
@@ -44037,7 +44171,9 @@
       <c r="E61" s="12">
         <v>0.2</v>
       </c>
-      <c r="F61" s="12"/>
+      <c r="F61" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="59">
@@ -44055,7 +44191,9 @@
       <c r="E62" s="11">
         <v>1.04</v>
       </c>
-      <c r="F62" s="12"/>
+      <c r="F62" s="11">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="59">
@@ -44073,7 +44211,9 @@
       <c r="E63" s="12">
         <v>0.35</v>
       </c>
-      <c r="F63" s="12"/>
+      <c r="F63" s="11">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="59">
@@ -44091,7 +44231,9 @@
       <c r="E64" s="11">
         <v>1</v>
       </c>
-      <c r="F64" s="12"/>
+      <c r="F64" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="59">
@@ -44109,7 +44251,9 @@
       <c r="E65" s="12">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F65" s="12"/>
+      <c r="F65" s="12">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="59">
@@ -44127,7 +44271,9 @@
       <c r="E66" s="11">
         <v>0.99</v>
       </c>
-      <c r="F66" s="12"/>
+      <c r="F66" s="12">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="59">
@@ -44145,7 +44291,9 @@
       <c r="E67" s="12">
         <v>0.61</v>
       </c>
-      <c r="F67" s="12"/>
+      <c r="F67" s="11">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="59">
@@ -44163,7 +44311,9 @@
       <c r="E68" s="12">
         <v>0.89</v>
       </c>
-      <c r="F68" s="12"/>
+      <c r="F68" s="11">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="59">
@@ -44181,7 +44331,9 @@
       <c r="E69" s="11">
         <v>1.01</v>
       </c>
-      <c r="F69" s="12"/>
+      <c r="F69" s="11">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="59">
@@ -44199,7 +44351,9 @@
       <c r="E70" s="12">
         <v>0.83</v>
       </c>
-      <c r="F70" s="12"/>
+      <c r="F70" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="59">
@@ -44217,7 +44371,9 @@
       <c r="E71" s="12">
         <v>0.5</v>
       </c>
-      <c r="F71" s="12"/>
+      <c r="F71" s="12">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="59">
@@ -44235,7 +44391,9 @@
       <c r="E72" s="12">
         <v>0.24</v>
       </c>
-      <c r="F72" s="12"/>
+      <c r="F72" s="12">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="59">
@@ -44253,7 +44411,9 @@
       <c r="E73" s="11">
         <v>0.97</v>
       </c>
-      <c r="F73" s="12"/>
+      <c r="F73" s="11">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="59">
@@ -44271,7 +44431,9 @@
       <c r="E74" s="12">
         <v>0.59</v>
       </c>
-      <c r="F74" s="12"/>
+      <c r="F74" s="11">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="59">
@@ -44289,7 +44451,9 @@
       <c r="E75" s="11">
         <v>1.06</v>
       </c>
-      <c r="F75" s="12"/>
+      <c r="F75" s="12">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="59">
@@ -44307,7 +44471,9 @@
       <c r="E76" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F76" s="12"/>
+      <c r="F76" s="11">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="59">
@@ -44325,7 +44491,9 @@
       <c r="E77" s="11">
         <v>1</v>
       </c>
-      <c r="F77" s="12"/>
+      <c r="F77" s="12">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="59">
@@ -44343,7 +44511,9 @@
       <c r="E78" s="12">
         <v>0.8</v>
       </c>
-      <c r="F78" s="12"/>
+      <c r="F78" s="12">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="59">
@@ -44361,7 +44531,9 @@
       <c r="E79" s="12">
         <v>0.85</v>
       </c>
-      <c r="F79" s="12"/>
+      <c r="F79" s="11">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="59">
@@ -44379,7 +44551,9 @@
       <c r="E80" s="12">
         <v>0.79</v>
       </c>
-      <c r="F80" s="12"/>
+      <c r="F80" s="11">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="59">
@@ -44397,7 +44571,9 @@
       <c r="E81" s="12">
         <v>0.88</v>
       </c>
-      <c r="F81" s="12"/>
+      <c r="F81" s="12">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="59">
@@ -44415,7 +44591,9 @@
       <c r="E82" s="12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F82" s="12"/>
+      <c r="F82" s="12">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="59">
@@ -44433,7 +44611,9 @@
       <c r="E83" s="11">
         <v>0.93</v>
       </c>
-      <c r="F83" s="12"/>
+      <c r="F83" s="11">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="59">
@@ -44451,7 +44631,9 @@
       <c r="E84" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F84" s="12"/>
+      <c r="F84" s="11">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="59">
@@ -44469,7 +44651,9 @@
       <c r="E85" s="11">
         <v>0.95</v>
       </c>
-      <c r="F85" s="12"/>
+      <c r="F85" s="11">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="59">
@@ -44487,7 +44671,9 @@
       <c r="E86" s="12">
         <v>0.9</v>
       </c>
-      <c r="F86" s="12"/>
+      <c r="F86" s="11">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="59">
@@ -44505,7 +44691,9 @@
       <c r="E87" s="11">
         <v>0.96</v>
       </c>
-      <c r="F87" s="12"/>
+      <c r="F87" s="11">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="59">
@@ -44523,7 +44711,9 @@
       <c r="E88" s="12">
         <v>0.87</v>
       </c>
-      <c r="F88" s="12"/>
+      <c r="F88" s="11">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="59">
@@ -44541,7 +44731,9 @@
       <c r="E89" s="11">
         <v>0.99</v>
       </c>
-      <c r="F89" s="12"/>
+      <c r="F89" s="11">
+        <v>1.01</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="59">
@@ -44559,7 +44751,9 @@
       <c r="E90" s="11">
         <v>0.97</v>
       </c>
-      <c r="F90" s="12"/>
+      <c r="F90" s="12">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="59">
@@ -44577,7 +44771,9 @@
       <c r="E91" s="11">
         <v>0.96</v>
       </c>
-      <c r="F91" s="12"/>
+      <c r="F91" s="11">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="59">
@@ -44595,7 +44791,9 @@
       <c r="E92" s="11">
         <v>1</v>
       </c>
-      <c r="F92" s="12"/>
+      <c r="F92" s="11">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="59">
@@ -44613,7 +44811,9 @@
       <c r="E93" s="11">
         <v>0.91</v>
       </c>
-      <c r="F93" s="12"/>
+      <c r="F93" s="11">
+        <v>1.1499999999999999</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="59">
@@ -44631,7 +44831,9 @@
       <c r="E94" s="11">
         <v>1.04</v>
       </c>
-      <c r="F94" s="12"/>
+      <c r="F94" s="12">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="59">
@@ -44649,7 +44851,9 @@
       <c r="E95" s="12">
         <v>0.89</v>
       </c>
-      <c r="F95" s="12"/>
+      <c r="F95" s="11">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="59">
@@ -44667,7 +44871,9 @@
       <c r="E96" s="11">
         <v>0.92</v>
       </c>
-      <c r="F96" s="12"/>
+      <c r="F96" s="12">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="59">
@@ -44685,7 +44891,9 @@
       <c r="E97" s="12">
         <v>0.72</v>
       </c>
-      <c r="F97" s="12"/>
+      <c r="F97" s="12">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="59">
@@ -44703,7 +44911,9 @@
       <c r="E98" s="12">
         <v>0.68</v>
       </c>
-      <c r="F98" s="12"/>
+      <c r="F98" s="12">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="59">
@@ -44721,7 +44931,9 @@
       <c r="E99" s="12">
         <v>0.84</v>
       </c>
-      <c r="F99" s="12"/>
+      <c r="F99" s="12">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="59">
@@ -44739,7 +44951,9 @@
       <c r="E100" s="11">
         <v>1.21</v>
       </c>
-      <c r="F100" s="12"/>
+      <c r="F100" s="11">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="59">
@@ -44757,7 +44971,9 @@
       <c r="E101" s="12">
         <v>0.77</v>
       </c>
-      <c r="F101" s="12"/>
+      <c r="F101" s="12">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="59">
@@ -44775,7 +44991,9 @@
       <c r="E102" s="11">
         <v>1.03</v>
       </c>
-      <c r="F102" s="12"/>
+      <c r="F102" s="11">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="59">
@@ -44793,7 +45011,9 @@
       <c r="E103" s="12">
         <v>0.82</v>
       </c>
-      <c r="F103" s="12"/>
+      <c r="F103" s="11">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="59">
@@ -44811,7 +45031,9 @@
       <c r="E104" s="11">
         <v>0.99</v>
       </c>
-      <c r="F104" s="12"/>
+      <c r="F104" s="11">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="59">
@@ -44829,7 +45051,9 @@
       <c r="E105" s="11">
         <v>0.98</v>
       </c>
-      <c r="F105" s="12"/>
+      <c r="F105" s="12">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="59">
@@ -44847,7 +45071,9 @@
       <c r="E106" s="11">
         <v>1.07</v>
       </c>
-      <c r="F106" s="12"/>
+      <c r="F106" s="12">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="59">
@@ -44865,7 +45091,9 @@
       <c r="E107" s="11">
         <v>0.95</v>
       </c>
-      <c r="F107" s="12"/>
+      <c r="F107" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="59">
@@ -44883,7 +45111,9 @@
       <c r="E108" s="11">
         <v>1</v>
       </c>
-      <c r="F108" s="12"/>
+      <c r="F108" s="11">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="59">
@@ -44901,7 +45131,9 @@
       <c r="E109" s="11">
         <v>1</v>
       </c>
-      <c r="F109" s="12"/>
+      <c r="F109" s="11">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="59">
@@ -44919,7 +45151,9 @@
       <c r="E110" s="12">
         <v>0.32</v>
       </c>
-      <c r="F110" s="12"/>
+      <c r="F110" s="12">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="59">
@@ -44937,7 +45171,9 @@
       <c r="E111" s="12">
         <v>0.72</v>
       </c>
-      <c r="F111" s="12"/>
+      <c r="F111" s="12">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="59">
@@ -44955,7 +45191,9 @@
       <c r="E112" s="12">
         <v>0.7</v>
       </c>
-      <c r="F112" s="12"/>
+      <c r="F112" s="11">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="59">
@@ -44973,7 +45211,9 @@
       <c r="E113" s="12">
         <v>0</v>
       </c>
-      <c r="F113" s="12"/>
+      <c r="F113" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="59">
@@ -44991,7 +45231,9 @@
       <c r="E114" s="11">
         <v>1.02</v>
       </c>
-      <c r="F114" s="12"/>
+      <c r="F114" s="11">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="59">
@@ -45009,7 +45251,9 @@
       <c r="E115" s="12">
         <v>0.13</v>
       </c>
-      <c r="F115" s="12"/>
+      <c r="F115" s="12">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="59">
@@ -45027,7 +45271,9 @@
       <c r="E116" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F116" s="12"/>
+      <c r="F116" s="11">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="59">
@@ -45045,7 +45291,9 @@
       <c r="E117" s="11">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F117" s="12"/>
+      <c r="F117" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="59">
@@ -45063,7 +45311,9 @@
       <c r="E118" s="12">
         <v>0</v>
       </c>
-      <c r="F118" s="12"/>
+      <c r="F118" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="59">
@@ -45081,7 +45331,9 @@
       <c r="E119" s="12">
         <v>0</v>
       </c>
-      <c r="F119" s="12"/>
+      <c r="F119" s="12">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="59">
@@ -45099,7 +45351,9 @@
       <c r="E120" s="11">
         <v>0.99</v>
       </c>
-      <c r="F120" s="12"/>
+      <c r="F120" s="11">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="59">
@@ -45117,7 +45371,9 @@
       <c r="E121" s="12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F121" s="12"/>
+      <c r="F121" s="11">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="59">
@@ -45135,7 +45391,9 @@
       <c r="E122" s="12">
         <v>0.7</v>
       </c>
-      <c r="F122" s="12"/>
+      <c r="F122" s="12">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="59">
@@ -45153,7 +45411,9 @@
       <c r="E123" s="11">
         <v>0.94</v>
       </c>
-      <c r="F123" s="12"/>
+      <c r="F123" s="11">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="59">
@@ -45171,7 +45431,9 @@
       <c r="E124" s="12">
         <v>0.83</v>
       </c>
-      <c r="F124" s="12"/>
+      <c r="F124" s="12">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="59">
@@ -45189,7 +45451,9 @@
       <c r="E125" s="11">
         <v>0.97</v>
       </c>
-      <c r="F125" s="12"/>
+      <c r="F125" s="11">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="59">
@@ -45207,7 +45471,9 @@
       <c r="E126" s="11">
         <v>1.08</v>
       </c>
-      <c r="F126" s="12"/>
+      <c r="F126" s="11">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="59">
@@ -45225,7 +45491,9 @@
       <c r="E127" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F127" s="12"/>
+      <c r="F127" s="11">
+        <v>1.1200000000000001</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="59">
@@ -45243,7 +45511,9 @@
       <c r="E128" s="11">
         <v>1.06</v>
       </c>
-      <c r="F128" s="12"/>
+      <c r="F128" s="11">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="59">
@@ -45261,7 +45531,9 @@
       <c r="E129" s="11">
         <v>1.01</v>
       </c>
-      <c r="F129" s="12"/>
+      <c r="F129" s="11">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="59">
@@ -45279,7 +45551,9 @@
       <c r="E130" s="11">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F130" s="12"/>
+      <c r="F130" s="11">
+        <v>1.1399999999999999</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="59">
@@ -45297,7 +45571,9 @@
       <c r="E131" s="12">
         <v>0.79</v>
       </c>
-      <c r="F131" s="12"/>
+      <c r="F131" s="11">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="59">
@@ -45315,7 +45591,9 @@
       <c r="E132" s="11">
         <v>0.98</v>
       </c>
-      <c r="F132" s="12"/>
+      <c r="F132" s="11">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="59">
@@ -45333,7 +45611,9 @@
       <c r="E133" s="11">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F133" s="12"/>
+      <c r="F133" s="11">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="59">
@@ -45351,7 +45631,9 @@
       <c r="E134" s="11">
         <v>0.99</v>
       </c>
-      <c r="F134" s="12"/>
+      <c r="F134" s="12">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="59">
@@ -45369,7 +45651,9 @@
       <c r="E135" s="12">
         <v>0</v>
       </c>
-      <c r="F135" s="12"/>
+      <c r="F135" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="59">
@@ -45387,7 +45671,9 @@
       <c r="E136" s="12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F136" s="12"/>
+      <c r="F136" s="11">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="59">
@@ -45405,7 +45691,9 @@
       <c r="E137" s="11">
         <v>0.91</v>
       </c>
-      <c r="F137" s="12"/>
+      <c r="F137" s="11">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="59">
@@ -45423,7 +45711,9 @@
       <c r="E138" s="11">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F138" s="12"/>
+      <c r="F138" s="11">
+        <v>1.1200000000000001</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="59">
@@ -45441,7 +45731,9 @@
       <c r="E139" s="12">
         <v>0.79</v>
       </c>
-      <c r="F139" s="12"/>
+      <c r="F139" s="11">
+        <v>1.0900000000000001</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="59">
@@ -45459,7 +45751,9 @@
       <c r="E140" s="11">
         <v>0.91</v>
       </c>
-      <c r="F140" s="12"/>
+      <c r="F140" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="59">
@@ -45477,7 +45771,9 @@
       <c r="E141" s="11">
         <v>1.07</v>
       </c>
-      <c r="F141" s="12"/>
+      <c r="F141" s="11">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="59">
@@ -45495,7 +45791,9 @@
       <c r="E142" s="11">
         <v>1.04</v>
       </c>
-      <c r="F142" s="12"/>
+      <c r="F142" s="11">
+        <v>1.1100000000000001</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="59">
@@ -45513,7 +45811,9 @@
       <c r="E143" s="11">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F143" s="12"/>
+      <c r="F143" s="11">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="59">
@@ -45531,7 +45831,9 @@
       <c r="E144" s="11">
         <v>0.98</v>
       </c>
-      <c r="F144" s="12"/>
+      <c r="F144" s="11">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="59">
@@ -45549,7 +45851,9 @@
       <c r="E145" s="12">
         <v>0.83</v>
       </c>
-      <c r="F145" s="12"/>
+      <c r="F145" s="12">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="59">
@@ -45567,7 +45871,9 @@
       <c r="E146" s="11">
         <v>1</v>
       </c>
-      <c r="F146" s="12"/>
+      <c r="F146" s="11">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="59">
@@ -45585,7 +45891,9 @@
       <c r="E147" s="11">
         <v>1</v>
       </c>
-      <c r="F147" s="12"/>
+      <c r="F147" s="11">
+        <v>1.1100000000000001</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="59">
@@ -45603,7 +45911,9 @@
       <c r="E148" s="11">
         <v>1</v>
       </c>
-      <c r="F148" s="12"/>
+      <c r="F148" s="12">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="59">
@@ -45621,7 +45931,9 @@
       <c r="E149" s="11">
         <v>1.24</v>
       </c>
-      <c r="F149" s="12"/>
+      <c r="F149" s="11">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="59">
@@ -45639,7 +45951,9 @@
       <c r="E150" s="12">
         <v>0</v>
       </c>
-      <c r="F150" s="12"/>
+      <c r="F150" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="59">
@@ -45657,7 +45971,9 @@
       <c r="E151" s="11">
         <v>1.19</v>
       </c>
-      <c r="F151" s="12"/>
+      <c r="F151" s="11">
+        <v>1.1100000000000001</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="59">
@@ -45675,7 +45991,9 @@
       <c r="E152" s="12">
         <v>0.63</v>
       </c>
-      <c r="F152" s="12"/>
+      <c r="F152" s="11">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="59">
@@ -45693,7 +46011,9 @@
       <c r="E153" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F153" s="12"/>
+      <c r="F153" s="11">
+        <v>1.1299999999999999</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="59">
@@ -45711,7 +46031,9 @@
       <c r="E154" s="12">
         <v>0.59</v>
       </c>
-      <c r="F154" s="12"/>
+      <c r="F154" s="12">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="59">
@@ -45729,7 +46051,9 @@
       <c r="E155" s="11">
         <v>1.03</v>
       </c>
-      <c r="F155" s="12"/>
+      <c r="F155" s="11">
+        <v>1.01</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="59">
@@ -45747,7 +46071,9 @@
       <c r="E156" s="11">
         <v>1.05</v>
       </c>
-      <c r="F156" s="12"/>
+      <c r="F156" s="11">
+        <v>1.1100000000000001</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="59">
@@ -45765,7 +46091,9 @@
       <c r="E157" s="11">
         <v>1.02</v>
       </c>
-      <c r="F157" s="12"/>
+      <c r="F157" s="11">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="59">
@@ -45783,7 +46111,9 @@
       <c r="E158" s="11">
         <v>1</v>
       </c>
-      <c r="F158" s="12"/>
+      <c r="F158" s="11">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="59">
@@ -45801,7 +46131,9 @@
       <c r="E159" s="12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F159" s="12"/>
+      <c r="F159" s="12">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="59">
@@ -45819,7 +46151,9 @@
       <c r="E160" s="11">
         <v>1</v>
       </c>
-      <c r="F160" s="12"/>
+      <c r="F160" s="11">
+        <v>1.06</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="59">
@@ -45837,7 +46171,9 @@
       <c r="E161" s="11">
         <v>1.23</v>
       </c>
-      <c r="F161" s="12"/>
+      <c r="F161" s="11">
+        <v>1.0900000000000001</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="59">
@@ -45855,7 +46191,9 @@
       <c r="E162" s="11">
         <v>1</v>
       </c>
-      <c r="F162" s="12"/>
+      <c r="F162" s="11">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="59">
@@ -45873,7 +46211,9 @@
       <c r="E163" s="11">
         <v>1.08</v>
       </c>
-      <c r="F163" s="12"/>
+      <c r="F163" s="11">
+        <v>1.1299999999999999</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="59">
@@ -45888,10 +46228,12 @@
       <c r="D164" s="12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E164" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="F164" s="12"/>
+      <c r="E164" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="F164" s="12">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="59">
@@ -45909,7 +46251,9 @@
       <c r="E165" s="11">
         <v>1.05</v>
       </c>
-      <c r="F165" s="12"/>
+      <c r="F165" s="11">
+        <v>1.0900000000000001</v>
+      </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="59">
@@ -45927,7 +46271,9 @@
       <c r="E166" s="12">
         <v>0</v>
       </c>
-      <c r="F166" s="12"/>
+      <c r="F166" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="59">
@@ -45945,7 +46291,9 @@
       <c r="E167" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F167" s="12"/>
+      <c r="F167" s="11">
+        <v>1.1200000000000001</v>
+      </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="59">
@@ -45963,7 +46311,9 @@
       <c r="E168" s="11">
         <v>1.19</v>
       </c>
-      <c r="F168" s="12"/>
+      <c r="F168" s="11">
+        <v>1.1100000000000001</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="59">
@@ -45981,7 +46331,9 @@
       <c r="E169" s="11">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F169" s="12"/>
+      <c r="F169" s="11">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="59">
@@ -45999,7 +46351,9 @@
       <c r="E170" s="11">
         <v>1.06</v>
       </c>
-      <c r="F170" s="12"/>
+      <c r="F170" s="11">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="59">
@@ -46017,7 +46371,9 @@
       <c r="E171" s="11">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F171" s="12"/>
+      <c r="F171" s="11">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="59">
@@ -46035,7 +46391,9 @@
       <c r="E172" s="11">
         <v>1.01</v>
       </c>
-      <c r="F172" s="12"/>
+      <c r="F172" s="11">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="59">
@@ -46053,7 +46411,9 @@
       <c r="E173" s="11">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F173" s="12"/>
+      <c r="F173" s="12">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="59">
@@ -46071,7 +46431,9 @@
       <c r="E174" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F174" s="12"/>
+      <c r="F174" s="11">
+        <v>1.1499999999999999</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="59">
@@ -46089,7 +46451,9 @@
       <c r="E175" s="11">
         <v>0.92</v>
       </c>
-      <c r="F175" s="12"/>
+      <c r="F175" s="11">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="59">
@@ -46107,7 +46471,9 @@
       <c r="E176" s="11">
         <v>1.01</v>
       </c>
-      <c r="F176" s="12"/>
+      <c r="F176" s="12">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="59">
@@ -46125,7 +46491,9 @@
       <c r="E177" s="12">
         <v>0.44</v>
       </c>
-      <c r="F177" s="12"/>
+      <c r="F177" s="11">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="59">
@@ -46143,7 +46511,9 @@
       <c r="E178" s="12">
         <v>0.6</v>
       </c>
-      <c r="F178" s="12"/>
+      <c r="F178" s="11">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="59">
@@ -46161,7 +46531,9 @@
       <c r="E179" s="12">
         <v>0.89</v>
       </c>
-      <c r="F179" s="12"/>
+      <c r="F179" s="12">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="59">
@@ -46179,7 +46551,9 @@
       <c r="E180" s="12">
         <v>0</v>
       </c>
-      <c r="F180" s="12"/>
+      <c r="F180" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="59">
@@ -46197,7 +46571,9 @@
       <c r="E181" s="11">
         <v>1</v>
       </c>
-      <c r="F181" s="12"/>
+      <c r="F181" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="59">
@@ -46215,7 +46591,9 @@
       <c r="E182" s="11">
         <v>0.93</v>
       </c>
-      <c r="F182" s="12"/>
+      <c r="F182" s="11">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="59">
@@ -46233,7 +46611,9 @@
       <c r="E183" s="12">
         <v>0.37</v>
       </c>
-      <c r="F183" s="12"/>
+      <c r="F183" s="11">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="59">
@@ -46251,7 +46631,9 @@
       <c r="E184" s="12">
         <v>0.81</v>
       </c>
-      <c r="F184" s="12"/>
+      <c r="F184" s="12">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="59">
@@ -46269,7 +46651,9 @@
       <c r="E185" s="11">
         <v>1.03</v>
       </c>
-      <c r="F185" s="12"/>
+      <c r="F185" s="11">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="59">
@@ -46287,7 +46671,9 @@
       <c r="E186" s="11">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F186" s="12"/>
+      <c r="F186" s="11">
+        <v>1.1299999999999999</v>
+      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="59">
@@ -46305,7 +46691,9 @@
       <c r="E187" s="11">
         <v>1.04</v>
       </c>
-      <c r="F187" s="12"/>
+      <c r="F187" s="11">
+        <v>1.01</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="59">
@@ -46323,7 +46711,9 @@
       <c r="E188" s="11">
         <v>1.03</v>
       </c>
-      <c r="F188" s="12"/>
+      <c r="F188" s="11">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="59">
@@ -46341,7 +46731,9 @@
       <c r="E189" s="11">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F189" s="12"/>
+      <c r="F189" s="11">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="59">
@@ -46359,7 +46751,9 @@
       <c r="E190" s="11">
         <v>1.01</v>
       </c>
-      <c r="F190" s="12"/>
+      <c r="F190" s="11">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="59">
@@ -46377,7 +46771,9 @@
       <c r="E191" s="11">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F191" s="12"/>
+      <c r="F191" s="11">
+        <v>1.1599999999999999</v>
+      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="59">
@@ -46395,7 +46791,9 @@
       <c r="E192" s="11">
         <v>1.03</v>
       </c>
-      <c r="F192" s="12"/>
+      <c r="F192" s="12">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="59">
@@ -46413,7 +46811,9 @@
       <c r="E193" s="11">
         <v>1.19</v>
       </c>
-      <c r="F193" s="12"/>
+      <c r="F193" s="11">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="59">
@@ -46431,7 +46831,9 @@
       <c r="E194" s="11">
         <v>1.01</v>
       </c>
-      <c r="F194" s="12"/>
+      <c r="F194" s="11">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="59">
@@ -46449,7 +46851,9 @@
       <c r="E195" s="11">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F195" s="12"/>
+      <c r="F195" s="11">
+        <v>1.1299999999999999</v>
+      </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="59">
@@ -46467,7 +46871,9 @@
       <c r="E196" s="12">
         <v>0.36</v>
       </c>
-      <c r="F196" s="12"/>
+      <c r="F196" s="12">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="59">
@@ -46485,7 +46891,9 @@
       <c r="E197" s="11">
         <v>1.03</v>
       </c>
-      <c r="F197" s="12"/>
+      <c r="F197" s="12">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="59">
@@ -46503,7 +46911,9 @@
       <c r="E198" s="11">
         <v>0.98</v>
       </c>
-      <c r="F198" s="12"/>
+      <c r="F198" s="11">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="59">
@@ -46521,7 +46931,9 @@
       <c r="E199" s="12">
         <v>0.34</v>
       </c>
-      <c r="F199" s="12"/>
+      <c r="F199" s="12">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="59">
@@ -46539,7 +46951,9 @@
       <c r="E200" s="11">
         <v>1.05</v>
       </c>
-      <c r="F200" s="12"/>
+      <c r="F200" s="12">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="59">
@@ -46557,7 +46971,9 @@
       <c r="E201" s="11">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F201" s="12"/>
+      <c r="F201" s="11">
+        <v>1.1299999999999999</v>
+      </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="59">
@@ -46575,7 +46991,9 @@
       <c r="E202" s="11">
         <v>1.04</v>
       </c>
-      <c r="F202" s="12"/>
+      <c r="F202" s="12">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="59">
@@ -46593,7 +47011,9 @@
       <c r="E203" s="12">
         <v>0.71</v>
       </c>
-      <c r="F203" s="12"/>
+      <c r="F203" s="11">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="59">
@@ -46611,7 +47031,9 @@
       <c r="E204" s="11">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F204" s="12"/>
+      <c r="F204" s="11">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="59">
@@ -46629,7 +47051,9 @@
       <c r="E205" s="12">
         <v>0</v>
       </c>
-      <c r="F205" s="12"/>
+      <c r="F205" s="12">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="59">
@@ -46641,13 +47065,15 @@
       <c r="C206" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="D206" s="12">
-        <v>0</v>
-      </c>
-      <c r="E206" s="12">
+      <c r="D206" s="66">
+        <v>0</v>
+      </c>
+      <c r="E206" s="66">
         <v>0.79</v>
       </c>
-      <c r="F206" s="12"/>
+      <c r="F206" s="66">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="59">
@@ -46665,7 +47091,9 @@
       <c r="E207" s="12">
         <v>0</v>
       </c>
-      <c r="F207" s="12"/>
+      <c r="F207" s="12">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="59">
@@ -46683,7 +47111,9 @@
       <c r="E208" s="12">
         <v>0</v>
       </c>
-      <c r="F208" s="12"/>
+      <c r="F208" s="12">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="59">
@@ -46701,7 +47131,9 @@
       <c r="E209" s="12">
         <v>0</v>
       </c>
-      <c r="F209" s="12"/>
+      <c r="F209" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="59">
@@ -46719,7 +47151,9 @@
       <c r="E210" s="12">
         <v>0</v>
       </c>
-      <c r="F210" s="12"/>
+      <c r="F210" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="59">
@@ -46735,9 +47169,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E211" s="12">
-        <v>0</v>
-      </c>
-      <c r="F211" s="12"/>
+        <v>0.16</v>
+      </c>
+      <c r="F211" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="59">
@@ -46753,9 +47189,11 @@
         <v>0.84</v>
       </c>
       <c r="E212" s="12">
-        <v>0</v>
-      </c>
-      <c r="F212" s="12"/>
+        <v>0.89</v>
+      </c>
+      <c r="F212" s="12">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="59">
@@ -46770,10 +47208,12 @@
       <c r="D213" s="11">
         <v>0.98</v>
       </c>
-      <c r="E213" s="12">
-        <v>0</v>
-      </c>
-      <c r="F213" s="12"/>
+      <c r="E213" s="11">
+        <v>1</v>
+      </c>
+      <c r="F213" s="11">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="59">
@@ -46788,10 +47228,12 @@
       <c r="D214" s="12">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E214" s="12">
-        <v>0</v>
-      </c>
-      <c r="F214" s="12"/>
+      <c r="E214" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="F214" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="59">
@@ -46807,9 +47249,11 @@
         <v>0.65</v>
       </c>
       <c r="E215" s="12">
-        <v>0</v>
-      </c>
-      <c r="F215" s="12"/>
+        <v>0.52</v>
+      </c>
+      <c r="F215" s="12">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="59">
@@ -46825,9 +47269,11 @@
         <v>0</v>
       </c>
       <c r="E216" s="12">
-        <v>0</v>
-      </c>
-      <c r="F216" s="12"/>
+        <v>0.72</v>
+      </c>
+      <c r="F216" s="11">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="59">
@@ -46843,9 +47289,11 @@
         <v>0.63</v>
       </c>
       <c r="E217" s="12">
-        <v>0</v>
-      </c>
-      <c r="F217" s="12"/>
+        <v>0.67</v>
+      </c>
+      <c r="F217" s="11">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="59">
@@ -46860,10 +47308,12 @@
       <c r="D218" s="11">
         <v>0.96</v>
       </c>
-      <c r="E218" s="12">
-        <v>0</v>
-      </c>
-      <c r="F218" s="12"/>
+      <c r="E218" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="F218" s="12">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="59">
@@ -46878,10 +47328,12 @@
       <c r="D219" s="12">
         <v>0.81</v>
       </c>
-      <c r="E219" s="12">
-        <v>0</v>
-      </c>
-      <c r="F219" s="12"/>
+      <c r="E219" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="F219" s="11">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="59">
@@ -46896,10 +47348,12 @@
       <c r="D220" s="11">
         <v>0.98</v>
       </c>
-      <c r="E220" s="12">
-        <v>0</v>
-      </c>
-      <c r="F220" s="12"/>
+      <c r="E220" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="F220" s="11">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="59">
@@ -46914,10 +47368,12 @@
       <c r="D221" s="12">
         <v>0.85</v>
       </c>
-      <c r="E221" s="12">
-        <v>0</v>
-      </c>
-      <c r="F221" s="12"/>
+      <c r="E221" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="F221" s="11">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="59">
@@ -46933,9 +47389,11 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E222" s="12">
-        <v>0</v>
-      </c>
-      <c r="F222" s="12"/>
+        <v>0.75</v>
+      </c>
+      <c r="F222" s="12">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="59">
@@ -46951,9 +47409,11 @@
         <v>0.82</v>
       </c>
       <c r="E223" s="12">
-        <v>0</v>
-      </c>
-      <c r="F223" s="12"/>
+        <v>0.65</v>
+      </c>
+      <c r="F223" s="12">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="59">
@@ -46969,9 +47429,11 @@
         <v>0.81</v>
       </c>
       <c r="E224" s="12">
-        <v>0</v>
-      </c>
-      <c r="F224" s="12"/>
+        <v>0.84</v>
+      </c>
+      <c r="F224" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="59">
@@ -46987,9 +47449,11 @@
         <v>0.6</v>
       </c>
       <c r="E225" s="12">
-        <v>0</v>
-      </c>
-      <c r="F225" s="12"/>
+        <v>0.8</v>
+      </c>
+      <c r="F225" s="11">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="59">
@@ -47004,10 +47468,12 @@
       <c r="D226" s="11">
         <v>1.08</v>
       </c>
-      <c r="E226" s="12">
-        <v>0</v>
-      </c>
-      <c r="F226" s="12"/>
+      <c r="E226" s="11">
+        <v>1</v>
+      </c>
+      <c r="F226" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="59">
@@ -47023,9 +47489,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E227" s="12">
-        <v>0</v>
-      </c>
-      <c r="F227" s="12"/>
+        <v>0.84</v>
+      </c>
+      <c r="F227" s="12">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="59">
@@ -47040,10 +47508,12 @@
       <c r="D228" s="11">
         <v>0.93</v>
       </c>
-      <c r="E228" s="12">
-        <v>0</v>
-      </c>
-      <c r="F228" s="12"/>
+      <c r="E228" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="F228" s="11">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="59">
@@ -47058,10 +47528,12 @@
       <c r="D229" s="12">
         <v>0.84</v>
       </c>
-      <c r="E229" s="12">
-        <v>0</v>
-      </c>
-      <c r="F229" s="12"/>
+      <c r="E229" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="F229" s="11">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="59">
@@ -47076,10 +47548,12 @@
       <c r="D230" s="12">
         <v>0.6</v>
       </c>
-      <c r="E230" s="12">
-        <v>0</v>
-      </c>
-      <c r="F230" s="12"/>
+      <c r="E230" s="11">
+        <v>1</v>
+      </c>
+      <c r="F230" s="12">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="59">
@@ -47094,10 +47568,12 @@
       <c r="D231" s="12">
         <v>0.88</v>
       </c>
-      <c r="E231" s="12">
-        <v>0</v>
-      </c>
-      <c r="F231" s="12"/>
+      <c r="E231" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="F231" s="12">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="59">
@@ -47112,10 +47588,12 @@
       <c r="D232" s="11">
         <v>1.03</v>
       </c>
-      <c r="E232" s="12">
-        <v>0</v>
-      </c>
-      <c r="F232" s="12"/>
+      <c r="E232" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="F232" s="11">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="59">
@@ -47131,9 +47609,11 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E233" s="12">
-        <v>0</v>
-      </c>
-      <c r="F233" s="12"/>
+        <v>0.59</v>
+      </c>
+      <c r="F233" s="11">
+        <v>1.01</v>
+      </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="59">
@@ -47151,7 +47631,9 @@
       <c r="E234" s="12">
         <v>0</v>
       </c>
-      <c r="F234" s="12"/>
+      <c r="F234" s="11">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="59">
@@ -47169,7 +47651,9 @@
       <c r="E235" s="11">
         <v>1</v>
       </c>
-      <c r="F235" s="12"/>
+      <c r="F235" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="59">
@@ -47187,7 +47671,9 @@
       <c r="E236" s="11">
         <v>1</v>
       </c>
-      <c r="F236" s="12"/>
+      <c r="F236" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="59">
@@ -47199,13 +47685,15 @@
       <c r="C237" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="D237" s="12">
-        <v>0</v>
-      </c>
-      <c r="E237" s="12">
-        <v>0</v>
-      </c>
-      <c r="F237" s="12"/>
+      <c r="D237" s="11">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E237" s="11">
+        <v>1.06</v>
+      </c>
+      <c r="F237" s="12">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="59">
@@ -47218,12 +47706,14 @@
         <v>358</v>
       </c>
       <c r="D238" s="12">
-        <v>0</v>
-      </c>
-      <c r="E238" s="12">
-        <v>0</v>
-      </c>
-      <c r="F238" s="12"/>
+        <v>0.67</v>
+      </c>
+      <c r="E238" s="11">
+        <v>1</v>
+      </c>
+      <c r="F238" s="12">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="59">
@@ -47236,12 +47726,14 @@
         <v>139</v>
       </c>
       <c r="D239" s="12">
-        <v>0</v>
-      </c>
-      <c r="E239" s="12">
-        <v>0</v>
-      </c>
-      <c r="F239" s="12"/>
+        <v>0.69</v>
+      </c>
+      <c r="E239" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="F239" s="12">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="59">
@@ -47254,12 +47746,14 @@
         <v>442</v>
       </c>
       <c r="D240" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E240" s="12">
-        <v>0</v>
-      </c>
-      <c r="F240" s="12"/>
+        <v>0.78</v>
+      </c>
+      <c r="F240" s="12">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="59">
@@ -47271,13 +47765,15 @@
       <c r="C241" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="D241" s="12">
-        <v>0</v>
-      </c>
-      <c r="E241" s="12">
-        <v>0</v>
-      </c>
-      <c r="F241" s="12"/>
+      <c r="D241" s="67">
+        <v>0.99</v>
+      </c>
+      <c r="E241" s="67">
+        <v>1.08</v>
+      </c>
+      <c r="F241" s="66">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="59">
@@ -47289,13 +47785,15 @@
       <c r="C242" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="D242" s="12">
-        <v>0</v>
-      </c>
-      <c r="E242" s="12">
-        <v>0</v>
-      </c>
-      <c r="F242" s="12"/>
+      <c r="D242" s="66">
+        <v>0.84</v>
+      </c>
+      <c r="E242" s="67">
+        <v>1.05</v>
+      </c>
+      <c r="F242" s="66">
+        <v>-1.18</v>
+      </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="59">
@@ -47307,13 +47805,15 @@
       <c r="C243" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="D243" s="12">
-        <v>0</v>
-      </c>
-      <c r="E243" s="12">
-        <v>0</v>
-      </c>
-      <c r="F243" s="12"/>
+      <c r="D243" s="66">
+        <v>0.71</v>
+      </c>
+      <c r="E243" s="67">
+        <v>0.92</v>
+      </c>
+      <c r="F243" s="66">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="59">
@@ -47325,13 +47825,15 @@
       <c r="C244" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="D244" s="12">
-        <v>0</v>
-      </c>
-      <c r="E244" s="12">
-        <v>0</v>
-      </c>
-      <c r="F244" s="12"/>
+      <c r="D244" s="66">
+        <v>0.82</v>
+      </c>
+      <c r="E244" s="67">
+        <v>0.96</v>
+      </c>
+      <c r="F244" s="66">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="59">
@@ -47343,13 +47845,15 @@
       <c r="C245" s="59" t="s">
         <v>443</v>
       </c>
-      <c r="D245" s="12">
-        <v>0</v>
-      </c>
-      <c r="E245" s="12">
-        <v>0</v>
-      </c>
-      <c r="F245" s="12"/>
+      <c r="D245" s="67">
+        <v>0.99</v>
+      </c>
+      <c r="E245" s="67">
+        <v>0.97</v>
+      </c>
+      <c r="F245" s="66">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="59">
@@ -47361,13 +47865,15 @@
       <c r="C246" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D246" s="12">
-        <v>0</v>
-      </c>
-      <c r="E246" s="12">
-        <v>0</v>
-      </c>
-      <c r="F246" s="12"/>
+      <c r="D246" s="66">
+        <v>0.87</v>
+      </c>
+      <c r="E246" s="66">
+        <v>0.79</v>
+      </c>
+      <c r="F246" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="59">
@@ -47379,11 +47885,14 @@
       <c r="C247" s="59" t="s">
         <v>351</v>
       </c>
-      <c r="D247" s="12">
-        <v>0</v>
-      </c>
-      <c r="E247" s="12">
-        <v>0</v>
+      <c r="D247" s="67">
+        <v>0.97</v>
+      </c>
+      <c r="E247" s="67">
+        <v>0.97</v>
+      </c>
+      <c r="F247" s="66">
+        <v>0.37</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -47396,11 +47905,14 @@
       <c r="C248" s="59" t="s">
         <v>505</v>
       </c>
-      <c r="D248" s="12">
-        <v>0</v>
-      </c>
-      <c r="E248" s="12">
-        <v>0</v>
+      <c r="D248" s="67">
+        <v>0.99</v>
+      </c>
+      <c r="E248" s="66">
+        <v>0.8</v>
+      </c>
+      <c r="F248" s="66">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -69202,14 +69714,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="3cef09ca-690e-48ca-8db1-bbccdf684368" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ba1b9e1-d32c-453a-80ca-da429ca95d13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69468,27 +69978,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3cef09ca-690e-48ca-8db1-bbccdf684368" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ba1b9e1-d32c-453a-80ca-da429ca95d13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DA11991-CB2B-42C8-9D1A-27999BA19AA4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EF37548-399B-4B64-AB6C-62FF5630FEED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3cef09ca-690e-48ca-8db1-bbccdf684368"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2ba1b9e1-d32c-453a-80ca-da429ca95d13"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -69513,9 +70016,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EF37548-399B-4B64-AB6C-62FF5630FEED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DA11991-CB2B-42C8-9D1A-27999BA19AA4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="3cef09ca-690e-48ca-8db1-bbccdf684368"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2ba1b9e1-d32c-453a-80ca-da429ca95d13"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>